--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\###Bookdown\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\###Orbis\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22CA812-2C9C-49B2-940B-C98F59629D00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A11A42-2F8C-45FA-9A32-16D87C32387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52920" yWindow="11760" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="390">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -1199,6 +1201,15 @@
   </si>
   <si>
     <t>Glaube</t>
+  </si>
+  <si>
+    <t>Belastung</t>
+  </si>
+  <si>
+    <t>(Phy*2</t>
+  </si>
+  <si>
+    <t>Survival</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1977,6 +1988,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,7 +2017,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="218">
+  <dxfs count="224">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2860,6 +2872,48 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3948,41 +4002,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" customWidth="1"/>
-    <col min="4" max="4" width="6.83984375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="4.15625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="1.68359375" customWidth="1"/>
-    <col min="8" max="8" width="4.15625" customWidth="1"/>
-    <col min="9" max="9" width="2.41796875" customWidth="1"/>
-    <col min="10" max="10" width="4.83984375" customWidth="1"/>
-    <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="4.68359375" customWidth="1"/>
-    <col min="13" max="13" width="1.83984375" customWidth="1"/>
-    <col min="14" max="14" width="3.68359375" customWidth="1"/>
-    <col min="15" max="15" width="4.15625" customWidth="1"/>
-    <col min="16" max="16" width="17.83984375" customWidth="1"/>
-    <col min="17" max="17" width="4.578125" customWidth="1"/>
-    <col min="18" max="18" width="8.26171875" style="61" customWidth="1"/>
-    <col min="19" max="19" width="15.68359375" customWidth="1"/>
-    <col min="20" max="20" width="4.83984375" customWidth="1"/>
-    <col min="21" max="21" width="6.15625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.578125" customWidth="1"/>
-    <col min="23" max="23" width="4.83984375" customWidth="1"/>
-    <col min="24" max="24" width="7.15625" customWidth="1"/>
-    <col min="26" max="26" width="6.83984375" customWidth="1"/>
-    <col min="27" max="27" width="9.68359375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="1.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="61" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
@@ -4066,12 +4120,12 @@
         <v>12</v>
       </c>
       <c r="R2" s="116"/>
-      <c r="S2" s="122" t="s">
+      <c r="S2" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="125"/>
       <c r="W2" s="7"/>
       <c r="X2" s="20"/>
       <c r="Y2" s="20" t="s">
@@ -4081,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -4135,7 +4189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -4187,7 +4241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -4237,7 +4291,7 @@
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -4283,7 +4337,7 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="7"/>
@@ -4311,10 +4365,10 @@
         <v>332</v>
       </c>
       <c r="T7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="V7" s="72">
         <f>CharacterSheet!I6</f>
@@ -4325,7 +4379,7 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
     </row>
-    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -4377,7 +4431,7 @@
       </c>
       <c r="Z8" s="20"/>
     </row>
-    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -4431,7 +4485,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -4488,7 +4542,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>58</v>
       </c>
@@ -4519,12 +4573,12 @@
         <v>10</v>
       </c>
       <c r="R11" s="100"/>
-      <c r="S11" s="122" t="s">
+      <c r="S11" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="130"/>
       <c r="W11" s="7"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="11" t="s">
@@ -4535,7 +4589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>62</v>
       </c>
@@ -4588,7 +4642,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>65</v>
       </c>
@@ -4628,10 +4682,15 @@
       </c>
       <c r="W13" s="68"/>
       <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y13" s="122" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z13" s="11" t="str">
+        <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
+        <v>Leicht</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
@@ -4650,7 +4709,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="31"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="125" t="s">
+      <c r="P14" s="126" t="s">
         <v>66</v>
       </c>
       <c r="Q14" s="20"/>
@@ -4670,7 +4729,7 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
     </row>
-    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="43"/>
       <c r="C15" s="20"/>
@@ -4684,7 +4743,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="31"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="126"/>
+      <c r="P15" s="127"/>
       <c r="Q15" s="20"/>
       <c r="S15" s="73" t="s">
         <v>68</v>
@@ -4704,7 +4763,7 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
     </row>
-    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>71</v>
       </c>
@@ -4720,15 +4779,15 @@
       <c r="M16" s="20"/>
       <c r="N16" s="31"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="127"/>
+      <c r="P16" s="128"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="82"/>
-      <c r="S16" s="122" t="s">
+      <c r="S16" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="7"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="12" t="s">
@@ -4736,7 +4795,7 @@
       </c>
       <c r="Z16" s="20"/>
     </row>
-    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>75</v>
       </c>
@@ -4784,7 +4843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>81</v>
       </c>
@@ -4832,7 +4891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4874,7 +4933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
@@ -4917,7 +4976,7 @@
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>96</v>
       </c>
@@ -4965,7 +5024,7 @@
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
     </row>
-    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>98</v>
       </c>
@@ -4978,8 +5037,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" ref="D22:D26" si="0">B22-C22</f>
+        <f>B22+C22</f>
         <v>12</v>
+      </c>
+      <c r="E22" s="20" t="str">
+        <f>IF(D22&lt;4,"Debuff","")</f>
+        <v/>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -4999,9 +5062,11 @@
         <v>97</v>
       </c>
       <c r="T22" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="111"/>
+        <v>388</v>
+      </c>
+      <c r="U22" s="111" t="s">
+        <v>88</v>
+      </c>
       <c r="V22" s="74">
         <f>CharacterSheet!I19</f>
         <v>20</v>
@@ -5013,7 +5078,7 @@
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
     </row>
-    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>101</v>
       </c>
@@ -5026,8 +5091,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="45">
-        <f t="shared" si="0"/>
+        <f>B23+C23</f>
         <v>55</v>
+      </c>
+      <c r="E23" s="20" t="str">
+        <f>IF(D23=0,"Verkrüppelt",IF(D23&lt;=B23*0.2,"Verstümmelt",""))</f>
+        <v/>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -5042,12 +5111,12 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="82"/>
-      <c r="S23" s="122" t="s">
+      <c r="S23" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="125"/>
       <c r="W23" s="7"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
@@ -5055,7 +5124,7 @@
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>103</v>
       </c>
@@ -5068,8 +5137,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="45">
-        <f t="shared" si="0"/>
+        <f>B24+C24</f>
         <v>192.5</v>
+      </c>
+      <c r="E24" s="20" t="str">
+        <f>IF(D24=0,"Verkrüppelt",IF(D24&lt;=B24*0.2,"Verstümmelt",""))</f>
+        <v/>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -5101,7 +5174,7 @@
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
     </row>
-    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>58</v>
       </c>
@@ -5114,8 +5187,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D25:D26" si="0">B25+C25</f>
         <v>110</v>
+      </c>
+      <c r="E25" s="20" t="str">
+        <f>IF(D25=0,"Verkrüppelt",IF(D25&lt;=B25*0.2,"Verstümmelt",""))</f>
+        <v/>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -5147,7 +5224,7 @@
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>65</v>
       </c>
@@ -5162,6 +5239,10 @@
       <c r="D26" s="45">
         <f t="shared" si="0"/>
         <v>137.5</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <f>IF(D26=0,"Verkrüppelt",IF(D26&lt;=B26*0.2,"Verstümmelt",""))</f>
+        <v/>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -5176,12 +5257,12 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="82"/>
-      <c r="S26" s="122" t="s">
+      <c r="S26" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="125"/>
       <c r="W26" s="7"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
@@ -5189,7 +5270,7 @@
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -5223,7 +5304,7 @@
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -5257,7 +5338,7 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
     </row>
-    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -5293,7 +5374,7 @@
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
     </row>
-    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -5310,12 +5391,12 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="82"/>
-      <c r="S30" s="122" t="s">
+      <c r="S30" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="125"/>
       <c r="W30" s="7"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
@@ -5323,7 +5404,7 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -5357,7 +5438,7 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -5391,7 +5472,7 @@
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
     </row>
-    <row r="33" spans="16:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="S33" s="73" t="s">
@@ -5418,353 +5499,387 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="223" priority="112" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="222" priority="113" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="221" priority="114" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="220" priority="115" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="219" priority="116" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="218" priority="117" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="211" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="210" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="209" priority="97" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="215" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="98" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="214" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="99" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="213" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="100" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="212" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="101" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="211" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="102" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="210" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="203" priority="91" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="209" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="92" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="208" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="93" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="207" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="94" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="206" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="95" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="205" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="96" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="204" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="197" priority="85" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="203" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="86" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="202" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="87" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="201" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="88" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="200" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="89" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="199" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="90" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="198" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="191" priority="79" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="197" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="80" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="196" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="81" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="195" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="82" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="194" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="83" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="193" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="84" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="192" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="185" priority="73" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="191" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="74" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="190" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="75" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="189" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="76" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="188" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="77" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="187" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="78" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="186" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="179" priority="61" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="185" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="62" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="184" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="63" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="183" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="64" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="182" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="65" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="66" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="173" priority="55" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="179" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="56" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="178" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="57" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="177" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="58" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="59" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="175" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="60" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="174" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="167" priority="43" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="173" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="44" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="172" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="45" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="171" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="46" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="47" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="169" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="48" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="161" priority="49" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="167" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="50" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="166" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="51" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="165" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="52" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="163" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="54" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="162" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="155" priority="37" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="161" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="38" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="160" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="39" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="159" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="40" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="158" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="41" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="157" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="42" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="156" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="149" priority="31" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="155" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="32" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="154" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="33" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="153" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="34" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="35" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="151" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="36" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="149" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="148" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="147" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="146" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="145" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="144" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="143" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="141" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="140" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="139" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="24" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="138" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="14" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="135" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="17" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="133" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="18" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="132" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="131" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="129" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="127" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="6" operator="containsText" text="Schwer">
+      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
+      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E26">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E26">
+    <cfRule type="containsText" dxfId="115" priority="2" operator="containsText" text="Verkrüppelt">
+      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5780,15 +5895,15 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="5" max="5" width="6.578125" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>113</v>
       </c>
@@ -5808,7 +5923,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>115</v>
       </c>
@@ -5824,7 +5939,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>92</v>
       </c>
@@ -5840,8 +5955,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>118</v>
       </c>
@@ -5861,10 +5976,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>121</v>
       </c>
@@ -5881,7 +5996,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>122</v>
       </c>
@@ -5900,7 +6015,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -5919,7 +6034,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
@@ -5944,19 +6059,19 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>126</v>
       </c>
@@ -5978,7 +6093,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>128</v>
       </c>
@@ -5999,7 +6114,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>129</v>
       </c>
@@ -6021,7 +6136,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>130</v>
       </c>
@@ -6040,7 +6155,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>131</v>
       </c>
@@ -6061,7 +6176,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>133</v>
       </c>
@@ -6083,7 +6198,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6094,7 +6209,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6107,7 +6222,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6124,7 +6239,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6135,7 +6250,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6146,7 +6261,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6157,7 +6272,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>135</v>
       </c>
@@ -6180,7 +6295,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6188,7 +6303,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -6211,7 +6326,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>139</v>
       </c>
@@ -6234,7 +6349,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6245,7 +6360,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>141</v>
       </c>
@@ -6268,7 +6383,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>143</v>
       </c>
@@ -6280,7 +6395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>144</v>
       </c>
@@ -6306,12 +6421,12 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>77</v>
       </c>
@@ -6346,7 +6461,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>154</v>
       </c>
@@ -6381,7 +6496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>159</v>
       </c>
@@ -6416,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>161</v>
       </c>
@@ -6451,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
@@ -6486,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>166</v>
       </c>
@@ -6521,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>161</v>
       </c>
@@ -6556,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -6569,7 +6684,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -6591,26 +6706,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.41796875" customWidth="1"/>
-    <col min="3" max="3" width="3.26171875" customWidth="1"/>
-    <col min="4" max="4" width="2.83984375" customWidth="1"/>
-    <col min="5" max="5" width="19.578125" customWidth="1"/>
-    <col min="6" max="6" width="4.68359375" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="4.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.68359375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>168</v>
       </c>
@@ -6653,7 +6768,7 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>14</v>
       </c>
@@ -6699,7 +6814,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>20</v>
       </c>
@@ -6745,7 +6860,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +6900,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>33</v>
       </c>
@@ -6821,7 +6936,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>37</v>
       </c>
@@ -6836,10 +6951,10 @@
         <v>332</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="90" t="s">
         <v>69</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>94</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="95">
@@ -6853,7 +6968,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
     </row>
-    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>39</v>
       </c>
@@ -6887,7 +7002,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
     </row>
-    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>45</v>
       </c>
@@ -6923,7 +7038,7 @@
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
     </row>
-    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>386</v>
       </c>
@@ -6953,7 +7068,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>50</v>
       </c>
@@ -6986,7 +7101,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>55</v>
       </c>
@@ -7017,7 +7132,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="20"/>
@@ -7041,7 +7156,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="20"/>
@@ -7067,7 +7182,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -7093,7 +7208,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
@@ -7125,7 +7240,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -7153,7 +7268,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>101</v>
       </c>
@@ -7177,7 +7292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>103</v>
       </c>
@@ -7203,7 +7318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>58</v>
       </c>
@@ -7221,15 +7336,17 @@
         <v>97</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="87"/>
+        <v>388</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>176</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="96">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>65</v>
       </c>
@@ -7256,7 +7373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -7275,7 +7392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
@@ -7294,7 +7411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -7311,7 +7428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7330,7 +7447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -7347,13 +7464,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="71" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="F26" s="57" t="s">
         <v>69</v>
@@ -7364,7 +7481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -7383,7 +7500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -7393,7 +7510,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -7799,17 +7916,17 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="5.15625" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.83984375" customWidth="1"/>
-    <col min="12" max="12" width="8.83984375" customWidth="1"/>
-    <col min="13" max="13" width="8.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>179</v>
       </c>
@@ -7830,7 +7947,7 @@
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>168</v>
       </c>
@@ -7869,7 +7986,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -7886,7 +8003,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
@@ -7925,7 +8042,7 @@
       </c>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
@@ -7964,7 +8081,7 @@
       </c>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -7989,7 +8106,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -8014,7 +8131,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>201</v>
       </c>
@@ -8039,7 +8156,7 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
@@ -8060,7 +8177,7 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -8077,7 +8194,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -8098,7 +8215,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -8115,7 +8232,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>205</v>
       </c>
@@ -8138,7 +8255,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>207</v>
       </c>
@@ -8163,7 +8280,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
@@ -8184,7 +8301,7 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>210</v>
       </c>
@@ -8209,7 +8326,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -8225,7 +8342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>213</v>
       </c>
@@ -8241,7 +8358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -8253,7 +8370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -8269,7 +8386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -8281,7 +8398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>187</v>
       </c>
@@ -8297,7 +8414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
@@ -8313,7 +8430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>197</v>
       </c>
@@ -8329,7 +8446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -8345,7 +8462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>201</v>
       </c>
@@ -8361,7 +8478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>203</v>
       </c>
@@ -8377,7 +8494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -8389,7 +8506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -8401,7 +8518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -8413,7 +8530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -8425,7 +8542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -8450,12 +8567,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.41796875" customWidth="1"/>
+    <col min="1" max="1" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>214</v>
       </c>
@@ -8473,16 +8590,16 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="20"/>
-    <col min="3" max="3" width="12.41796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="20" customWidth="1"/>
     <col min="4" max="4" width="11" style="20"/>
-    <col min="5" max="5" width="14.26171875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="20" customWidth="1"/>
     <col min="6" max="16384" width="11" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>215</v>
       </c>
@@ -8490,7 +8607,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>217</v>
@@ -8526,7 +8643,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>226</v>
       </c>
@@ -8565,7 +8682,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>232</v>
       </c>
@@ -8606,7 +8723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>238</v>
       </c>
@@ -8639,7 +8756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>242</v>
       </c>
@@ -8679,7 +8796,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>248</v>
       </c>
@@ -8720,7 +8837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L8" s="20" t="s">
         <v>256</v>
       </c>
@@ -8731,7 +8848,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>259</v>
       </c>
@@ -8745,7 +8862,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>263</v>
       </c>
@@ -8777,7 +8894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>269</v>
       </c>
@@ -8809,7 +8926,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>277</v>
       </c>
@@ -8844,7 +8961,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>287</v>
       </c>
@@ -8870,7 +8987,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L14" s="12" t="s">
         <v>294</v>
       </c>
@@ -8878,7 +8995,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>296</v>
       </c>
@@ -8889,7 +9006,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -8912,7 +9029,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>269</v>
       </c>
@@ -8929,7 +9046,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>306</v>
       </c>
@@ -8946,7 +9063,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>310</v>
       </c>
@@ -8973,7 +9090,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R20" s="12" t="s">
         <v>316</v>
       </c>
@@ -8981,7 +9098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>317</v>
       </c>
@@ -9011,7 +9128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>324</v>
       </c>
@@ -9033,7 +9150,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>326</v>
       </c>
@@ -9055,7 +9172,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>328</v>
       </c>
@@ -9077,7 +9194,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M25" s="11">
         <v>148</v>
       </c>
@@ -9088,7 +9205,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M26" s="11">
         <v>149</v>
       </c>
@@ -9099,7 +9216,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>332</v>
       </c>
@@ -9130,7 +9247,7 @@
       <c r="J28" s="11"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>338</v>
       </c>
@@ -9163,7 +9280,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>343</v>
       </c>
@@ -9196,7 +9313,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>349</v>
       </c>
@@ -9228,7 +9345,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>353</v>
       </c>
@@ -9249,7 +9366,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>358</v>
       </c>
@@ -9272,7 +9389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>360</v>
       </c>
@@ -9295,7 +9412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>362</v>
       </c>
@@ -9318,7 +9435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>363</v>
       </c>
@@ -9341,7 +9458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>352</v>
       </c>
@@ -9378,9 +9495,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>365</v>
       </c>
@@ -9420,7 +9537,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -9446,7 +9563,7 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>50</v>
       </c>
@@ -9490,7 +9607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>100</v>
       </c>
@@ -9534,7 +9651,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>500</v>
       </c>
@@ -9578,7 +9695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1000</v>
       </c>
@@ -9622,7 +9739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2000</v>
       </c>
@@ -9666,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>5000</v>
       </c>
@@ -9698,7 +9815,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -9716,7 +9833,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\###Orbis\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A11A42-2F8C-45FA-9A32-16D87C32387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69A37D-F534-4427-B31B-A2C9B6647894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="CharacterSheet" sheetId="1" r:id="rId4"/>
     <sheet name="Prices+Changelog" sheetId="2" r:id="rId5"/>
     <sheet name="Backstory" sheetId="11" r:id="rId6"/>
-    <sheet name="Items (2)" sheetId="10" r:id="rId7"/>
-    <sheet name="Währung" sheetId="6" r:id="rId8"/>
+    <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -219,9 +218,6 @@
     <t>Arme</t>
   </si>
   <si>
-    <t>Sonst oft genutzt</t>
-  </si>
-  <si>
     <t>Acrobatics</t>
   </si>
   <si>
@@ -375,9 +371,6 @@
     <t>Animal Handling</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>Perception</t>
   </si>
   <si>
@@ -687,519 +680,9 @@
     <t>Hanlo, dieses ist ein Beispielcharakter, seine backstory ist beispielhaft</t>
   </si>
   <si>
-    <t>Tiers:</t>
-  </si>
-  <si>
-    <t>Fernwaffen:</t>
-  </si>
-  <si>
-    <t>Nahkampf</t>
-  </si>
-  <si>
-    <t>Fernkampf</t>
-  </si>
-  <si>
-    <t>Light armor</t>
-  </si>
-  <si>
-    <t>medium armor</t>
-  </si>
-  <si>
-    <t>Heavy armor</t>
-  </si>
-  <si>
-    <t>Schaden schwert</t>
-  </si>
-  <si>
-    <t>DnD silver/schwert</t>
-  </si>
-  <si>
-    <t>Bogen</t>
-  </si>
-  <si>
-    <t>75% Schwert damage</t>
-  </si>
-  <si>
-    <t>Stufe1</t>
-  </si>
-  <si>
-    <t>eisen</t>
-  </si>
-  <si>
-    <t>Buche</t>
-  </si>
-  <si>
-    <t>gambeson</t>
-  </si>
-  <si>
-    <t>Armbrust</t>
-  </si>
-  <si>
-    <t>Bogen*1,3, 50% Wsl single action Nachladen, Sneak Attack advantage= 4, light shield</t>
-  </si>
-  <si>
-    <t>stufe2</t>
-  </si>
-  <si>
-    <t>stahl</t>
-  </si>
-  <si>
-    <t>Lärche</t>
-  </si>
-  <si>
-    <t>lederbeschlag</t>
-  </si>
-  <si>
-    <t>Muskete</t>
-  </si>
-  <si>
-    <t>60% trefferchance, 1 Runde nachladen, 90% Ap,  Schaden: Bogen*3,Sneak Attack advantage= 4, Price*2.5</t>
-  </si>
-  <si>
-    <t>stufe3</t>
-  </si>
-  <si>
-    <t>gehärteter stahl</t>
-  </si>
-  <si>
-    <t>Esche</t>
-  </si>
-  <si>
-    <t>kettenbeschlag</t>
-  </si>
-  <si>
-    <t>stufe4</t>
-  </si>
-  <si>
-    <t>Zwergenstahl</t>
-  </si>
-  <si>
-    <t>Zwergen</t>
-  </si>
-  <si>
-    <t>zwergenbeschlag</t>
-  </si>
-  <si>
-    <t>Nahwaffen:</t>
-  </si>
-  <si>
-    <t>Great variants= Damage*1.6, but no secondary hand, Price*1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stufe 5 </t>
-  </si>
-  <si>
-    <t>Pre runner</t>
-  </si>
-  <si>
-    <t>prerunner</t>
-  </si>
-  <si>
-    <t>pre runner</t>
-  </si>
-  <si>
-    <t>unbez</t>
-  </si>
-  <si>
-    <t>Greatsword</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Greataxe</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>80% Schaden 20% AP</t>
-  </si>
-  <si>
-    <t>Eigenschaften:</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>70% Schaden, 40% AP,30% Betäubungschance</t>
-  </si>
-  <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>Anziehen</t>
-  </si>
-  <si>
-    <t>Ausziehen</t>
-  </si>
-  <si>
-    <t>Armor rating</t>
-  </si>
-  <si>
-    <t>AR/Teil</t>
-  </si>
-  <si>
-    <t>kein groß</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>1 min</t>
-  </si>
-  <si>
-    <t>6kg/5</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>Base*0.2</t>
-  </si>
-  <si>
-    <t>0.4*Waffe/teil</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>60% schaden, 50% betäubungsschance, price/2</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>5 min</t>
-  </si>
-  <si>
-    <t>1min</t>
-  </si>
-  <si>
-    <t>15kg/5</t>
-  </si>
-  <si>
-    <t>Base*1.75</t>
-  </si>
-  <si>
-    <t>Base*0.35</t>
-  </si>
-  <si>
-    <t>0.6*Waffe</t>
-  </si>
-  <si>
-    <t>über 13 kg stealth disatvantage 2</t>
-  </si>
-  <si>
-    <t>Schlagring</t>
-  </si>
-  <si>
-    <t>40% Schaden, unarmed, 20% Betäubungschance</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>30kg/5</t>
-  </si>
-  <si>
-    <t>Base*2.5</t>
-  </si>
-  <si>
-    <t>Base*0.5</t>
-  </si>
-  <si>
-    <t>0.8*Waffe</t>
-  </si>
-  <si>
-    <t>über 20 kg: Stealth disatvantage</t>
-  </si>
-  <si>
-    <t>Großwaffen:</t>
-  </si>
-  <si>
-    <t>gegner immer at advantage beim angriff, außer in formation oder vom mount, light shield</t>
-  </si>
-  <si>
-    <t>Schilde:</t>
-  </si>
-  <si>
-    <t>Speer</t>
-  </si>
-  <si>
-    <t>leichter, 80% schaden, schaden*2 wenn in formation oder gegen groß, preis*0.8</t>
-  </si>
-  <si>
-    <t>Entwaffnungschance</t>
-  </si>
-  <si>
-    <t>Schildwert</t>
-  </si>
-  <si>
-    <t>Hellebarde</t>
-  </si>
-  <si>
-    <t>speer*1.4kg,  schaden*2 wenn in formation oder gegen groß, price*1.4</t>
-  </si>
-  <si>
-    <t>Schwert*0.25</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>rüstung light</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>Schwert*0.5</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>rüstung mittel</t>
-  </si>
-  <si>
-    <t>tower</t>
-  </si>
-  <si>
-    <t>Schwert*0.75</t>
-  </si>
-  <si>
-    <t>4 kg</t>
-  </si>
-  <si>
-    <t>rüstung schwer</t>
-  </si>
-  <si>
-    <t>Alltagszeug:</t>
-  </si>
-  <si>
-    <t>Holster:</t>
-  </si>
-  <si>
-    <t>Pfeil/Bolzen:</t>
-  </si>
-  <si>
-    <t>Tranktaschen</t>
-  </si>
-  <si>
-    <t>Slots</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>Mit TT - trank/bombe als simple action.</t>
-  </si>
-  <si>
-    <t>PDF Seite</t>
-  </si>
-  <si>
-    <t>DnD seite</t>
-  </si>
-  <si>
-    <t>Kugeln:</t>
-  </si>
-  <si>
-    <t>normale Tasche</t>
-  </si>
-  <si>
-    <t>Adventurer stuff</t>
-  </si>
-  <si>
-    <t>Tranktasche norm</t>
-  </si>
-  <si>
-    <t>Handwerk/instrumente</t>
-  </si>
-  <si>
-    <t>Große Tasche</t>
-  </si>
-  <si>
-    <t>Mounts/Vehicles/trade goods</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Artillerie</t>
   </si>
   <si>
-    <t>Reichweite</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>Preis/Kugel</t>
-  </si>
-  <si>
-    <t>Max Besatzung</t>
-  </si>
-  <si>
-    <t>Negates Cover</t>
-  </si>
-  <si>
-    <t>Skorpion</t>
-  </si>
-  <si>
-    <t>100m</t>
-  </si>
-  <si>
-    <t>30 kg</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>wenn nur 1 Mann besatzung - nachladen als main action, 3 runden aufbau im kampf</t>
-  </si>
-  <si>
-    <t>Balliste</t>
-  </si>
-  <si>
-    <t>250m</t>
-  </si>
-  <si>
-    <t>250 kg</t>
-  </si>
-  <si>
-    <t>verboten</t>
-  </si>
-  <si>
-    <t>Holz</t>
-  </si>
-  <si>
-    <t>Nachladen 1 Runde minimum, 2 Runden wenn besatzung &lt;3</t>
-  </si>
-  <si>
-    <t>Großkanone</t>
-  </si>
-  <si>
-    <t>400m</t>
-  </si>
-  <si>
-    <t>900 kg</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>Wurfwaffen</t>
-  </si>
-  <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>Zerstörungschance</t>
-  </si>
-  <si>
-    <t>Anzahl in Holster</t>
-  </si>
-  <si>
-    <t>Interrupt %</t>
-  </si>
-  <si>
-    <t>Bola</t>
-  </si>
-  <si>
-    <t>Groß</t>
-  </si>
-  <si>
-    <t>Wurfmesser</t>
-  </si>
-  <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>Wurfaxt</t>
-  </si>
-  <si>
-    <t>Javelin</t>
-  </si>
-  <si>
-    <t>klein</t>
-  </si>
-  <si>
-    <t>Imperiale Reiks</t>
-  </si>
-  <si>
-    <t>Zwergenkronen</t>
-  </si>
-  <si>
-    <t>Rah Kari</t>
-  </si>
-  <si>
-    <t>Thaler(Skaen)</t>
-  </si>
-  <si>
-    <t>DnD silber</t>
-  </si>
-  <si>
-    <t>Lebensstil Täglich</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>Kurs Reiks</t>
-  </si>
-  <si>
-    <t>DnD Silver (10s=1g)</t>
-  </si>
-  <si>
-    <t>Thaler</t>
-  </si>
-  <si>
-    <t>Squalid</t>
-  </si>
-  <si>
-    <t>Reiks</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>DnD Silver</t>
-  </si>
-  <si>
-    <t>Modest</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>wealthy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>aristocrat</t>
-  </si>
-  <si>
-    <t>Achtung: im DND rulebook wird oft in cp oder gp gerechnet nicht nur in sp(Silver)</t>
-  </si>
-  <si>
-    <t>der umrechnungskurs: 10 cp= 1 sp, 10sp= 1 gp</t>
-  </si>
-  <si>
     <t>Glaube</t>
   </si>
   <si>
@@ -1209,7 +692,67 @@
     <t>(Phy*2</t>
   </si>
   <si>
+    <t>AttributName</t>
+  </si>
+  <si>
+    <t>Skillname</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Waffe1</t>
+  </si>
+  <si>
+    <t>Waffe2</t>
+  </si>
+  <si>
+    <t>Waffe1Typ</t>
+  </si>
+  <si>
+    <t>Waffe2Typ</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
     <t>Survival</t>
+  </si>
+  <si>
+    <t>Lucksave</t>
+  </si>
+  <si>
+    <t>Toxisave</t>
+  </si>
+  <si>
+    <t>Ausdauersafe</t>
+  </si>
+  <si>
+    <t>aktivgew</t>
+  </si>
+  <si>
+    <t>gesamtgew</t>
+  </si>
+  <si>
+    <t>Waffe3</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Waffe3Typ</t>
+  </si>
+  <si>
+    <t>Feilschenattr</t>
+  </si>
+  <si>
+    <t>intimidationattr</t>
+  </si>
+  <si>
+    <t>Rasse</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1369,8 +912,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1482,30 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1853,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1867,14 +1392,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1885,13 +1408,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1900,117 +1420,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2876,14 +2396,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2898,7 +2418,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -2912,7 +2432,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4003,7 +3523,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,8 +3531,8 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
     <col min="8" max="8" width="4.140625" customWidth="1"/>
@@ -4025,10 +3545,10 @@
     <col min="15" max="15" width="4.140625" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="61" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="56" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="16" customWidth="1"/>
     <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="4.85546875" customWidth="1"/>
     <col min="24" max="24" width="7.140625" customWidth="1"/>
@@ -4037,101 +3557,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="35" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="60" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="37">
         <v>30</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="37">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="69" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="97">
+      <c r="Q2" s="92">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="123" t="s">
+      <c r="R2" s="110"/>
+      <c r="S2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="125"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="120"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4151,41 +3671,41 @@
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="71" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="80">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="69" t="s">
+      <c r="R3" s="95"/>
+      <c r="S3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="70">
+      <c r="V3" s="65">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="68"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
+      <c r="W3" s="63"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4205,39 +3725,39 @@
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="71" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="98">
+      <c r="Q4" s="93">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="71" t="s">
+      <c r="R4" s="95"/>
+      <c r="S4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="72">
+      <c r="V4" s="67">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20" t="s">
+      <c r="W4" s="63"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4259,43 +3779,43 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="71" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="110">
+      <c r="Q5" s="104">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="71" t="s">
+      <c r="R5" s="95"/>
+      <c r="S5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="58" t="s">
+      <c r="T5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="72">
+      <c r="U5" s="53"/>
+      <c r="V5" s="67">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="68"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
@@ -4303,23 +3823,23 @@
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="71" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="85">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="95"/>
+      <c r="S6" s="66" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="11" t="s">
@@ -4328,141 +3848,141 @@
       <c r="U6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="72">
+      <c r="V6" s="67">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="68"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="113" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="114">
+      <c r="Q7" s="108">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="71" t="s">
-        <v>332</v>
+      <c r="R7" s="95"/>
+      <c r="S7" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="72">
+        <v>93</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="67">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="69" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="115">
+      <c r="Q8" s="109">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="100"/>
-      <c r="S8" s="71" t="s">
+      <c r="R8" s="95"/>
+      <c r="S8" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="53" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="72">
+      <c r="V8" s="67">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="20"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="20"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>10.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="120" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q9" s="121">
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="115">
         <v>5</v>
       </c>
-      <c r="R9" s="100"/>
-      <c r="S9" s="71" t="s">
+      <c r="R9" s="95"/>
+      <c r="S9" s="66" t="s">
         <v>46</v>
       </c>
       <c r="T9" s="11" t="s">
@@ -4471,12 +3991,12 @@
       <c r="U9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="72">
+      <c r="V9" s="67">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="68"/>
-      <c r="X9" s="20"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="11" t="s">
         <v>52</v>
       </c>
@@ -4486,54 +4006,54 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>7</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="71" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="102">
+      <c r="Q10" s="97">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="100">
+      <c r="R10" s="95">
         <f>$P$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="67" t="s">
+      <c r="T10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="74">
+      <c r="U10" s="62"/>
+      <c r="V10" s="69">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="20"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="11" t="s">
         <v>57</v>
       </c>
@@ -4543,46 +4063,46 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>6</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="71" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="Q11" s="98">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="100"/>
-      <c r="S11" s="123" t="s">
+      <c r="R11" s="95"/>
+      <c r="S11" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="130"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="20"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
@@ -4590,52 +4110,53 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>10.5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>7</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="104" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="117">
+        <f>ROUNDUP((Q7+Q5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="R12" s="95"/>
+      <c r="S12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="105">
-        <v>11</v>
-      </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" s="65" t="s">
+      <c r="T12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="70">
+      <c r="V12" s="65">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="20"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
@@ -4643,47 +4164,47 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="48">
         <v>10.5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="23">
         <v>7</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="S13" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="55" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="S13" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="55"/>
-      <c r="V13" s="72">
+      <c r="U13" s="50"/>
+      <c r="V13" s="67">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="122" t="s">
-        <v>387</v>
+      <c r="W13" s="63"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="116" t="s">
+        <v>215</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
@@ -4695,798 +4216,786 @@
         <v>57</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="54">
+      <c r="C14" s="49">
         <f>SUM(C9:C13)</f>
         <v>43.5</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="126" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="S14" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="S14" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="55"/>
-      <c r="V14" s="72">
+      <c r="U14" s="50"/>
+      <c r="V14" s="67">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="20"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="16"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="20"/>
-      <c r="S15" s="73" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="16"/>
+      <c r="S15" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="V15" s="74">
+      <c r="V15" s="69">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="71"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="123" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="125"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="20"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="44">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C17" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="40">
+        <f>B17-C17</f>
+        <v>275</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="42">
+      <c r="L17" s="21"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="37">
         <v>0</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="S17" s="69" t="s">
+      <c r="Q17" s="16"/>
+      <c r="S17" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="T17" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="70">
+      <c r="U17" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" s="65">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="71"/>
-      <c r="X17" s="20"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="58">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f>B18+C18</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="S18" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="72">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="54"/>
+      <c r="V18" s="67">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20" t="s">
+      <c r="W18" s="63"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Z18" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="20">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="S19" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="T19" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="72">
+      <c r="A19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="42">
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
+      </c>
+      <c r="C19" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <f>B19+C19</f>
+        <v>55</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="S19" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="54"/>
+      <c r="V19" s="67">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="68"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20" t="s">
+      <c r="W19" s="63"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Z19" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="S20" s="71" t="s">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="40">
+        <f>CharacterSheet!B18</f>
+        <v>192.5</v>
+      </c>
+      <c r="C20" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <f>B20+C20</f>
+        <v>192.5</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="S20" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V20" s="72">
+      <c r="V20" s="67">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="68"/>
-      <c r="X20" s="20"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="49">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
-      </c>
-      <c r="C21" s="50">
+      <c r="A21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="40">
+        <f>CharacterSheet!B19</f>
+        <v>110</v>
+      </c>
+      <c r="C21" s="45">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="45">
-        <f>B21-C21</f>
-        <v>275</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="S21" s="71" t="s">
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="0">B21+C21</f>
+        <v>110</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="S21" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="U21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" s="72">
+        <v>68</v>
+      </c>
+      <c r="V21" s="67">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="63">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="A22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="40">
+        <f>CharacterSheet!B20</f>
+        <v>137.5</v>
+      </c>
+      <c r="C22" s="45">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="16">
-        <f>B22+C22</f>
-        <v>12</v>
-      </c>
-      <c r="E22" s="20" t="str">
-        <f>IF(D22&lt;4,"Debuff","")</f>
+      <c r="D22" s="40">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>IF(D18&lt;4,"Debuff","")</f>
         <v/>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="U22" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="V22" s="74">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="S22" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="U22" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" s="69">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="71"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="E23" s="16" t="str">
+        <f>IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="E24" s="16" t="str">
+        <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="S24" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="47">
-        <f>CharacterSheet!B17</f>
-        <v>55</v>
-      </c>
-      <c r="C23" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="45">
-        <f>B23+C23</f>
-        <v>55</v>
-      </c>
-      <c r="E23" s="20" t="str">
-        <f>IF(D23=0,"Verkrüppelt",IF(D23&lt;=B23*0.2,"Verstümmelt",""))</f>
-        <v/>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="45">
-        <f>CharacterSheet!B18</f>
-        <v>192.5</v>
-      </c>
-      <c r="C24" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="45">
-        <f>B24+C24</f>
-        <v>192.5</v>
-      </c>
-      <c r="E24" s="20" t="str">
-        <f>IF(D24=0,"Verkrüppelt",IF(D24&lt;=B24*0.2,"Verstümmelt",""))</f>
-        <v/>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="S24" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="77" t="s">
+      <c r="T24" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="112"/>
-      <c r="V24" s="70">
+      <c r="U24" s="106"/>
+      <c r="V24" s="65">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="71"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="45">
-        <f>CharacterSheet!B19</f>
-        <v>110</v>
-      </c>
-      <c r="C25" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="45">
-        <f t="shared" ref="D25:D26" si="0">B25+C25</f>
-        <v>110</v>
-      </c>
-      <c r="E25" s="20" t="str">
-        <f>IF(D25=0,"Verkrüppelt",IF(D25&lt;=B25*0.2,"Verstümmelt",""))</f>
+      <c r="A25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="E25" s="16" t="str">
+        <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="S25" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="T25" s="76" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="S25" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="74">
+      <c r="U25" s="105"/>
+      <c r="V25" s="69">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="71"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="45">
-        <f>CharacterSheet!B20</f>
-        <v>137.5</v>
-      </c>
-      <c r="C26" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="45">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="E26" s="20" t="str">
-        <f>IF(D26=0,"Verkrüppelt",IF(D26&lt;=B26*0.2,"Verstümmelt",""))</f>
+      <c r="A26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="E26" s="16" t="str">
+        <f>IF(D22=0,"Verkrüppelt",IF(D22&lt;=B22*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="123" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="S27" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="S27" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="T27" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="U27" s="79"/>
-      <c r="V27" s="70">
+      <c r="T27" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="74"/>
+      <c r="V27" s="65">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="71"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="S28" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="T28" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="72">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="S28" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="67">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="68"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="S29" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="T29" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="U29" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="V29" s="74">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="S29" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" s="69">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="71"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="123" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="S31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="S31" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="T31" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" s="80"/>
-      <c r="V31" s="70">
+      <c r="T31" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="75"/>
+      <c r="V31" s="65">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="68"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="S32" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="T32" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="U32" s="57"/>
-      <c r="V32" s="72">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="S32" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="T32" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="52"/>
+      <c r="V32" s="67">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="68"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
     </row>
     <row r="33" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="S33" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="T33" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="U33" s="81"/>
-      <c r="V33" s="74">
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="S33" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="T33" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="76"/>
+      <c r="V33" s="69">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="68"/>
+      <c r="W33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5849,6 +5358,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="119" priority="4" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
+      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="6" operator="containsText" text="Schwer">
+      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5859,15 +5377,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="6" operator="containsText" text="Schwer">
-      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
-      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
     <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Debuff">
@@ -5875,11 +5384,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="115" priority="2" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="Verstümmelt">
-      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5892,7 +5401,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5905,230 +5414,230 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="20">
+        <v>111</v>
+      </c>
+      <c r="B1" s="16">
         <v>30000</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="20">
+        <v>112</v>
+      </c>
+      <c r="E1" s="16">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="20">
+        <v>113</v>
+      </c>
+      <c r="B2" s="16">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="20">
+        <v>114</v>
+      </c>
+      <c r="E2" s="16">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="20">
+        <v>91</v>
+      </c>
+      <c r="B3" s="16">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="20">
+        <v>115</v>
+      </c>
+      <c r="E3" s="16">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="37" t="s">
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="B7" s="16">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="16">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="16">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="20">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="20">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2250</v>
-      </c>
-      <c r="C8" s="20">
-        <v>12</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="20">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="20">
-        <v>15</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>125</v>
+      <c r="F10" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="37" t="s">
+    <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>120</v>
+      <c r="F14" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="A15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="16">
         <v>2000</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>1.25</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="107" t="s">
-        <v>127</v>
+      <c r="G15" s="101" t="s">
+        <v>125</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="16">
         <v>2000</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1.25</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -6137,59 +5646,59 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="A17" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="16">
         <v>3000</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>10.5</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>3</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="16">
         <v>3000</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>10.5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
-        <v>132</v>
+      <c r="E18" s="16"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="16">
         <v>3000</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>10.5</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
         <f>SUM(D8:D115)</f>
@@ -6199,34 +5708,34 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
-        <v>134</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
@@ -6240,10 +5749,10 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -6251,10 +5760,10 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6262,10 +5771,10 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6273,29 +5782,29 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="37" t="s">
+      <c r="A26" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="37" t="s">
-        <v>120</v>
+      <c r="F26" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6304,17 +5813,17 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="20">
+      <c r="A28" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="16">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="16">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
@@ -6327,17 +5836,17 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="20">
+      <c r="A29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="16">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="16">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
@@ -6350,60 +5859,60 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="37" t="s">
+      <c r="B33" s="16">
+        <v>100</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="20">
-        <v>100</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <v>500</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6427,275 +5936,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="41" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="B2" s="16">
+        <v>300</v>
+      </c>
+      <c r="C2" s="16">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="20">
-        <v>300</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="G2" s="16">
+        <v>4</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="16">
+        <v>200</v>
+      </c>
+      <c r="C3" s="16">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="16">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="F3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="16">
+        <v>50</v>
+      </c>
+      <c r="C4" s="16">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="20">
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="16">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="16">
+        <v>50</v>
+      </c>
+      <c r="C6" s="16">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="16">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="20">
-        <v>200</v>
-      </c>
-      <c r="C3" s="20">
-        <v>7</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="20">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="H7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="16">
         <v>3</v>
       </c>
-      <c r="H3" s="20">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="K7" s="16">
         <v>0</v>
       </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="20">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="20">
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="20">
-        <v>3</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="20">
-        <v>50</v>
-      </c>
-      <c r="C5" s="20">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="20">
-        <v>2</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="20">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="20">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="20">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="20">
-        <v>4</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="20">
-        <v>50</v>
-      </c>
-      <c r="C7" s="20">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="20">
-        <v>3</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6706,8 +6215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6718,7 +6227,7 @@
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
@@ -6726,802 +6235,802 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="I1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="M1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16">
         <f>B4+B7+B8+B9</f>
         <v>34</v>
       </c>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="92">
         <v>12</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>-4</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>10</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="18">
         <v>-9</v>
       </c>
-      <c r="I2" s="94">
+      <c r="I2" s="89">
         <v>29</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="80">
         <v>12</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>-2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="78" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="90">
         <v>30</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="20">
-        <v>3</v>
-      </c>
-      <c r="N3" s="20">
-        <v>5</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="93">
         <v>12</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>-4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>10</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="95">
+      <c r="I4" s="90">
         <v>20</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="16">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="20">
-        <v>4</v>
-      </c>
-      <c r="N4" s="20">
-        <v>2</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="94">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="66" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="90">
         <v>30</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="85">
         <v>10</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>10</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>332</v>
+      <c r="E6" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="95">
+      <c r="I6" s="90">
         <v>20</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="87">
         <v>12</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>-4</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>10</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="67" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="95">
+      <c r="I7" s="90">
         <v>20</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="96">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>-8</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>10</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="66" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95">
+      <c r="I8" s="90">
         <v>20</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="117" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="101">
+      <c r="A9" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="96">
         <v>5</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="73" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="96">
+      <c r="I9" s="91">
         <v>20</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="103">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="65" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="94">
+      <c r="I10" s="89">
         <v>20</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="102">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="55" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="95">
+      <c r="I11" s="90">
         <v>24</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="55" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="85"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="95">
+      <c r="I12" s="90">
         <v>20</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="73" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="96">
+      <c r="I13" s="91">
         <v>20</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="69" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="94">
+      <c r="I14" s="89">
         <v>20</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>-3</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="86"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="81"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="90">
         <v>35</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="86"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="81"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="95">
+      <c r="I16" s="90">
         <v>20</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="46">
+      <c r="A17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="41">
         <f>CharacterSheet!$B$15*0.2</f>
         <v>55</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="71" t="s">
-        <v>86</v>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="66" t="s">
+        <v>85</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>174</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="95">
+      <c r="I17" s="90">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="A18" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="40">
         <f>CharacterSheet!$B$15*0.7</f>
         <v>192.5</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="71" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>69</v>
+      <c r="G18" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="90">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="40">
         <f>CharacterSheet!$B$15*0.4</f>
         <v>110</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>25</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>176</v>
+      <c r="D19" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>174</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="96">
+      <c r="I19" s="91">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="45">
+      <c r="A20" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="40">
         <f>CharacterSheet!$B$15*0.5</f>
         <v>137.5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="77" t="s">
+      <c r="D20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="94">
+      <c r="I20" s="89">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="76" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="43">
+      <c r="G21" s="82"/>
+      <c r="H21" s="38">
         <v>-8</v>
       </c>
-      <c r="I21" s="96">
+      <c r="I21" s="91">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="94">
+      <c r="F23" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="90">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="71" t="s">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="95">
+      <c r="F24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="91">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="96">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="86"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="69" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="27">
+      <c r="F27" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="88"/>
+      <c r="H27" s="23">
         <v>-15</v>
       </c>
-      <c r="I27" s="96">
+      <c r="I27" s="91">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="H30" s="20">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="H30" s="16">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
@@ -7927,630 +7436,630 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="E2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="I2" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="118" t="s">
+      <c r="J2" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="M2" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="119" t="s">
+      <c r="N2" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
+      <c r="J4" s="16">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="20">
-        <v>10</v>
-      </c>
-      <c r="K4" s="20">
-        <v>2</v>
-      </c>
-      <c r="L4" s="20">
-        <v>2</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="20">
+      <c r="I5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="16">
+        <v>10</v>
+      </c>
+      <c r="K5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="L5" s="16">
+        <v>12</v>
+      </c>
+      <c r="M5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="N5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="20">
-        <v>10</v>
-      </c>
-      <c r="K5" s="20">
-        <v>2</v>
-      </c>
-      <c r="L5" s="20">
-        <v>12</v>
-      </c>
-      <c r="M5" s="20">
-        <v>2</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="20">
+        <v>195</v>
+      </c>
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="20">
+        <v>197</v>
+      </c>
+      <c r="B7" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="20">
+        <v>199</v>
+      </c>
+      <c r="B8" s="16">
         <v>8</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="16">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="20">
+        <v>201</v>
+      </c>
+      <c r="B9" s="16">
         <v>12</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <v>2</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="20">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="20">
-        <v>4</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="F16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="20">
+        <v>210</v>
+      </c>
+      <c r="B17" s="16">
         <v>6</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20">
         <v>5</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="16">
         <v>8</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="24">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20">
         <v>6</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="24">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20">
         <v>7</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24">
+      <c r="A20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="20">
         <v>8</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="20">
         <v>9</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="20">
+      <c r="A22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="16">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20">
         <v>10</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="20">
+        <v>190</v>
+      </c>
+      <c r="B23" s="16">
         <v>2</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="24">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20">
         <v>11</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="20">
+        <v>195</v>
+      </c>
+      <c r="B24" s="16">
         <v>3</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="24">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="20">
         <v>12</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="20">
+        <v>197</v>
+      </c>
+      <c r="B25" s="16">
         <v>4</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="24">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="20">
         <v>13</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="20">
+        <v>199</v>
+      </c>
+      <c r="B26" s="16">
         <v>5</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="24">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="20">
         <v>14</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="20">
+        <v>201</v>
+      </c>
+      <c r="B27" s="16">
         <v>6</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="24">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="20">
         <v>15</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="24">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="20">
         <v>16</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="24">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="20">
         <v>17</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="24">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="20">
         <v>18</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="24">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="20">
         <v>19</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="26">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="22">
         <v>20</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="24">
         <v>15</v>
       </c>
     </row>
@@ -8573,8 +8082,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>214</v>
+      <c r="A1" s="33" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8583,1273 +8092,543 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B61920-0E69-46E5-958E-4D76B5088407}">
-  <dimension ref="A1:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" style="20"/>
-    <col min="3" max="3" width="12.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11" style="20"/>
-    <col min="5" max="5" width="14.28515625" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <f>CharacterSheet!B2</f>
+        <v>12</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CharacterSheet!E2</f>
+        <v>Reiten</v>
+      </c>
+      <c r="D2">
+        <f>CharacterSheet!I2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16">
+        <f>CharacterSheet!B3</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>CharacterSheet!E3</f>
+        <v>Armed</v>
+      </c>
+      <c r="D3" s="16">
+        <f>CharacterSheet!I3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="16">
+        <f>CharacterSheet!B4</f>
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>CharacterSheet!E4</f>
+        <v>Unarmed</v>
+      </c>
+      <c r="D4" s="16">
+        <f>CharacterSheet!I4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16">
+        <f>CharacterSheet!B5</f>
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f>CharacterSheet!E5</f>
+        <v>Blocken</v>
+      </c>
+      <c r="D5" s="16">
+        <f>CharacterSheet!I5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="16">
+        <f>CharacterSheet!B6</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>CharacterSheet!E6</f>
+        <v>Artillerie</v>
+      </c>
+      <c r="D6" s="16">
+        <f>CharacterSheet!I6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="16">
+        <f>CharacterSheet!B7</f>
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>CharacterSheet!E7</f>
+        <v>Ranged</v>
+      </c>
+      <c r="D7" s="16">
+        <f>CharacterSheet!I7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
+        <f>CharacterSheet!A8</f>
+        <v>Luck</v>
+      </c>
+      <c r="B8" s="16">
+        <f>CharacterSheet!B8</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>CharacterSheet!E8</f>
+        <v>throwing</v>
+      </c>
+      <c r="D8" s="16">
+        <f>CharacterSheet!I8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
+        <f>CharacterSheet!A9</f>
+        <v>Glaube</v>
+      </c>
+      <c r="B9" s="16">
+        <f>CharacterSheet!B9</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>CharacterSheet!E9</f>
+        <v>Dodge</v>
+      </c>
+      <c r="D9" s="16">
+        <f>CharacterSheet!I9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="16">
+        <f>CharacterSheet!B10</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>CharacterSheet!E10</f>
+        <v>Acrobatics</v>
+      </c>
+      <c r="D10" s="16">
+        <f>CharacterSheet!I10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="16">
+        <f>CharacterSheet!B11</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>CharacterSheet!E11</f>
+        <v>Schleichen</v>
+      </c>
+      <c r="D11" s="16">
+        <f>CharacterSheet!I11</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="16">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>CharacterSheet!E12</f>
+        <v>Taschendiebstahl</v>
+      </c>
+      <c r="D12" s="16">
+        <f>CharacterSheet!I12</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="16">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f>CharacterSheet!E13</f>
+        <v>Schlossknacken</v>
+      </c>
+      <c r="D13" s="16">
+        <f>CharacterSheet!I13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="13">
+        <f>Status!C14</f>
+        <v>43.5</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f>CharacterSheet!E14</f>
+        <v>Lying</v>
+      </c>
+      <c r="D14" s="16">
+        <f>CharacterSheet!I14</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Status!A9</f>
+        <v>Helm</v>
+      </c>
+      <c r="B15" s="13">
+        <f>Status!C9</f>
+        <v>10.5</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>CharacterSheet!E15</f>
+        <v>Persuation</v>
+      </c>
+      <c r="D15" s="16">
+        <f>CharacterSheet!I15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="str">
+        <f>Status!A10</f>
+        <v>Brust</v>
+      </c>
+      <c r="B16" s="13">
+        <f>Status!C10</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f>CharacterSheet!E16</f>
+        <v>Performance</v>
+      </c>
+      <c r="D16" s="16">
+        <f>CharacterSheet!I16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="str">
+        <f>Status!A11</f>
+        <v>Arme</v>
+      </c>
+      <c r="B17" s="13">
+        <f>Status!C11</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f>CharacterSheet!E17</f>
+        <v>Feilschen</v>
+      </c>
+      <c r="D17" s="16">
+        <f>CharacterSheet!I17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="str">
+        <f>Status!A12</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="B18" s="13">
+        <f>Status!C12</f>
+        <v>10.5</v>
+      </c>
+      <c r="C18" s="16" t="str">
+        <f>CharacterSheet!E18</f>
+        <v>Insight</v>
+      </c>
+      <c r="D18" s="16">
+        <f>CharacterSheet!I18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="str">
+        <f>Status!A13</f>
+        <v>Beine</v>
+      </c>
+      <c r="B19" s="13">
+        <f>Status!C13</f>
+        <v>10.5</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f>CharacterSheet!E19</f>
+        <v>Intimidation</v>
+      </c>
+      <c r="D19" s="16">
+        <f>CharacterSheet!I19</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20">
+        <f>Inventar!G22</f>
+        <v>15.5</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f>CharacterSheet!E20</f>
+        <v xml:space="preserve">Swimming </v>
+      </c>
+      <c r="D20" s="16">
+        <f>CharacterSheet!I20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21">
+        <f>Inventar!G19</f>
+        <v>19.5</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f>CharacterSheet!E21</f>
+        <v>Running</v>
+      </c>
+      <c r="D21" s="16">
+        <f>CharacterSheet!I21</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B22" t="str">
+        <f>Status!Z13</f>
+        <v>Leicht</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f>CharacterSheet!E22</f>
+        <v>Handwerk</v>
+      </c>
+      <c r="D22" s="16">
+        <f>CharacterSheet!I22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="B23">
+        <f>Status!C2</f>
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f>CharacterSheet!E23</f>
+        <v>Alchemie</v>
+      </c>
+      <c r="D23" s="16">
+        <f>CharacterSheet!I23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="B24" s="16">
+        <f>Status!C3</f>
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>CharacterSheet!E24</f>
+        <v>Vehicles</v>
+      </c>
+      <c r="D24" s="16">
+        <f>CharacterSheet!I24</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="16">
+        <f>Status!C4</f>
+        <v>15</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>CharacterSheet!E25</f>
+        <v>Animal Handling</v>
+      </c>
+      <c r="D25" s="16">
+        <f>CharacterSheet!I25</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="16">
+        <f>Status!C4</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="16">
+        <f>CharacterSheet!I26</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="B27" t="str">
+        <f>Status!B2</f>
+        <v>Schwert</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f>CharacterSheet!E27</f>
+        <v>Perception</v>
+      </c>
+      <c r="D27" s="16">
+        <f>CharacterSheet!I27</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="B28" s="16" t="str">
+        <f>Status!B3</f>
+        <v>Dolch</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CharacterSheet!B1</f>
+        <v>Mensch</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="16" t="str">
+        <f>Status!B4</f>
+        <v>Schild</v>
+      </c>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B30">
+        <f>Status!Q12</f>
+        <v>13</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="16">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" s="11">
-        <v>30</v>
-      </c>
-      <c r="I3" s="11">
-        <f>100*50</f>
-        <v>5000</v>
-      </c>
-      <c r="J3" s="11">
-        <v>7</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="11">
-        <f>42</f>
-        <v>42</v>
-      </c>
-      <c r="I4" s="13">
-        <f>50*450</f>
-        <v>22500</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="B33">
+        <f>CharacterSheet!B8+CharacterSheet!B9</f>
         <v>10</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="11">
-        <v>52</v>
-      </c>
-      <c r="I5" s="11">
-        <f>50*1800</f>
-        <v>90000</v>
-      </c>
-      <c r="J5" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="11">
-        <f>42+21</f>
-        <v>63</v>
-      </c>
-      <c r="I6" s="11">
-        <f>50*6000</f>
-        <v>300000</v>
-      </c>
-      <c r="J6" s="11">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" s="11">
-        <v>75</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" s="11">
-        <v>30</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="11">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="S19" s="20">
-        <f>25*50</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R20" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="S20" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="S21" s="20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
-        <f>50*50</f>
-        <v>2500</v>
-      </c>
-      <c r="M22" s="11">
-        <v>141</v>
-      </c>
-      <c r="N22" s="11">
-        <v>150</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <f>50*300</f>
-        <v>15000</v>
-      </c>
-      <c r="M23" s="11">
-        <v>145</v>
-      </c>
-      <c r="N23" s="11">
-        <v>154</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11">
-        <f>50*900</f>
-        <v>45000</v>
-      </c>
-      <c r="M24" s="11">
-        <v>147</v>
-      </c>
-      <c r="N24" s="11">
-        <v>157</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M25" s="11">
-        <v>148</v>
-      </c>
-      <c r="N25" s="11">
-        <v>158</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M26" s="11">
-        <v>149</v>
-      </c>
-      <c r="N26" s="11">
-        <v>159</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B29" s="11">
-        <v>300</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11">
-        <v>90000</v>
-      </c>
-      <c r="G29" s="11">
-        <v>100</v>
-      </c>
-      <c r="H29" s="11">
-        <v>2</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="E30" s="11">
-        <v>5</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" s="11">
-        <v>300</v>
-      </c>
-      <c r="H30" s="11">
-        <v>3</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="11">
-        <v>3600</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E31" s="11">
-        <v>8</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="11">
-        <v>750</v>
-      </c>
-      <c r="H31" s="11">
-        <v>3</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B34" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B35" s="11">
-        <v>500</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E35" s="11">
-        <v>5</v>
-      </c>
-      <c r="F35" s="11">
-        <v>10</v>
-      </c>
-      <c r="G35" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="11">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11">
-        <v>25</v>
-      </c>
-      <c r="G36" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11">
-        <v>35</v>
-      </c>
-      <c r="G37" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B38" s="11">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D38" s="36">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11">
-        <v>20</v>
-      </c>
-      <c r="F38" s="11">
-        <v>2</v>
-      </c>
-      <c r="G38" s="11">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316DA1-0F0E-4711-BCC6-A5C80FF9B293}">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="20">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>50</v>
-      </c>
-      <c r="B3" s="20">
-        <f>$A3*B$2</f>
-        <v>25</v>
-      </c>
-      <c r="C3" s="20">
-        <f>$A3*C$2</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="20">
-        <f>$A3*D$2</f>
-        <v>200</v>
-      </c>
-      <c r="E3" s="20">
-        <f>$A3*E$2</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="16">
-        <v>2</v>
-      </c>
-      <c r="N3" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>100</v>
-      </c>
-      <c r="B4" s="20">
-        <f t="shared" ref="B4:E8" si="0">$A4*B$2</f>
-        <v>50</v>
-      </c>
-      <c r="C4" s="20">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D4" s="20">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="J4" s="16">
-        <v>50</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16">
-        <v>25</v>
-      </c>
-      <c r="M4" s="16">
-        <v>100</v>
-      </c>
-      <c r="N4" s="16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>500</v>
-      </c>
-      <c r="B5" s="20">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C5" s="20">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="E5" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" s="16">
-        <v>2</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16">
-        <v>4</v>
-      </c>
-      <c r="N5" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="20">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="20">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="E7" s="20">
-        <f>$A7*E$2</f>
-        <v>40</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>5000</v>
-      </c>
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="C8" s="20">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="E8" s="20">
-        <f>$A8*E$2</f>
-        <v>100</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69A37D-F534-4427-B31B-A2C9B6647894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DE6E1-6115-41FE-B28E-94D06C14B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="242">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Blocken</t>
   </si>
   <si>
-    <t>Experience(Willpower/perception)</t>
-  </si>
-  <si>
     <t>Ranged</t>
   </si>
   <si>
@@ -753,6 +750,21 @@
   </si>
   <si>
     <t>Rasse</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Instinct</t>
+  </si>
+  <si>
+    <t>Inst</t>
+  </si>
+  <si>
+    <t>CritMargNeg</t>
+  </si>
+  <si>
+    <t>CritMargPos</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1549,21 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="226">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3522,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,7 +3814,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="66" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="104">
         <f>CharacterSheet!B5</f>
@@ -3874,7 +3900,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="107" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="108">
         <f>CharacterSheet!B7</f>
@@ -3882,13 +3908,13 @@
       </c>
       <c r="R7" s="95"/>
       <c r="S7" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V7" s="67">
         <f>CharacterSheet!I6</f>
@@ -3901,13 +3927,13 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>2</v>
@@ -3924,7 +3950,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="109">
         <f>CharacterSheet!B8</f>
@@ -3932,13 +3958,13 @@
       </c>
       <c r="R8" s="95"/>
       <c r="S8" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" s="53" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="67">
         <f>CharacterSheet!I7</f>
@@ -3947,16 +3973,16 @@
       <c r="W8" s="63"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="13">
         <v>10.5</v>
@@ -3976,20 +4002,20 @@
       <c r="N9" s="25"/>
       <c r="O9" s="16"/>
       <c r="P9" s="114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="115">
         <v>5</v>
       </c>
       <c r="R9" s="95"/>
       <c r="S9" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V9" s="67">
         <f>CharacterSheet!I8</f>
@@ -3998,7 +4024,7 @@
       <c r="W9" s="63"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="11">
         <f>Inventar!$G$22</f>
@@ -4007,10 +4033,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
@@ -4031,7 +4057,7 @@
       <c r="N10" s="27"/>
       <c r="O10" s="16"/>
       <c r="P10" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="97">
         <f>CharacterSheet!B10</f>
@@ -4042,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="62"/>
       <c r="V10" s="69">
@@ -4055,7 +4081,7 @@
       <c r="W10" s="63"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="11">
         <f>Inventar!$G$19</f>
@@ -4064,10 +4090,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
@@ -4086,7 +4112,7 @@
       <c r="N11" s="27"/>
       <c r="O11" s="16"/>
       <c r="P11" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="98">
         <f>CharacterSheet!B11</f>
@@ -4094,7 +4120,7 @@
       </c>
       <c r="R11" s="95"/>
       <c r="S11" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" s="124"/>
       <c r="U11" s="124"/>
@@ -4102,7 +4128,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
@@ -4111,10 +4137,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13">
         <v>10.5</v>
@@ -4133,7 +4159,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="16"/>
       <c r="P12" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="117">
         <f>ROUNDUP((Q7+Q5)/2,0)</f>
@@ -4141,13 +4167,13 @@
       </c>
       <c r="R12" s="95"/>
       <c r="S12" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T12" s="60" t="s">
         <v>22</v>
       </c>
       <c r="U12" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V12" s="65">
         <f>CharacterSheet!I10</f>
@@ -4156,7 +4182,7 @@
       <c r="W12" s="66"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
@@ -4165,10 +4191,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="48">
         <v>10.5</v>
@@ -4191,10 +4217,10 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="S13" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" s="50"/>
       <c r="V13" s="67">
@@ -4204,7 +4230,7 @@
       <c r="W13" s="63"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
@@ -4213,7 +4239,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="49">
@@ -4231,14 +4257,14 @@
       <c r="N14" s="27"/>
       <c r="O14" s="16"/>
       <c r="P14" s="121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="S14" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U14" s="50"/>
       <c r="V14" s="67">
@@ -4267,13 +4293,13 @@
       <c r="P15" s="122"/>
       <c r="Q15" s="16"/>
       <c r="S15" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V15" s="69">
         <f>CharacterSheet!I13</f>
@@ -4288,10 +4314,10 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="16"/>
@@ -4307,7 +4333,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="77"/>
       <c r="S16" s="118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16" s="119"/>
       <c r="U16" s="119"/>
@@ -4315,13 +4341,13 @@
       <c r="W16" s="7"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="44">
         <f>CharacterSheet!B15</f>
@@ -4350,13 +4376,13 @@
       </c>
       <c r="Q17" s="16"/>
       <c r="S17" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="70" t="s">
-        <v>72</v>
-      </c>
       <c r="U17" s="70" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="V17" s="65">
         <f>CharacterSheet!I14</f>
@@ -4365,21 +4391,21 @@
       <c r="W17" s="66"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="58">
         <f>CharacterSheet!B16</f>
@@ -4402,7 +4428,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -4410,10 +4436,10 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="S18" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U18" s="54"/>
       <c r="V18" s="67">
@@ -4423,7 +4449,7 @@
       <c r="W18" s="63"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="16">
         <v>3</v>
@@ -4432,12 +4458,12 @@
         <v>5</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="42">
         <f>CharacterSheet!B17</f>
@@ -4464,10 +4490,10 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="S19" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U19" s="54"/>
       <c r="V19" s="67">
@@ -4477,7 +4503,7 @@
       <c r="W19" s="63"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="16">
         <v>4</v>
@@ -4486,12 +4512,12 @@
         <v>2</v>
       </c>
       <c r="AB19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="40">
         <f>CharacterSheet!B18</f>
@@ -4518,13 +4544,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="S20" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="V20" s="67">
         <f>CharacterSheet!I17</f>
@@ -4533,7 +4559,7 @@
       <c r="W20" s="63"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -4541,7 +4567,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="40">
         <f>CharacterSheet!B19</f>
@@ -4568,13 +4594,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="S21" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="U21" s="11" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V21" s="67">
         <f>CharacterSheet!I18</f>
@@ -4589,7 +4615,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="40">
         <f>CharacterSheet!B20</f>
@@ -4610,7 +4636,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="16"/>
@@ -4622,13 +4648,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="S22" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T22" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U22" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V22" s="69">
         <f>CharacterSheet!I19</f>
@@ -4663,7 +4689,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="77"/>
       <c r="S23" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
@@ -4696,7 +4722,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="S24" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T24" s="72" t="s">
         <v>23</v>
@@ -4715,7 +4741,7 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
@@ -4736,7 +4762,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="S25" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>23</v>
@@ -4755,7 +4781,7 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="16"/>
@@ -4777,7 +4803,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="77"/>
       <c r="S26" s="118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T26" s="119"/>
       <c r="U26" s="119"/>
@@ -4791,7 +4817,7 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
@@ -4808,10 +4834,10 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="S27" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T27" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U27" s="74"/>
       <c r="V27" s="65">
@@ -4842,10 +4868,10 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="S28" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T28" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="67">
@@ -4873,13 +4899,13 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="S29" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T29" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U29" s="61" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V29" s="69">
         <f>CharacterSheet!I24</f>
@@ -4907,7 +4933,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="77"/>
       <c r="S30" s="118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T30" s="119"/>
       <c r="U30" s="119"/>
@@ -4933,10 +4959,10 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="S31" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T31" s="75" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U31" s="75"/>
       <c r="V31" s="65">
@@ -4964,10 +4990,10 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="S32" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T32" s="52" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U32" s="52"/>
       <c r="V32" s="67">
@@ -4985,10 +5011,10 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="S33" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T33" s="76" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U33" s="76"/>
       <c r="V33" s="69">
@@ -5008,366 +5034,366 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="223" priority="112" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="113" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="114" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="115" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="116" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="117" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="217" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="216" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="215" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="209" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="203" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="197" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="191" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="185" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="179" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="173" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="167" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="161" priority="44" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="155" priority="38" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="39" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="40" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="42" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="149" priority="32" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="143" priority="26" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="28" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="29" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="30" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="31" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="22" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="24" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="25" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="131" priority="14" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="119" priority="4" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="6" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5379,16 +5405,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
+      <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5414,14 +5445,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="16">
         <v>30000</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="16">
         <f>13490-E2+E3</f>
@@ -5434,14 +5465,14 @@
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="16">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="16">
         <f>200</f>
@@ -5450,14 +5481,14 @@
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="16">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="16">
         <f>15000</f>
@@ -5467,22 +5498,22 @@
     <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5490,7 +5521,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="16">
         <v>5000</v>
@@ -5507,7 +5538,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="16">
         <v>2250</v>
@@ -5518,7 +5549,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -5526,7 +5557,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="16">
         <v>3000</v>
@@ -5562,7 +5593,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5582,29 +5613,29 @@
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>125</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="16">
         <v>2000</v>
@@ -5618,14 +5649,14 @@
       <c r="E15" s="16"/>
       <c r="F15" s="12"/>
       <c r="G15" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="16">
         <v>2000</v>
@@ -5647,7 +5678,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="16">
         <v>3000</v>
@@ -5666,7 +5697,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="16">
         <v>3000</v>
@@ -5680,14 +5711,14 @@
       <c r="E18" s="16"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="16">
         <v>3000</v>
@@ -5726,7 +5757,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -5783,22 +5814,22 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>134</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5814,14 +5845,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="16">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="16">
         <f>0.5*E28</f>
@@ -5837,14 +5868,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="16">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="16">
         <f>0.5*E29</f>
@@ -5871,22 +5902,22 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>140</v>
-      </c>
       <c r="D32" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -5894,7 +5925,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="16">
         <v>100</v>
@@ -5906,7 +5937,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="16">
         <v>500</v>
@@ -5937,42 +5968,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>150</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="16">
         <v>300</v>
@@ -5981,25 +6012,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="16">
         <v>4</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="16">
         <v>1</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" s="16">
         <v>6</v>
@@ -6007,7 +6038,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="16">
         <v>200</v>
@@ -6016,13 +6047,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="16">
         <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="16">
         <v>3</v>
@@ -6042,7 +6073,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="16">
         <v>50</v>
@@ -6051,19 +6082,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="16">
         <v>3</v>
@@ -6077,7 +6108,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="16">
         <v>50</v>
@@ -6086,19 +6117,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="16">
         <v>2</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" s="16">
         <v>1</v>
@@ -6112,7 +6143,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="16">
         <v>50</v>
@@ -6121,25 +6152,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="16">
         <v>4</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="16">
         <v>4</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="16">
         <v>3</v>
@@ -6147,7 +6178,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="16">
         <v>50</v>
@@ -6156,19 +6187,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="16">
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="16">
         <v>3</v>
@@ -6216,7 +6247,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,16 +6267,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>6</v>
@@ -6255,7 +6286,7 @@
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>8</v>
@@ -6265,10 +6296,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="16">
@@ -6310,16 +6341,16 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="P2" s="9"/>
     </row>
@@ -6356,7 +6387,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="16">
         <v>3</v>
@@ -6365,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="8"/>
     </row>
@@ -6396,7 +6427,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="16">
         <v>4</v>
@@ -6405,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7"/>
     </row>
@@ -6438,7 +6469,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -6457,13 +6488,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="90">
@@ -6479,7 +6510,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="B7" s="87">
         <v>12</v>
@@ -6491,13 +6522,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="90">
@@ -6513,7 +6544,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="96">
         <v>5</v>
@@ -6525,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="90">
@@ -6549,7 +6580,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="96">
         <v>5</v>
@@ -6557,10 +6588,10 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="7"/>
@@ -6579,7 +6610,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="103">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
@@ -6588,13 +6619,13 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="89">
@@ -6612,7 +6643,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="102">
         <f>B5-Inventar!H22</f>
@@ -6621,10 +6652,10 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="7"/>
@@ -6647,10 +6678,10 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="7"/>
@@ -6671,13 +6702,13 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="91">
@@ -6697,13 +6728,13 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="89">
@@ -6719,7 +6750,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -6729,10 +6760,10 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="7">
@@ -6751,7 +6782,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
@@ -6759,10 +6790,10 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="81"/>
       <c r="H16" s="7"/>
@@ -6779,7 +6810,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="41">
         <f>CharacterSheet!$B$15*0.2</f>
@@ -6788,13 +6819,13 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>173</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>174</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="90">
@@ -6803,7 +6834,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="40">
         <f>CharacterSheet!$B$15*0.7</f>
@@ -6812,13 +6843,13 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="G18" s="67" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -6829,7 +6860,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="40">
         <f>CharacterSheet!$B$15*0.4</f>
@@ -6839,16 +6870,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="91">
@@ -6857,7 +6888,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="40">
         <f>CharacterSheet!$B$15*0.5</f>
@@ -6868,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="72" t="s">
         <v>23</v>
@@ -6888,7 +6919,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="71" t="s">
         <v>23</v>
@@ -6905,14 +6936,14 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="7"/>
@@ -6926,10 +6957,10 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="85"/>
       <c r="H23" s="7"/>
@@ -6943,13 +6974,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="91">
@@ -6962,10 +6993,10 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G25" s="86"/>
       <c r="H25" s="7"/>
@@ -6979,10 +7010,10 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="7"/>
@@ -6996,10 +7027,10 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G27" s="88"/>
       <c r="H27" s="23">
@@ -7034,386 +7065,392 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="109" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="108" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="98" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="95" priority="91" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="92" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="83" priority="79" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inst">
+      <formula>NOT(ISERROR(SEARCH("Inst",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7437,12 +7474,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -7458,40 +7495,40 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="J2" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="113" t="s">
+      <c r="M2" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="N2" s="100" t="s">
         <v>183</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>184</v>
       </c>
       <c r="O2" s="28"/>
     </row>
@@ -7514,14 +7551,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -7529,10 +7566,10 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="J4" s="16">
         <v>10</v>
@@ -7547,20 +7584,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
@@ -7568,10 +7605,10 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="J5" s="16">
         <v>10</v>
@@ -7586,20 +7623,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="16">
         <v>4</v>
@@ -7617,14 +7654,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -7642,14 +7679,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="16">
         <v>8</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="16">
         <v>10</v>
@@ -7667,7 +7704,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="16">
         <v>12</v>
@@ -7705,10 +7742,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7743,7 +7780,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="16">
         <v>0.5</v>
@@ -7751,7 +7788,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="16"/>
@@ -7766,7 +7803,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
@@ -7774,7 +7811,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
@@ -7791,7 +7828,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="16">
         <v>2</v>
@@ -7812,7 +7849,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
@@ -7820,10 +7857,10 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -7837,7 +7874,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="16">
         <v>6</v>
@@ -7853,7 +7890,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="16">
         <v>8</v>
@@ -7881,10 +7918,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7909,7 +7946,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
@@ -7925,7 +7962,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="16">
         <v>2</v>
@@ -7941,7 +7978,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="16">
         <v>3</v>
@@ -7957,7 +7994,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="16">
         <v>4</v>
@@ -7973,7 +8010,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="16">
         <v>5</v>
@@ -7989,7 +8026,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="16">
         <v>6</v>
@@ -8083,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8095,8 +8132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,13 +8143,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -8137,7 +8174,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="16">
         <f>CharacterSheet!B3</f>
@@ -8154,7 +8191,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="16">
         <f>CharacterSheet!B4</f>
@@ -8188,7 +8225,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="16">
         <f>CharacterSheet!B6</f>
@@ -8205,7 +8242,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="16">
         <f>CharacterSheet!B7</f>
@@ -8258,7 +8295,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="16">
         <f>CharacterSheet!B10</f>
@@ -8275,7 +8312,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="16">
         <f>CharacterSheet!B11</f>
@@ -8292,7 +8329,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="16">
         <f>CharacterSheet!B15</f>
@@ -8309,7 +8346,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="16">
         <f>CharacterSheet!B16</f>
@@ -8326,7 +8363,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="13">
         <f>Status!C14</f>
@@ -8433,7 +8470,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <f>Inventar!G22</f>
@@ -8450,7 +8487,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <f>Inventar!G19</f>
@@ -8467,7 +8504,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="str">
         <f>Status!Z13</f>
@@ -8484,7 +8521,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <f>Status!C2</f>
@@ -8501,7 +8538,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="16">
         <f>Status!C3</f>
@@ -8518,7 +8555,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="16">
         <f>Status!C4</f>
@@ -8535,14 +8572,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="16">
         <f>Status!C4</f>
         <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="16">
         <f>CharacterSheet!I26</f>
@@ -8551,7 +8588,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="str">
         <f>Status!B2</f>
@@ -8568,14 +8605,14 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="16" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" t="str">
         <f>CharacterSheet!B1</f>
@@ -8584,27 +8621,37 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="16" t="str">
         <f>Status!B4</f>
         <v>Schild</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30">
         <f>Status!Q12</f>
         <v>13</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -8614,7 +8661,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="16">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -8623,7 +8670,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DE6E1-6115-41FE-B28E-94D06C14B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2912DC-E611-4D08-BA86-D34382C35192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Backstory" sheetId="11" r:id="rId6"/>
     <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="257">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -146,12 +149,6 @@
     <t>Unarmed</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Köcher </t>
-  </si>
-  <si>
-    <t>------</t>
-  </si>
-  <si>
     <t>Intelligence</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Schlossknacken</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
     <t>Social Skills</t>
   </si>
   <si>
@@ -765,13 +759,67 @@
   </si>
   <si>
     <t>CritMargPos</t>
+  </si>
+  <si>
+    <t>Parthealth</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Health Head</t>
+  </si>
+  <si>
+    <t>Health Torso</t>
+  </si>
+  <si>
+    <t>Health LegR</t>
+  </si>
+  <si>
+    <t>Health LegL</t>
+  </si>
+  <si>
+    <t>Health ArmR</t>
+  </si>
+  <si>
+    <t>Health ArmL</t>
+  </si>
+  <si>
+    <t>Arm Rechts</t>
+  </si>
+  <si>
+    <t>Arm Links</t>
+  </si>
+  <si>
+    <t>Bein Rechts</t>
+  </si>
+  <si>
+    <t>Bein Links</t>
+  </si>
+  <si>
+    <t>Kaiserlich 8</t>
+  </si>
+  <si>
+    <t>Hautwaffe</t>
+  </si>
+  <si>
+    <t>Waffe</t>
+  </si>
+  <si>
+    <t>Drittwaffe</t>
+  </si>
+  <si>
+    <t>Holster</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +861,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="20">
@@ -931,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1386,11 +1446,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1406,7 +1512,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1521,6 +1626,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,18 +1651,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="226">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="232">
     <dxf>
       <fill>
         <patternFill>
@@ -2416,6 +2525,55 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3247,6 +3405,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Status"/>
+      <sheetName val="Inventar"/>
+      <sheetName val="Pflanzen"/>
+      <sheetName val="CharacterSheet"/>
+      <sheetName val="Prices+Changelog"/>
+      <sheetName val="Backstory"/>
+      <sheetName val="Währung"/>
+      <sheetName val="Abfrage"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="17">
+          <cell r="B17">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3546,126 +3762,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="56" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" customWidth="1"/>
+    <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="3.83984375" customWidth="1"/>
+    <col min="7" max="7" width="1.68359375" customWidth="1"/>
+    <col min="8" max="8" width="4.15625" customWidth="1"/>
+    <col min="9" max="9" width="2.41796875" customWidth="1"/>
+    <col min="10" max="10" width="4.83984375" customWidth="1"/>
+    <col min="11" max="11" width="2.41796875" customWidth="1"/>
+    <col min="12" max="12" width="4.68359375" customWidth="1"/>
+    <col min="13" max="13" width="1.83984375" customWidth="1"/>
+    <col min="14" max="14" width="3.68359375" customWidth="1"/>
+    <col min="15" max="15" width="4.15625" customWidth="1"/>
+    <col min="16" max="16" width="17.83984375" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" customWidth="1"/>
+    <col min="18" max="18" width="8.26171875" style="55" customWidth="1"/>
+    <col min="19" max="19" width="15.68359375" customWidth="1"/>
+    <col min="20" max="20" width="4.83984375" customWidth="1"/>
+    <col min="21" max="21" width="6.15625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="5.578125" customWidth="1"/>
+    <col min="23" max="23" width="4.83984375" customWidth="1"/>
+    <col min="24" max="24" width="7.15625" customWidth="1"/>
+    <col min="26" max="26" width="6.83984375" customWidth="1"/>
+    <col min="27" max="27" width="9.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="31" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="55" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="32" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>30</v>
       </c>
-      <c r="D2" s="37">
-        <v>7</v>
-      </c>
-      <c r="E2" s="37"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="64" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="92">
+      <c r="Q2" s="91">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="110"/>
+      <c r="R2" s="109"/>
       <c r="S2" s="118" t="s">
         <v>15</v>
       </c>
@@ -3673,15 +3885,15 @@
       <c r="U2" s="119"/>
       <c r="V2" s="120"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -3691,182 +3903,166 @@
       <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="66" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="80">
+      <c r="Q3" s="79">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="64" t="s">
+      <c r="R3" s="94"/>
+      <c r="S3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="65">
+      <c r="V3" s="64">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16" t="s">
+      <c r="W3" s="62"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="66" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="92">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="95"/>
-      <c r="S4" s="66" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="U4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="66">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="W4" s="62"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="104">
+      <c r="K5" s="20"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="103">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="95"/>
-      <c r="S5" s="66" t="s">
+      <c r="R5" s="94"/>
+      <c r="S5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="67">
+      <c r="U5" s="52"/>
+      <c r="V5" s="66">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="85">
+      <c r="H6" s="15"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="84">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="95"/>
-      <c r="S6" s="66" t="s">
-        <v>38</v>
+      <c r="R6" s="94"/>
+      <c r="S6" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>22</v>
@@ -3874,1154 +4070,1246 @@
       <c r="U6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="66">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="63"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q7" s="108">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q7" s="107">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="66" t="s">
-        <v>212</v>
+      <c r="R7" s="94"/>
+      <c r="S7" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="V7" s="67">
+        <v>236</v>
+      </c>
+      <c r="V7" s="66">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="W7" s="62"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="109">
+      <c r="Q8" s="108">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="95"/>
-      <c r="S8" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="53" t="s">
+      <c r="R8" s="94"/>
+      <c r="S8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="67">
+        <v>38</v>
+      </c>
+      <c r="V8" s="66">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="16"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="D9" s="16">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q9" s="115">
+      <c r="F9" s="24"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="114">
         <v>5</v>
       </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="66" t="s">
-        <v>45</v>
+      <c r="R9" s="94"/>
+      <c r="S9" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="67">
+        <v>38</v>
+      </c>
+      <c r="V9" s="66">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="X9" s="16"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="11">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>53</v>
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="97">
+      <c r="L10" s="20"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="96">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="95">
+      <c r="R10" s="94">
         <f>$P$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="62"/>
-      <c r="V10" s="69">
+      <c r="S10" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="68">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="63"/>
-      <c r="X10" s="16"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="11">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>53</v>
+    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="98">
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="97">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="95"/>
+      <c r="R11" s="94"/>
       <c r="S11" s="118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" s="124"/>
       <c r="U11" s="124"/>
       <c r="V11" s="125"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="47">
         <v>10.5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="22">
         <v>7</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q12" s="117">
+      <c r="L12" s="20"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q12" s="116">
         <f>ROUNDUP((Q7+Q5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="R12" s="95"/>
-      <c r="S12" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="94"/>
+      <c r="S12" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="65">
+      <c r="U12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="64">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="16"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>48</v>
-      </c>
+    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="48">
-        <v>10.5</v>
-      </c>
-      <c r="D13" s="23">
-        <v>7</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="20"/>
+        <f>SUM(C8:C12)</f>
+        <v>43.5</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="S13" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="67">
+      <c r="L13" s="20"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="S13" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="66">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="63"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="116" t="s">
-        <v>214</v>
+      <c r="W13" s="62"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="115" t="s">
+        <v>211</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="49">
-        <f>SUM(C9:C13)</f>
-        <v>43.5</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="20"/>
+    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="16"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="S14" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="50"/>
-      <c r="V14" s="67">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="S14" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="66">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="63"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="16"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="20"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="16"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="122"/>
-      <c r="Q15" s="16"/>
-      <c r="S15" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="69">
+      <c r="Q15" s="15"/>
+      <c r="S15" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="V15" s="68">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="66"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="20"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="43">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C16" s="44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f>B16-C16</f>
+        <v>275</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="16"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="123"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="77"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="76"/>
       <c r="S16" s="118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T16" s="119"/>
       <c r="U16" s="119"/>
       <c r="V16" s="120"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="16"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="44">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
-      </c>
-      <c r="C17" s="45">
+        <v>69</v>
+      </c>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="57">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="40">
-        <f>B17-C17</f>
-        <v>275</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="14">
+        <f>B17+C17</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="37">
+      <c r="L17" s="20"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="36">
         <v>0</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="S17" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="V17" s="65">
+      <c r="Q17" s="15"/>
+      <c r="S17" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="V17" s="64">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="66"/>
-      <c r="X17" s="16"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="58">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="B18" s="41">
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
+      </c>
+      <c r="C18" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="39">
         <f>B18+C18</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="54" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="S18" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="54"/>
-      <c r="V18" s="67">
+      <c r="T18" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="53"/>
+      <c r="V18" s="66">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="63"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z18" s="16">
+      <c r="W18" s="62"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z18" s="15">
         <v>3</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA18" s="15">
         <v>5</v>
       </c>
-      <c r="AB18" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="42">
-        <f>CharacterSheet!B17</f>
-        <v>55</v>
-      </c>
-      <c r="C19" s="45">
+      <c r="AB18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="39">
+        <f>CharacterSheet!B18</f>
+        <v>192.5</v>
+      </c>
+      <c r="C19" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <f>B19+C19</f>
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+        <v>192.5</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="S19" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="U19" s="54"/>
-      <c r="V19" s="67">
+      <c r="S19" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" s="53"/>
+      <c r="V19" s="66">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="63"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z19" s="16">
+      <c r="W19" s="62"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" s="15">
         <v>4</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA19" s="15">
         <v>2</v>
       </c>
-      <c r="AB19" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="40">
-        <f>CharacterSheet!B18</f>
-        <v>192.5</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="AB19" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="39">
+        <f>CharacterSheet!B19</f>
+        <v>55</v>
+      </c>
+      <c r="C20" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="40">
-        <f>B20+C20</f>
-        <v>192.5</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="D20" s="39">
+        <f t="shared" ref="D20:D23" si="1">B20+C20</f>
+        <v>55</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="S20" s="66" t="s">
-        <v>84</v>
+      <c r="S20" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V20" s="67">
+        <v>83</v>
+      </c>
+      <c r="V20" s="66">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="63"/>
-      <c r="X20" s="16"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="40">
-        <f>CharacterSheet!B19</f>
-        <v>110</v>
-      </c>
-      <c r="C21" s="45">
+        <v>90</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="39">
+        <f>CharacterSheet!B20</f>
+        <v>55</v>
+      </c>
+      <c r="C21" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="40">
-        <f t="shared" ref="D21:D22" si="0">B21+C21</f>
-        <v>110</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="66" t="s">
-        <v>91</v>
+      <c r="D21" s="39">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="S21" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="V21" s="67">
+        <v>236</v>
+      </c>
+      <c r="V21" s="66">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="63"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="40">
-        <f>CharacterSheet!B20</f>
-        <v>137.5</v>
-      </c>
-      <c r="C22" s="45">
+      <c r="W21" s="62"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="39">
+        <f>CharacterSheet!B21</f>
+        <v>68.75</v>
+      </c>
+      <c r="C22" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="E22" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="E22" s="16" t="str">
-        <f>IF(D18&lt;4,"Debuff","")</f>
         <v/>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="S22" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="U22" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="V22" s="69">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="S22" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="U22" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="V22" s="68">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="66"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="E23" s="16" t="str">
-        <f>IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+      <c r="W22" s="65"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="39">
+        <f>CharacterSheet!B22</f>
+        <v>68.75</v>
+      </c>
+      <c r="C23" s="44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="77"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="76"/>
       <c r="S23" s="118" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
       <c r="V23" s="120"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="E24" s="16" t="str">
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="15" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="S24" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" s="72" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="S24" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="106"/>
-      <c r="V24" s="65">
+      <c r="U24" s="105"/>
+      <c r="V24" s="64">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="66"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="E25" s="16" t="str">
+      <c r="W24" s="65"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="132" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="129"/>
+      <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="S25" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="71" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="S25" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="105"/>
-      <c r="V25" s="69">
+      <c r="U25" s="104"/>
+      <c r="V25" s="68">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="66"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="16"/>
-      <c r="E26" s="16" t="str">
-        <f>IF(D22=0,"Verkrüppelt",IF(D22&lt;=B22*0.2,"Verstümmelt",""))</f>
-        <v/>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="77"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="131">
+        <v>7</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="76"/>
       <c r="S26" s="118" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T26" s="119"/>
       <c r="U26" s="119"/>
       <c r="V26" s="120"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="S27" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="T27" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="74"/>
-      <c r="V27" s="65">
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="130">
+        <v>7</v>
+      </c>
+      <c r="D27" s="129"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="S27" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="U27" s="73"/>
+      <c r="V27" s="64">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="66"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="S28" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="T28" s="51" t="s">
-        <v>92</v>
+      <c r="W27" s="65"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="130">
+        <v>7</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="S28" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="U28" s="14"/>
-      <c r="V28" s="67">
+      <c r="V28" s="66">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="S29" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="T29" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="U29" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="V29" s="69">
+      <c r="W28" s="62"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="129"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="S29" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U29" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="V29" s="68">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="66"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="77"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="129"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="76"/>
       <c r="S30" s="118" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T30" s="119"/>
       <c r="U30" s="119"/>
       <c r="V30" s="120"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="S31" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T31" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="U31" s="75"/>
-      <c r="V31" s="65">
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="S31" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="T31" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="U31" s="74"/>
+      <c r="V31" s="64">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="63"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="S32" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="T32" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="U32" s="52"/>
-      <c r="V32" s="67">
+      <c r="W31" s="62"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="S32" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="T32" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="U32" s="51"/>
+      <c r="V32" s="66">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="63"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-    </row>
-    <row r="33" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="S33" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="T33" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="U33" s="76"/>
-      <c r="V33" s="69">
+      <c r="W32" s="62"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+    </row>
+    <row r="33" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="S33" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="T33" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="U33" s="75"/>
+      <c r="V33" s="68">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="63"/>
+      <c r="W33" s="62"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5034,363 +5322,363 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="231" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="230" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="229" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="228" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="227" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="226" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="81" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="82" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="83" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="84" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="85" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="86" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="10" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="12" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="14" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5404,21 +5692,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E26">
-    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
-      <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
-      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
-      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="Verkrüppelt">
+      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5431,244 +5719,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="5" max="5" width="6.578125" customWidth="1"/>
+    <col min="6" max="6" width="6.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="16">
+        <v>107</v>
+      </c>
+      <c r="B1" s="15">
         <v>30000</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="16">
+        <v>108</v>
+      </c>
+      <c r="E1" s="15">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="16">
+        <v>109</v>
+      </c>
+      <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2" s="15">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="16">
+        <v>87</v>
+      </c>
+      <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="16">
+        <v>111</v>
+      </c>
+      <c r="E3" s="15">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B7" s="15">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="B8" s="15">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="15">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="16">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="16">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2250</v>
-      </c>
-      <c r="C8" s="16">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="16">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="16">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>25</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>122</v>
+      <c r="F10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="32" t="s">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>117</v>
+      <c r="F14" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="15">
         <v>2000</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>6</v>
       </c>
       <c r="D15" s="13">
         <v>1.25</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="101" t="s">
-        <v>124</v>
+      <c r="G15" s="100" t="s">
+        <v>121</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="15">
         <v>2000</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>6</v>
       </c>
       <c r="D16" s="13">
         <v>1.25</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -5676,60 +5964,60 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15">
         <v>3000</v>
       </c>
       <c r="C17" s="13">
         <v>10.5</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="16">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="15">
         <v>3000</v>
       </c>
       <c r="C18" s="13">
         <v>10.5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>129</v>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="16">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="15">
         <v>3000</v>
       </c>
       <c r="C19" s="13">
         <v>10.5</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
         <f>SUM(D8:D115)</f>
@@ -5738,35 +6026,35 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>131</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
@@ -5779,63 +6067,63 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="32" t="s">
+    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>117</v>
+      <c r="F26" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -5843,18 +6131,18 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="16">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="15">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
@@ -5866,18 +6154,18 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="16">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="15">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
@@ -5889,61 +6177,61 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="15">
+        <v>100</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="16">
-        <v>100</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>500</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5958,284 +6246,284 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="36" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="B2" s="15">
+        <v>300</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="G2" s="15">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="16">
-        <v>300</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="15">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="15">
+        <v>50</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="16">
+      <c r="I4" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="15">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="15">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="H6" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="15">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="16">
-        <v>200</v>
-      </c>
-      <c r="C3" s="16">
-        <v>7</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="16">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
-      <c r="H3" s="16">
+      <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="16">
-        <v>50</v>
-      </c>
-      <c r="C4" s="16">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="16">
-        <v>3</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="16">
-        <v>50</v>
-      </c>
-      <c r="C5" s="16">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="16">
-        <v>50</v>
-      </c>
-      <c r="C6" s="16">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="16">
-        <v>4</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="16">
-        <v>50</v>
-      </c>
-      <c r="C7" s="16">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="16">
-        <v>3</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6247,1205 +6535,1215 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.41796875" customWidth="1"/>
+    <col min="3" max="3" width="3.26171875" customWidth="1"/>
+    <col min="4" max="4" width="2.83984375" customWidth="1"/>
+    <col min="5" max="5" width="19.578125" customWidth="1"/>
+    <col min="6" max="6" width="4.68359375" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.68359375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="I1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="M1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15">
         <f>B4+B7+B8+B9</f>
         <v>34</v>
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="91">
         <v>12</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>-4</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>10</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>-9</v>
       </c>
-      <c r="I2" s="89">
+      <c r="I2" s="88">
         <v>29</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>16</v>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="79">
         <v>12</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>-2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="89">
         <v>30</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="L3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="15">
         <v>3</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>5</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>83</v>
+      <c r="O3" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="92">
         <v>12</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>-4</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="90">
+      <c r="I4" s="89">
         <v>20</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="15">
         <v>4</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>2</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>88</v>
+      <c r="O4" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="93">
         <v>13</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>38</v>
+      <c r="E5" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>30</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="84">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="89">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="86">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="85">
+      <c r="F7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="89">
+        <v>20</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="95">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-8</v>
+      </c>
+      <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>10</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="90">
-        <v>20</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="87">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
-        <v>-4</v>
-      </c>
-      <c r="D7" s="16">
-        <v>10</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="90">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="96">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>-8</v>
-      </c>
-      <c r="D8" s="16">
-        <v>10</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>45</v>
+      <c r="E8" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>40</v>
+      <c r="G8" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="90">
+      <c r="I8" s="89">
         <v>20</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="111" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="96">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="95">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="79"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="78"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="91">
+      <c r="I9" s="90">
         <v>20</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="103">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="102">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>40</v>
+      <c r="G10" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="89">
+      <c r="I10" s="88">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="102">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="101">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="80"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="79"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="90">
+      <c r="I11" s="89">
         <v>24</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="80"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="79"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="90">
+      <c r="I12" s="89">
         <v>20</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>239</v>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>236</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="91">
+      <c r="I13" s="90">
         <v>20</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>71</v>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="89">
+      <c r="I14" s="88">
         <v>20</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>-3</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="54" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="F15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="80"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="89">
         <v>35</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="81"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="80"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="90">
+      <c r="I16" s="89">
         <v>20</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="41">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="40">
         <f>CharacterSheet!$B$15*0.2</f>
         <v>55</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="66" t="s">
-        <v>84</v>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="90">
+      <c r="I17" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="40">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="39">
         <f>CharacterSheet!$B$15*0.7</f>
         <v>192.5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="66" t="s">
-        <v>91</v>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>239</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>236</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="89">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="40">
-        <f>CharacterSheet!$B$15*0.4</f>
-        <v>110</v>
-      </c>
-      <c r="C19" s="16">
+    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="39">
+        <f>CharacterSheet!$B$15*0.2</f>
+        <v>55</v>
+      </c>
+      <c r="C19" s="15">
         <v>25</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="82" t="s">
-        <v>173</v>
+      <c r="D19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="91">
+      <c r="I19" s="90">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="40">
-        <f>CharacterSheet!$B$15*0.5</f>
-        <v>137.5</v>
-      </c>
-      <c r="C20" s="16">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="39">
+        <f>CharacterSheet!$B$15*0.2</f>
+        <v>55</v>
+      </c>
+      <c r="C20" s="15">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="D20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="89">
+      <c r="I20" s="88">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="68" t="s">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="39">
+        <f>CharacterSheet!$B$15*0.25</f>
+        <v>68.75</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="37">
+        <v>-8</v>
+      </c>
+      <c r="I21" s="90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="39">
+        <f>CharacterSheet!$B$15*0.25</f>
+        <v>68.75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="38">
-        <v>-8</v>
-      </c>
-      <c r="I21" s="91">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="89">
+      <c r="F23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="66" t="s">
+    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="90">
+      <c r="F25" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="88">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="68" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="86"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="23">
+      <c r="F27" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="22">
         <v>-15</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="90">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="H30" s="16">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="H30" s="15">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="109" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7459,646 +7757,640 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.15625" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="I2" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="J2" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="112" t="s">
+      <c r="M2" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="N2" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="113" t="s">
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="16">
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="15">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2</v>
+      </c>
+      <c r="L5" s="15">
+        <v>12</v>
+      </c>
+      <c r="M5" s="15">
+        <v>2</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="15">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="15">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="15">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
+      <c r="F17" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="15">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="19">
+        <v>7</v>
+      </c>
+      <c r="F18" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="19">
+        <v>9</v>
+      </c>
+      <c r="F20" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="19">
+        <v>10</v>
+      </c>
+      <c r="F21" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19">
+        <v>11</v>
+      </c>
+      <c r="F22" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="16">
-        <v>10</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="L4" s="16">
-        <v>2</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="19">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="16">
-        <v>10</v>
-      </c>
-      <c r="K5" s="16">
-        <v>2</v>
-      </c>
-      <c r="L5" s="16">
-        <v>12</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="19">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="B25" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="19">
+        <v>14</v>
+      </c>
+      <c r="F25" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="16">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19">
+        <v>15</v>
+      </c>
+      <c r="F26" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="16">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="16">
-        <v>10</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="16">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="21">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="16">
-        <v>6</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20">
-        <v>5</v>
-      </c>
-      <c r="F17" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="16">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20">
-        <v>6</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20">
-        <v>7</v>
-      </c>
-      <c r="F19" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20">
-        <v>9</v>
-      </c>
-      <c r="F21" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20">
-        <v>10</v>
-      </c>
-      <c r="F22" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20">
-        <v>11</v>
-      </c>
-      <c r="F23" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="16">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20">
-        <v>12</v>
-      </c>
-      <c r="F24" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="16">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="20">
-        <v>13</v>
-      </c>
-      <c r="F25" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="16">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="20">
-        <v>14</v>
-      </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="16">
-        <v>6</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="20">
-        <v>15</v>
-      </c>
-      <c r="F27" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19">
+        <v>16</v>
+      </c>
+      <c r="F27" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="19">
+        <v>17</v>
+      </c>
+      <c r="F28" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="20">
-        <v>17</v>
-      </c>
-      <c r="F29" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="20">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="19">
         <v>18</v>
       </c>
-      <c r="F30" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="20">
+      <c r="F29" s="20">
         <v>19</v>
       </c>
-      <c r="F31" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="22">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21">
         <v>20</v>
       </c>
-      <c r="F32" s="24">
-        <v>15</v>
-      </c>
+      <c r="F31" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8113,14 +8405,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
+    <col min="1" max="1" width="127.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>211</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8130,32 +8422,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="117" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8171,506 +8469,550 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="E2" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="15">
+        <f>[1]CharacterSheet!B17</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="15" t="str">
         <f>CharacterSheet!E3</f>
         <v>Armed</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="E3" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="15">
+        <f>[1]CharacterSheet!B18</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="15" t="str">
         <f>CharacterSheet!E4</f>
         <v>Unarmed</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="E4" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="15">
+        <f>[1]CharacterSheet!B19</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="15" t="str">
         <f>CharacterSheet!E5</f>
         <v>Blocken</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="E5" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="15">
+        <f>[1]CharacterSheet!B20</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="15" t="str">
         <f>CharacterSheet!E6</f>
         <v>Artillerie</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="E6" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="15">
+        <f>[1]CharacterSheet!B21</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="15" t="str">
         <f>CharacterSheet!E7</f>
         <v>Ranged</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="str">
+      <c r="E7" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="15">
+        <f>[1]CharacterSheet!B22</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="15" t="str">
         <f>CharacterSheet!E8</f>
         <v>throwing</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f>CharacterSheet!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="15" t="str">
         <f>CharacterSheet!E9</f>
         <v>Dodge</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="16">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="15" t="str">
         <f>CharacterSheet!E10</f>
         <v>Acrobatics</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="15" t="str">
         <f>CharacterSheet!E11</f>
         <v>Schleichen</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="16">
+        <v>91</v>
+      </c>
+      <c r="B12" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="15" t="str">
         <f>CharacterSheet!E12</f>
         <v>Taschendiebstahl</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="16">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="15" t="str">
         <f>CharacterSheet!E13</f>
         <v>Schlossknacken</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" s="13">
-        <f>Status!C14</f>
+        <f>Status!C13</f>
         <v>43.5</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="15" t="str">
         <f>CharacterSheet!E14</f>
         <v>Lying</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f>Status!A9</f>
+        <f>Status!A8</f>
         <v>Helm</v>
       </c>
       <c r="B15" s="13">
-        <f>Status!C9</f>
+        <f>Status!C8</f>
         <v>10.5</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="15" t="str">
         <f>CharacterSheet!E15</f>
         <v>Persuation</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="str">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="str">
+        <f>Status!A9</f>
+        <v>Brust</v>
+      </c>
+      <c r="B16" s="13">
+        <f>Status!C9</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>CharacterSheet!E16</f>
+        <v>Performance</v>
+      </c>
+      <c r="D16" s="15">
+        <f>CharacterSheet!I16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="str">
         <f>Status!A10</f>
-        <v>Brust</v>
-      </c>
-      <c r="B16" s="13">
+        <v>Arme</v>
+      </c>
+      <c r="B17" s="13">
         <f>Status!C10</f>
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="str">
-        <f>CharacterSheet!E16</f>
-        <v>Performance</v>
-      </c>
-      <c r="D16" s="16">
-        <f>CharacterSheet!I16</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
-        <f>Status!A11</f>
-        <v>Arme</v>
-      </c>
-      <c r="B17" s="13">
-        <f>Status!C11</f>
-        <v>6</v>
-      </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="15" t="str">
         <f>CharacterSheet!E17</f>
         <v>Feilschen</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="str">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="str">
+        <f>Status!A11</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="B18" s="13">
+        <f>Status!C11</f>
+        <v>10.5</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>CharacterSheet!E18</f>
+        <v>Insight</v>
+      </c>
+      <c r="D18" s="15">
+        <f>CharacterSheet!I18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="str">
         <f>Status!A12</f>
-        <v>Gürtel</v>
-      </c>
-      <c r="B18" s="13">
+        <v>Beine</v>
+      </c>
+      <c r="B19" s="13">
         <f>Status!C12</f>
         <v>10.5</v>
       </c>
-      <c r="C18" s="16" t="str">
-        <f>CharacterSheet!E18</f>
-        <v>Insight</v>
-      </c>
-      <c r="D18" s="16">
-        <f>CharacterSheet!I18</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
-        <f>Status!A13</f>
-        <v>Beine</v>
-      </c>
-      <c r="B19" s="13">
-        <f>Status!C13</f>
-        <v>10.5</v>
-      </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="15" t="str">
         <f>CharacterSheet!E19</f>
         <v>Intimidation</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <f>Inventar!G22</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
         <v xml:space="preserve">Swimming </v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <f>Inventar!G19</f>
         <v>19.5</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="15" t="str">
         <f>CharacterSheet!E21</f>
         <v>Running</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" t="str">
         <f>Status!Z13</f>
         <v>Leicht</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="15" t="str">
         <f>CharacterSheet!E22</f>
         <v>Handwerk</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <f>Status!C2</f>
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="15" t="str">
         <f>CharacterSheet!E23</f>
         <v>Alchemie</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="16">
+        <v>217</v>
+      </c>
+      <c r="B24" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="15" t="str">
         <f>CharacterSheet!E24</f>
         <v>Vehicles</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="16">
+        <v>228</v>
+      </c>
+      <c r="B25" s="15">
         <f>Status!C4</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f>CharacterSheet!E25</f>
         <v>Animal Handling</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="16">
-        <f>Status!C4</f>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="15">
+        <f>Status!C5</f>
         <v>15</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="15" t="str">
         <f>CharacterSheet!E27</f>
         <v>Perception</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="16" t="str">
+        <v>219</v>
+      </c>
+      <c r="B28" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>236</v>
+      <c r="C28" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D28" t="str">
         <f>CharacterSheet!B1</f>
         <v>Mensch</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="16" t="str">
+        <v>230</v>
+      </c>
+      <c r="B29" s="15">
         <f>Status!B4</f>
-        <v>Schild</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>241</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B30">
         <f>Status!Q12</f>
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>240</v>
+      <c r="C30" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="16">
+        <v>232</v>
+      </c>
+      <c r="B32" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2912DC-E611-4D08-BA86-D34382C35192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C335A2-34FF-4E00-B047-025FBCA29844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Backstory" sheetId="11" r:id="rId6"/>
     <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="258">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Instinkt</t>
   </si>
 </sst>
 </file>
@@ -1627,6 +1627,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,21 +1660,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="226">
     <dxf>
       <fill>
         <patternFill>
@@ -2525,48 +2525,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3405,64 +3363,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Status"/>
-      <sheetName val="Inventar"/>
-      <sheetName val="Pflanzen"/>
-      <sheetName val="CharacterSheet"/>
-      <sheetName val="Prices+Changelog"/>
-      <sheetName val="Backstory"/>
-      <sheetName val="Währung"/>
-      <sheetName val="Abfrage"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="17">
-          <cell r="B17">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3764,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3799,13 +3699,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30"/>
@@ -3878,12 +3778,12 @@
         <v>12</v>
       </c>
       <c r="R2" s="109"/>
-      <c r="S2" s="118" t="s">
+      <c r="S2" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="120"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="129"/>
       <c r="W2" s="7"/>
       <c r="X2" s="15"/>
       <c r="Y2" s="15" t="s">
@@ -4322,12 +4222,12 @@
         <v>10</v>
       </c>
       <c r="R11" s="94"/>
-      <c r="S11" s="118" t="s">
+      <c r="S11" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="125"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="134"/>
       <c r="W11" s="7"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="11" t="s">
@@ -4450,7 +4350,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="26"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="121" t="s">
+      <c r="P14" s="130" t="s">
         <v>62</v>
       </c>
       <c r="Q14" s="15"/>
@@ -4489,7 +4389,7 @@
       <c r="M15" s="15"/>
       <c r="N15" s="26"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="122"/>
+      <c r="P15" s="131"/>
       <c r="Q15" s="15"/>
       <c r="S15" s="67" t="s">
         <v>64</v>
@@ -4535,15 +4435,15 @@
       <c r="M16" s="15"/>
       <c r="N16" s="26"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="123"/>
+      <c r="P16" s="132"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="76"/>
-      <c r="S16" s="118" t="s">
+      <c r="S16" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="129"/>
       <c r="W16" s="7"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="12" t="s">
@@ -4677,7 +4577,7 @@
       </c>
       <c r="B19" s="39">
         <f>CharacterSheet!B18</f>
-        <v>192.5</v>
+        <v>193</v>
       </c>
       <c r="C19" s="44">
         <f>0</f>
@@ -4685,7 +4585,7 @@
       </c>
       <c r="D19" s="39">
         <f>B19+C19</f>
-        <v>192.5</v>
+        <v>193</v>
       </c>
       <c r="E19" s="15" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
@@ -4843,7 +4743,7 @@
       </c>
       <c r="B22" s="39">
         <f>CharacterSheet!B21</f>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="C22" s="44">
         <f>0</f>
@@ -4851,7 +4751,7 @@
       </c>
       <c r="D22" s="39">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="E22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4899,7 +4799,7 @@
       </c>
       <c r="B23" s="39">
         <f>CharacterSheet!B22</f>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="C23" s="44">
         <f>0</f>
@@ -4907,7 +4807,7 @@
       </c>
       <c r="D23" s="39">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="E23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4928,12 +4828,12 @@
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="76"/>
-      <c r="S23" s="118" t="s">
+      <c r="S23" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="120"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="129"/>
       <c r="W23" s="7"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
@@ -4980,16 +4880,16 @@
       <c r="AB24" s="15"/>
     </row>
     <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="129"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
@@ -5025,16 +4925,16 @@
       <c r="AB25" s="15"/>
     </row>
     <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="131">
+      <c r="C26" s="123">
         <v>7</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="121"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="21"/>
@@ -5048,12 +4948,12 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="76"/>
-      <c r="S26" s="118" t="s">
+      <c r="S26" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="129"/>
       <c r="W26" s="7"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
@@ -5062,16 +4962,16 @@
       <c r="AB26" s="15"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="130">
+      <c r="C27" s="122">
         <v>7</v>
       </c>
-      <c r="D27" s="129"/>
+      <c r="D27" s="121"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -5103,16 +5003,16 @@
       <c r="AB27" s="15"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="130">
+      <c r="C28" s="122">
         <v>7</v>
       </c>
-      <c r="D28" s="129"/>
+      <c r="D28" s="121"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -5144,12 +5044,12 @@
       <c r="AB28" s="15"/>
     </row>
     <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="121"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -5183,12 +5083,12 @@
       <c r="AB29" s="15"/>
     </row>
     <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="129"/>
+      <c r="A30" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="121"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -5202,12 +5102,12 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="76"/>
-      <c r="S30" s="118" t="s">
+      <c r="S30" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="120"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="129"/>
       <c r="W30" s="7"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
@@ -5216,10 +5116,10 @@
       <c r="AB30" s="15"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="129"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -5251,10 +5151,10 @@
       <c r="AB31" s="15"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="129"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -5286,10 +5186,10 @@
       <c r="AB32" s="15"/>
     </row>
     <row r="33" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="129"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="S33" s="67" t="s">
@@ -5306,10 +5206,10 @@
       <c r="W33" s="62"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="129"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5322,363 +5222,363 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="231" priority="113" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="225" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="224" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="199" priority="81" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="82" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="83" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="84" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="85" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="86" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="187" priority="63" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="64" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="65" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="66" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="67" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="68" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="181" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="175" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="10" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="12" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="14" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5693,20 +5593,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E25">
-    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E25">
-    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6535,7 +6435,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6798,7 +6698,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="65" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B7" s="86">
         <v>12</v>
@@ -7101,7 +7001,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="40">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="15"/>
@@ -7125,8 +7025,8 @@
         <v>98</v>
       </c>
       <c r="B18" s="39">
-        <f>CharacterSheet!$B$15*0.7</f>
-        <v>192.5</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
+        <v>193</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -7151,7 +7051,7 @@
         <v>247</v>
       </c>
       <c r="B19" s="39">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C19" s="15">
@@ -7179,7 +7079,7 @@
         <v>248</v>
       </c>
       <c r="B20" s="39">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C20" s="15">
@@ -7206,8 +7106,8 @@
         <v>249</v>
       </c>
       <c r="B21" s="39">
-        <f>CharacterSheet!$B$15*0.25</f>
-        <v>68.75</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
+        <v>69</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -7230,8 +7130,8 @@
         <v>250</v>
       </c>
       <c r="B22" s="39">
-        <f>CharacterSheet!$B$15*0.25</f>
-        <v>68.75</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>172</v>
@@ -8425,7 +8325,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8473,8 +8373,8 @@
         <v>241</v>
       </c>
       <c r="F2" s="15">
-        <f>[1]CharacterSheet!B17</f>
-        <v>60</v>
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8497,8 +8397,8 @@
         <v>242</v>
       </c>
       <c r="F3" s="15">
-        <f>[1]CharacterSheet!B18</f>
-        <v>210</v>
+        <f>CharacterSheet!B18</f>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8521,8 +8421,8 @@
         <v>243</v>
       </c>
       <c r="F4" s="15">
-        <f>[1]CharacterSheet!B19</f>
-        <v>120</v>
+        <f>CharacterSheet!B19</f>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8545,8 +8445,8 @@
         <v>244</v>
       </c>
       <c r="F5" s="15">
-        <f>[1]CharacterSheet!B20</f>
-        <v>120</v>
+        <f>CharacterSheet!B20</f>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8569,8 +8469,8 @@
         <v>245</v>
       </c>
       <c r="F6" s="15">
-        <f>[1]CharacterSheet!B21</f>
-        <v>75</v>
+        <f>CharacterSheet!B21</f>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8593,8 +8493,8 @@
         <v>246</v>
       </c>
       <c r="F7" s="15">
-        <f>[1]CharacterSheet!B22</f>
-        <v>75</v>
+        <f>CharacterSheet!B22</f>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C335A2-34FF-4E00-B047-025FBCA29844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674D828-4729-47B4-8ACB-6271B75BA91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="299">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Helm</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Würfel Toxi-Save</t>
   </si>
   <si>
@@ -695,12 +692,6 @@
     <t>Waffe2</t>
   </si>
   <si>
-    <t>Waffe1Typ</t>
-  </si>
-  <si>
-    <t>Waffe2Typ</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
@@ -728,12 +719,6 @@
     <t>Waffe3</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Waffe3Typ</t>
-  </si>
-  <si>
     <t>Feilschenattr</t>
   </si>
   <si>
@@ -758,9 +743,6 @@
     <t>CritMargPos</t>
   </si>
   <si>
-    <t>Parthealth</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -797,15 +779,9 @@
     <t>Kaiserlich 8</t>
   </si>
   <si>
-    <t>Hautwaffe</t>
-  </si>
-  <si>
     <t>Waffe</t>
   </si>
   <si>
-    <t>Drittwaffe</t>
-  </si>
-  <si>
     <t>Holster</t>
   </si>
   <si>
@@ -813,13 +789,160 @@
   </si>
   <si>
     <t>Instinkt</t>
+  </si>
+  <si>
+    <t>Fernwaffe (oder Drittwaffe)</t>
+  </si>
+  <si>
+    <t>ZustandWaffe1</t>
+  </si>
+  <si>
+    <t>ZustandWaffe2</t>
+  </si>
+  <si>
+    <t>ZustandWaffe3</t>
+  </si>
+  <si>
+    <t>ZustandSchild</t>
+  </si>
+  <si>
+    <t>TierWaffe1</t>
+  </si>
+  <si>
+    <t>TierWaffe2</t>
+  </si>
+  <si>
+    <t>TierWaffe3</t>
+  </si>
+  <si>
+    <t>TierSchild</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Leichter Schild</t>
+  </si>
+  <si>
+    <t>Ausrüstung</t>
+  </si>
+  <si>
+    <t>Werte</t>
+  </si>
+  <si>
+    <t>ZustandHelm</t>
+  </si>
+  <si>
+    <t>ZustandBrust</t>
+  </si>
+  <si>
+    <t>ZustandArme</t>
+  </si>
+  <si>
+    <t>ZustandGürtel</t>
+  </si>
+  <si>
+    <t>ZustandBeine</t>
+  </si>
+  <si>
+    <t>TierHelm</t>
+  </si>
+  <si>
+    <t>ArtHelm</t>
+  </si>
+  <si>
+    <t>TierBrust</t>
+  </si>
+  <si>
+    <t>ArtBrust</t>
+  </si>
+  <si>
+    <t>ArtArme</t>
+  </si>
+  <si>
+    <t>TierArme</t>
+  </si>
+  <si>
+    <t>TierGürtel</t>
+  </si>
+  <si>
+    <t>ArtGürtel</t>
+  </si>
+  <si>
+    <t>ArtBeine</t>
+  </si>
+  <si>
+    <t>TierBeine</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reittier</t>
+  </si>
+  <si>
+    <t>Pferd</t>
+  </si>
+  <si>
+    <t>SchadenWaffe1</t>
+  </si>
+  <si>
+    <t>SchadenWaffe2</t>
+  </si>
+  <si>
+    <t>SchadenWaffe3</t>
+  </si>
+  <si>
+    <t>Schildwert</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>maxgewicht</t>
+  </si>
+  <si>
+    <t>MaxAusdauer</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>Vergiftung</t>
+  </si>
+  <si>
+    <t>Max Health Head</t>
+  </si>
+  <si>
+    <t>Max Health Torso</t>
+  </si>
+  <si>
+    <t>Max Health ArmR</t>
+  </si>
+  <si>
+    <t>Max Health ArmL</t>
+  </si>
+  <si>
+    <t>Max Health LegR</t>
+  </si>
+  <si>
+    <t>Max Health LegL</t>
+  </si>
+  <si>
+    <t>Hauptwaffe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +996,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1496,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1636,6 +1766,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1660,12 +1801,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="225">
     <dxf>
       <fill>
         <patternFill>
@@ -3296,11 +3446,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3662,57 +3807,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" customWidth="1"/>
+    <col min="3" max="3" width="7.68359375" customWidth="1"/>
     <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
     <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
     <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="1.68359375" customWidth="1"/>
-    <col min="8" max="8" width="4.15625" customWidth="1"/>
-    <col min="9" max="9" width="2.41796875" customWidth="1"/>
-    <col min="10" max="10" width="4.83984375" customWidth="1"/>
+    <col min="7" max="7" width="3.7890625" customWidth="1"/>
+    <col min="8" max="8" width="1.3671875" customWidth="1"/>
+    <col min="9" max="9" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="4.68359375" customWidth="1"/>
-    <col min="13" max="13" width="1.83984375" customWidth="1"/>
-    <col min="14" max="14" width="3.68359375" customWidth="1"/>
-    <col min="15" max="15" width="4.15625" customWidth="1"/>
-    <col min="16" max="16" width="17.83984375" customWidth="1"/>
-    <col min="17" max="17" width="4.578125" customWidth="1"/>
-    <col min="18" max="18" width="8.26171875" style="55" customWidth="1"/>
-    <col min="19" max="19" width="15.68359375" customWidth="1"/>
-    <col min="20" max="20" width="4.83984375" customWidth="1"/>
-    <col min="21" max="21" width="6.15625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="5.578125" customWidth="1"/>
-    <col min="23" max="23" width="4.83984375" customWidth="1"/>
-    <col min="24" max="24" width="7.15625" customWidth="1"/>
-    <col min="26" max="26" width="6.83984375" customWidth="1"/>
+    <col min="12" max="12" width="2.9453125" customWidth="1"/>
+    <col min="13" max="13" width="4.47265625" customWidth="1"/>
+    <col min="14" max="14" width="1.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.3671875" customWidth="1"/>
+    <col min="16" max="16" width="3.89453125" customWidth="1"/>
+    <col min="17" max="17" width="18.1015625" customWidth="1"/>
+    <col min="18" max="18" width="3.7890625" style="55" customWidth="1"/>
+    <col min="19" max="19" width="5.15625" customWidth="1"/>
+    <col min="20" max="20" width="15.26171875" customWidth="1"/>
+    <col min="21" max="21" width="6.3125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.7890625" customWidth="1"/>
+    <col min="23" max="23" width="3.7890625" customWidth="1"/>
+    <col min="24" max="24" width="3.47265625" customWidth="1"/>
+    <col min="25" max="25" width="7.578125" customWidth="1"/>
+    <col min="26" max="26" width="11.578125" customWidth="1"/>
     <col min="27" max="27" width="9.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="120" t="s">
+        <v>259</v>
+      </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -3720,49 +3868,52 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AA1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -3770,30 +3921,31 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="91">
+      <c r="R2" s="91">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="127" t="s">
+      <c r="S2" s="109"/>
+      <c r="T2" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15" t="s">
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -3803,11 +3955,13 @@
       <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -3815,129 +3969,134 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="R3" s="79">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="U3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="V3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="64">
+      <c r="W3" s="64">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15" t="s">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="92">
+      <c r="R4" s="92">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="94"/>
+      <c r="T4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="U4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="V4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="66">
+      <c r="W4" s="66">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="62"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="15"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q5" s="103">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="103">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="94"/>
+      <c r="T5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="66">
+      <c r="V5" s="52"/>
+      <c r="W5" s="66">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="15"/>
+      <c r="X5" s="62"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7"/>
       <c r="B6" s="37"/>
       <c r="C6" s="7"/>
@@ -3945,41 +4104,42 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="R6" s="84">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="94"/>
-      <c r="S6" s="65" t="s">
+      <c r="S6" s="94"/>
+      <c r="T6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="66">
+      <c r="W6" s="66">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="15"/>
+      <c r="X6" s="62"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="45" t="s">
         <v>39</v>
       </c>
@@ -3992,49 +4152,52 @@
       <c r="D7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="45" t="s">
+        <v>259</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="107">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="R7" s="107">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="V7" s="66">
+      <c r="S7" s="94"/>
+      <c r="T7" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="W7" s="66">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="15"/>
+      <c r="X7" s="62"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="C8" s="13">
         <v>10.5</v>
@@ -4042,51 +4205,54 @@
       <c r="D8" s="15">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="108">
+      <c r="R8" s="108">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="94"/>
+      <c r="T8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="U8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="66">
+      <c r="W8" s="66">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="62"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="12" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="13">
         <v>6</v>
@@ -4094,52 +4260,56 @@
       <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="113" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="114">
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" s="114">
         <v>5</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="65" t="s">
+      <c r="S9" s="94"/>
+      <c r="T9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="66">
+      <c r="W9" s="66">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="11">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="11">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
@@ -4147,56 +4317,60 @@
       <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="96">
+      <c r="L10" s="7"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="96">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="94">
-        <f>$P$17*(-1)</f>
+      <c r="S10" s="94">
+        <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="68">
+      <c r="V10" s="61"/>
+      <c r="W10" s="68">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="62"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="11">
+      <c r="X10" s="62"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="11">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="C11" s="13">
         <v>10.5</v>
@@ -4204,46 +4378,50 @@
       <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="7"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="97">
+      <c r="L11" s="7"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="97">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="94"/>
-      <c r="S11" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z11" s="11">
-        <f>Q2*4</f>
+      <c r="S11" s="94"/>
+      <c r="T11" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="11">
+        <f>R2*4</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="C12" s="47">
         <v>10.5</v>
@@ -4251,167 +4429,177 @@
       <c r="D12" s="22">
         <v>7</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="7"/>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q12" s="116">
-        <f>ROUNDUP((Q7+Q5)/2,0)</f>
+      <c r="L12" s="7"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="R12" s="116">
+        <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" s="59" t="s">
+      <c r="S12" s="94"/>
+      <c r="T12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="V12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="64">
+      <c r="W12" s="64">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="65"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="11">
-        <f>Z11-Z10</f>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="11">
+        <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="48">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="15"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="S13" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="T13" s="49" t="s">
+      <c r="R13" s="15"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="66">
+      <c r="V13" s="49"/>
+      <c r="W13" s="66">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="62"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z13" s="11" t="str">
-        <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA13" s="11" t="str">
+        <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="38"/>
       <c r="B14" s="37"/>
       <c r="C14" s="15"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="130" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="S14" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="T14" s="49" t="s">
+      <c r="U14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="66">
+      <c r="V14" s="49"/>
+      <c r="W14" s="66">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="15"/>
+      <c r="X14" s="62"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="7"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="15"/>
-      <c r="S15" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="61" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="V15" s="68">
+      <c r="V15" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="W15" s="68">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="65"/>
-      <c r="X15" s="15"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="43">
         <f>CharacterSheet!B15</f>
@@ -4425,35 +4613,36 @@
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L16" s="7"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="57">
         <f>CharacterSheet!B16</f>
@@ -4467,51 +4656,53 @@
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="36">
+      <c r="L17" s="7"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="36">
         <v>0</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="S17" s="63" t="s">
+      <c r="R17" s="15"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="T17" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="U17" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="V17" s="64">
+      <c r="V17" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="W17" s="64">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="65"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="6" t="s">
+      <c r="X17" s="65"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AC17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="41">
         <f>CharacterSheet!B17</f>
@@ -4531,49 +4722,51 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="15"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="S18" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="T18" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="66">
+      <c r="R18" s="15"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="53"/>
+      <c r="W18" s="66">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="62"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15" t="s">
+      <c r="X18" s="62"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="15">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="39">
         <f>CharacterSheet!B18</f>
@@ -4593,45 +4786,47 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="7"/>
-      <c r="S19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="66">
+      <c r="R19" s="7"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="53"/>
+      <c r="W19" s="66">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="62"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15" t="s">
+      <c r="X19" s="62"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" s="15">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B20" s="39">
         <f>CharacterSheet!B19</f>
@@ -4651,41 +4846,43 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="7"/>
-      <c r="S20" s="65" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="66">
+      <c r="W20" s="66">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="62"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z20" s="15"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC20" s="15"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B21" s="39">
         <f>CharacterSheet!B20</f>
@@ -4705,41 +4902,43 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="18"/>
-      <c r="S21" s="65" t="s">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="V21" s="66">
+      <c r="V21" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="W21" s="66">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="62"/>
-      <c r="X21" s="15"/>
+      <c r="X21" s="62"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC21" s="15"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B22" s="39">
         <f>CharacterSheet!B21</f>
@@ -4759,43 +4958,45 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="U22" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="V22" s="68">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="68">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="15"/>
+      <c r="X22" s="65"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC22" s="15"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B23" s="39">
         <f>CharacterSheet!B22</f>
@@ -4815,33 +5016,34 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="129"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="23"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC23" s="15"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4851,80 +5053,86 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="S24" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="71" t="s">
+      <c r="R24" s="15"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="105"/>
-      <c r="V24" s="64">
+      <c r="V24" s="105"/>
+      <c r="W24" s="64">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="65"/>
-      <c r="X24" s="15"/>
+      <c r="X24" s="65"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
-    </row>
-    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC24" s="15"/>
+    </row>
+    <row r="25" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="124" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="126" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="126" t="s">
+        <v>286</v>
+      </c>
       <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="S25" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="T25" s="70" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="104"/>
-      <c r="V25" s="68">
+      <c r="V25" s="104"/>
+      <c r="W25" s="68">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="65"/>
-      <c r="X25" s="15"/>
+      <c r="X25" s="65"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC25" s="15"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
@@ -4932,36 +5140,39 @@
         <v>13</v>
       </c>
       <c r="C26" s="123">
-        <v>7</v>
-      </c>
-      <c r="D26" s="121"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="123">
+        <v>1</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC26" s="15"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="122" t="s">
         <v>18</v>
       </c>
@@ -4969,9 +5180,11 @@
         <v>19</v>
       </c>
       <c r="C27" s="122">
-        <v>7</v>
-      </c>
-      <c r="D27" s="121"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="122">
+        <v>1</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -4984,25 +5197,27 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="S27" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="T27" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="U27" s="73"/>
-      <c r="V27" s="64">
+      <c r="R27" s="15"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" s="73"/>
+      <c r="W27" s="64">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="65"/>
-      <c r="X27" s="15"/>
+      <c r="X27" s="65"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC27" s="15"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
@@ -5012,110 +5227,127 @@
       <c r="C28" s="122">
         <v>7</v>
       </c>
-      <c r="D28" s="121"/>
+      <c r="D28" s="122">
+        <v>1</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="I28" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="142"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="S28" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="66">
+      <c r="R28" s="15"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="66">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="62"/>
-      <c r="X28" s="15"/>
+      <c r="X28" s="62"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
-    </row>
-    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC28" s="15"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="122" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
-      <c r="D29" s="121"/>
+      <c r="D29" s="122"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="131"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="S29" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="T29" s="60" t="s">
-        <v>89</v>
+      <c r="R29" s="15"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="67" t="s">
+        <v>102</v>
       </c>
       <c r="U29" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="V29" s="68">
+        <v>88</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="W29" s="68">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="65"/>
-      <c r="X29" s="15"/>
+      <c r="X29" s="65"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
-    </row>
-    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC29" s="15"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="122" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="121"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="122">
+        <v>7</v>
+      </c>
+      <c r="D30" s="122">
+        <v>1</v>
+      </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="7"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC30" s="15"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="121"/>
       <c r="B31" s="121"/>
       <c r="C31" s="121"/>
@@ -5132,25 +5364,27 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="S31" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="T31" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="U31" s="74"/>
-      <c r="V31" s="64">
+      <c r="R31" s="15"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="U31" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="V31" s="74"/>
+      <c r="W31" s="64">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="62"/>
-      <c r="X31" s="15"/>
+      <c r="X31" s="62"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC31" s="15"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="121"/>
       <c r="B32" s="121"/>
       <c r="C32" s="121"/>
@@ -5167,419 +5401,420 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="T32" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="U32" s="51"/>
-      <c r="V32" s="66">
+      <c r="R32" s="15"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="V32" s="51"/>
+      <c r="W32" s="66">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="62"/>
-      <c r="X32" s="15"/>
+      <c r="X32" s="62"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
-    </row>
-    <row r="33" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC32" s="15"/>
+    </row>
+    <row r="33" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="121"/>
       <c r="B33" s="121"/>
       <c r="C33" s="121"/>
       <c r="D33" s="121"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="S33" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="T33" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="68">
+      <c r="R33" s="15"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="V33" s="75"/>
+      <c r="W33" s="68">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="62"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X33" s="62"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="121"/>
       <c r="B34" s="121"/>
       <c r="C34" s="121"/>
       <c r="D34" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S23:V23"/>
+  <mergeCells count="9">
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="I28:M28"/>
   </mergeCells>
-  <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
+    <cfRule type="containsText" dxfId="224" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="223" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="222" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="221" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="220" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="219" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
+  <conditionalFormatting sqref="R34:R1048576 S1:S33 W34:W1048576 X1:X33">
+    <cfRule type="cellIs" dxfId="218" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="U6:V6">
+    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
+  <conditionalFormatting sqref="U8:V8">
+    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
+  <conditionalFormatting sqref="U9:V9">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
+  <conditionalFormatting sqref="U10:V10">
+    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
+  <conditionalFormatting sqref="U12:V12">
+    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
+  <conditionalFormatting sqref="U13:V13">
+    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
+  <conditionalFormatting sqref="U14:V14">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
+  <conditionalFormatting sqref="U17:V17">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
+  <conditionalFormatting sqref="U15:V15">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
+  <conditionalFormatting sqref="U18:V18">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
+  <conditionalFormatting sqref="U19:V19">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
+  <conditionalFormatting sqref="U20:V21">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
+  <conditionalFormatting sqref="U22:V22">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
+  <conditionalFormatting sqref="U24:V25">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
+  <conditionalFormatting sqref="U29:V29">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
+  <conditionalFormatting sqref="U3:V3">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
+  <conditionalFormatting sqref="AA13">
     <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",AA13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
-      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Leicht",AA13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
-      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Schwer",AA13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -5592,12 +5827,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
+  <conditionalFormatting sqref="E18:F25">
     <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
+  <conditionalFormatting sqref="E18:F25">
     <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
@@ -5605,7 +5840,7 @@
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1048576">
+  <conditionalFormatting sqref="T34:U1048576 U1:V33">
     <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
@@ -5620,7 +5855,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5633,14 +5868,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="15">
         <v>30000</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="15">
         <f>13490-E2+E3</f>
@@ -5653,14 +5888,14 @@
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="15">
         <f>200</f>
@@ -5669,14 +5904,14 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="15">
         <f>15000</f>
@@ -5686,10 +5921,10 @@
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
@@ -5701,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5709,7 +5944,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="15">
         <v>5000</v>
@@ -5726,7 +5961,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="15">
         <v>2250</v>
@@ -5737,7 +5972,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -5745,7 +5980,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="15">
         <v>3000</v>
@@ -5781,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5801,13 +6036,13 @@
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>44</v>
@@ -5816,14 +6051,14 @@
         <v>3</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="15">
         <v>2000</v>
@@ -5837,14 +6072,14 @@
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
       <c r="G15" s="100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="15">
         <v>2000</v>
@@ -5866,7 +6101,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="15">
         <v>3000</v>
@@ -5885,7 +6120,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="15">
         <v>3000</v>
@@ -5899,14 +6134,14 @@
       <c r="E18" s="15"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="15">
         <v>3000</v>
@@ -5945,7 +6180,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -6002,13 +6237,13 @@
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>44</v>
@@ -6017,7 +6252,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6033,14 +6268,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="15">
         <f>0.5*E28</f>
@@ -6056,14 +6291,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="15">
         <f>0.5*E29</f>
@@ -6090,13 +6325,13 @@
     </row>
     <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>136</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>44</v>
@@ -6105,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -6113,7 +6348,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="15">
         <v>100</v>
@@ -6125,7 +6360,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="15">
         <v>500</v>
@@ -6156,42 +6391,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15">
         <v>300</v>
@@ -6200,25 +6435,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="15">
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="15">
         <v>4</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="15">
         <v>6</v>
@@ -6226,7 +6461,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="15">
         <v>200</v>
@@ -6235,13 +6470,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="15">
         <v>3</v>
@@ -6261,7 +6496,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="15">
         <v>50</v>
@@ -6270,19 +6505,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="15">
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="15">
         <v>3</v>
@@ -6296,7 +6531,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="15">
         <v>50</v>
@@ -6305,19 +6540,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -6331,7 +6566,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="15">
         <v>50</v>
@@ -6340,25 +6575,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="15">
         <v>4</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="15">
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="15">
         <v>3</v>
@@ -6366,7 +6601,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="15">
         <v>50</v>
@@ -6375,19 +6610,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="15">
         <v>3</v>
@@ -6435,7 +6670,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6455,16 +6690,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>6</v>
@@ -6474,7 +6709,7 @@
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>8</v>
@@ -6484,10 +6719,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15">
@@ -6526,19 +6761,19 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="P2" s="9"/>
     </row>
@@ -6575,7 +6810,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="15">
         <v>3</v>
@@ -6584,7 +6819,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="8"/>
     </row>
@@ -6615,7 +6850,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="15">
         <v>4</v>
@@ -6624,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7"/>
     </row>
@@ -6657,7 +6892,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -6676,13 +6911,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="89">
@@ -6698,7 +6933,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="65" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B7" s="86">
         <v>12</v>
@@ -6768,7 +7003,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="95">
         <v>5</v>
@@ -6776,7 +7011,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>38</v>
@@ -6798,7 +7033,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="102">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
@@ -6807,7 +7042,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>22</v>
@@ -6831,7 +7066,7 @@
     </row>
     <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="101">
         <f>B5-Inventar!H22</f>
@@ -6840,7 +7075,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>38</v>
@@ -6866,7 +7101,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>38</v>
@@ -6890,13 +7125,13 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="90">
@@ -6916,13 +7151,13 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>68</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="88">
@@ -6938,7 +7173,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -6948,10 +7183,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="7">
@@ -6970,7 +7205,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
@@ -6978,10 +7213,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="7"/>
@@ -6998,7 +7233,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="40">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -7007,13 +7242,13 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="66" t="s">
         <v>169</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>170</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="89">
@@ -7022,7 +7257,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
@@ -7031,13 +7266,13 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="G18" s="66" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -7048,7 +7283,7 @@
     </row>
     <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B19" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -7058,16 +7293,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="90">
@@ -7076,7 +7311,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B20" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -7087,10 +7322,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="71" t="s">
         <v>23</v>
@@ -7103,7 +7338,7 @@
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B21" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -7112,7 +7347,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="70" t="s">
         <v>23</v>
@@ -7127,21 +7362,21 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B22" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="7"/>
@@ -7155,10 +7390,10 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="84"/>
       <c r="H23" s="7"/>
@@ -7172,13 +7407,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="90">
@@ -7191,10 +7426,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G25" s="85"/>
       <c r="H25" s="7"/>
@@ -7208,10 +7443,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="65" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G26" s="86"/>
       <c r="H26" s="7"/>
@@ -7225,10 +7460,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="22">
@@ -7672,12 +7907,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -7693,40 +7928,40 @@
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="J2" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="112" t="s">
+      <c r="M2" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="N2" s="99" t="s">
         <v>179</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>180</v>
       </c>
       <c r="O2" s="27"/>
     </row>
@@ -7749,14 +7984,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -7764,10 +7999,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -7782,20 +8017,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -7803,10 +8038,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -7821,20 +8056,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -7852,14 +8087,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -7877,14 +8112,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -7902,7 +8137,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -7940,10 +8175,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -7978,7 +8213,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -7986,7 +8221,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -8001,7 +8236,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -8009,7 +8244,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -8026,7 +8261,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -8047,7 +8282,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -8055,10 +8290,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -8072,7 +8307,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -8088,7 +8323,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -8116,10 +8351,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8144,7 +8379,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -8160,7 +8395,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -8176,7 +8411,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -8192,7 +8427,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -8208,7 +8443,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -8224,7 +8459,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -8312,7 +8547,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8322,38 +8557,50 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" customWidth="1"/>
+    <col min="4" max="4" width="5.9453125" customWidth="1"/>
+    <col min="5" max="5" width="15.83984375" customWidth="1"/>
+    <col min="6" max="6" width="8.41796875" customWidth="1"/>
+    <col min="7" max="7" width="13.47265625" customWidth="1"/>
+    <col min="8" max="8" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8369,15 +8616,22 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="117" t="s">
-        <v>241</v>
+      <c r="E2" s="127" t="s">
+        <v>290</v>
       </c>
       <c r="F2" s="15">
-        <f>CharacterSheet!B17</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2">
+        <f>Status!C26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8393,17 +8647,24 @@
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="117" t="s">
-        <v>242</v>
+      <c r="E3" s="127" t="s">
+        <v>289</v>
       </c>
       <c r="F3" s="15">
-        <f>CharacterSheet!B18</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="15">
+        <f>Status!C27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
@@ -8418,14 +8679,21 @@
         <v>20</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="F4" s="15">
-        <f>CharacterSheet!B19</f>
+        <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="15">
+        <f>Status!C28</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -8442,16 +8710,23 @@
         <v>30</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="F5" s="15">
-        <f>CharacterSheet!B20</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B18</f>
+        <v>193</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5">
+        <f>Status!C30</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
@@ -8466,16 +8741,23 @@
         <v>20</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F6" s="15">
-        <f>CharacterSheet!B21</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B19</f>
+        <v>55</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <f>Status!D2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -8490,14 +8772,21 @@
         <v>20</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="F7" s="15">
-        <f>CharacterSheet!B22</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B20</f>
+        <v>55</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="15">
+        <f>Status!D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -8514,10 +8803,22 @@
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="15">
+        <f>CharacterSheet!B21</f>
+        <v>69</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="15">
+        <f>Status!D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -8534,10 +8835,24 @@
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="15">
+        <f>CharacterSheet!B22</f>
+        <v>69</v>
+      </c>
+      <c r="G9" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="15">
+        <f>Status!D5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -8551,10 +8866,26 @@
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f>CharacterSheet!B1</f>
+        <v>Mensch</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10">
+        <f>Status!D8</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="127"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -8568,14 +8899,29 @@
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="15">
+        <f>Status!D9</f>
+        <v>7</v>
+      </c>
+      <c r="J11" s="127"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="15">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <f>Inventar!G22</f>
+        <v>15.5</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>CharacterSheet!E12</f>
@@ -8585,14 +8931,27 @@
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="15">
+        <f>Status!D10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="15">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <f>Inventar!G19</f>
+        <v>19.5</v>
       </c>
       <c r="C13" s="15" t="str">
         <f>CharacterSheet!E13</f>
@@ -8602,14 +8961,28 @@
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="E13" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="13">
-        <f>Status!C13</f>
-        <v>43.5</v>
+      <c r="F13" t="str">
+        <f>Status!B2</f>
+        <v>Schwert</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="15">
+        <f>Status!D11</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="15">
+        <f>Status!AA11</f>
+        <v>48</v>
       </c>
       <c r="C14" s="15" t="str">
         <f>CharacterSheet!E14</f>
@@ -8619,15 +8992,28 @@
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="str">
-        <f>Status!A8</f>
-        <v>Helm</v>
-      </c>
-      <c r="B15" s="13">
-        <f>Status!C8</f>
-        <v>10.5</v>
+      <c r="E14" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f>Status!B3</f>
+        <v>Dolch</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="15">
+        <f>Status!D12</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Status!AA13</f>
+        <v>Leicht</v>
       </c>
       <c r="C15" s="15" t="str">
         <f>CharacterSheet!E15</f>
@@ -8637,15 +9023,28 @@
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15" t="str">
-        <f>Status!A9</f>
-        <v>Brust</v>
-      </c>
-      <c r="B16" s="13">
-        <f>Status!C9</f>
-        <v>6</v>
+      <c r="E15" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="15">
+        <f>Status!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15">
+        <f>Status!E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16">
+        <f>Status!R12</f>
+        <v>13</v>
       </c>
       <c r="C16" s="15" t="str">
         <f>CharacterSheet!E16</f>
@@ -8655,15 +9054,28 @@
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="str">
-        <f>Status!A10</f>
-        <v>Arme</v>
-      </c>
-      <c r="B17" s="13">
-        <f>Status!C10</f>
-        <v>6</v>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f>Status!B5</f>
+        <v>Leichter Schild</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="15">
+        <f>Status!E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>11</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>CharacterSheet!E17</f>
@@ -8673,15 +9085,28 @@
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15" t="str">
-        <f>Status!A11</f>
-        <v>Gürtel</v>
-      </c>
-      <c r="B18" s="13">
-        <f>Status!C11</f>
-        <v>10.5</v>
+      <c r="E17" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Status!C2</f>
+        <v>42</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="15">
+        <f>Status!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="15">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
       </c>
       <c r="C18" s="15" t="str">
         <f>CharacterSheet!E18</f>
@@ -8691,15 +9116,28 @@
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="15" t="str">
-        <f>Status!A12</f>
-        <v>Beine</v>
-      </c>
-      <c r="B19" s="13">
-        <f>Status!C12</f>
-        <v>10.5</v>
+      <c r="E18" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="15">
+        <f>Status!C3</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="15">
+        <f>Status!E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19">
+        <f>CharacterSheet!B8+CharacterSheet!B9</f>
+        <v>10</v>
       </c>
       <c r="C19" s="15" t="str">
         <f>CharacterSheet!E19</f>
@@ -8709,14 +9147,27 @@
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20">
-        <f>Inventar!G22</f>
-        <v>15.5</v>
+      <c r="E19" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="15">
+        <f>Status!C4</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="15">
+        <f>Status!E12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>287</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -8726,14 +9177,28 @@
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>227</v>
+      <c r="E20" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Status!C5</f>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" t="str">
+        <f>Status!B8</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="117" t="s">
+        <v>90</v>
       </c>
       <c r="B21">
-        <f>Inventar!G19</f>
-        <v>19.5</v>
+        <f>Status!D16</f>
+        <v>275</v>
       </c>
       <c r="C21" s="15" t="str">
         <f>CharacterSheet!E21</f>
@@ -8743,14 +9208,28 @@
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" t="str">
-        <f>Status!Z13</f>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="13">
+        <f>Status!C13</f>
+        <v>43.5</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="15" t="str">
+        <f>Status!B9</f>
         <v>Leicht</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="15">
+        <f>Status!D17</f>
+        <v>12</v>
       </c>
       <c r="C22" s="15" t="str">
         <f>CharacterSheet!E22</f>
@@ -8760,14 +9239,29 @@
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23">
-        <f>Status!C2</f>
-        <v>30</v>
+      <c r="E22" s="15" t="str">
+        <f>Status!A8</f>
+        <v>Helm</v>
+      </c>
+      <c r="F22" s="13">
+        <f>Status!C8</f>
+        <v>10.5</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="15" t="str">
+        <f>Status!B10</f>
+        <v>Leicht</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="15">
+        <f>Status!D18</f>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="str">
         <f>CharacterSheet!E23</f>
@@ -8777,14 +9271,29 @@
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>217</v>
+      <c r="E23" s="15" t="str">
+        <f>Status!A9</f>
+        <v>Brust</v>
+      </c>
+      <c r="F23" s="13">
+        <f>Status!C9</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="15" t="str">
+        <f>Status!B11</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="117" t="s">
+        <v>236</v>
       </c>
       <c r="B24" s="15">
-        <f>Status!C3</f>
-        <v>12</v>
+        <f>Status!D19</f>
+        <v>193</v>
       </c>
       <c r="C24" s="15" t="str">
         <f>CharacterSheet!E24</f>
@@ -8794,14 +9303,29 @@
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>228</v>
+      <c r="E24" s="15" t="str">
+        <f>Status!A10</f>
+        <v>Arme</v>
+      </c>
+      <c r="F24" s="13">
+        <f>Status!C10</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f>Status!B12</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="117" t="s">
+        <v>239</v>
       </c>
       <c r="B25" s="15">
-        <f>Status!C4</f>
-        <v>0</v>
+        <f>Status!D20</f>
+        <v>55</v>
       </c>
       <c r="C25" s="15" t="str">
         <f>CharacterSheet!E25</f>
@@ -8811,30 +9335,46 @@
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
-        <v>229</v>
+      <c r="E25" s="15" t="str">
+        <f>Status!A11</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="F25" s="13">
+        <f>Status!C11</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="117" t="s">
+        <v>240</v>
       </c>
       <c r="B26" s="15">
-        <f>Status!C5</f>
-        <v>15</v>
+        <f>Status!D21</f>
+        <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" t="str">
-        <f>Status!B2</f>
-        <v>Schwert</v>
+      <c r="E26" s="15" t="str">
+        <f>Status!A12</f>
+        <v>Beine</v>
+      </c>
+      <c r="F26" s="13">
+        <f>Status!C12</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="117" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="15">
+        <f>Status!D22</f>
+        <v>69</v>
       </c>
       <c r="C27" s="15" t="str">
         <f>CharacterSheet!E27</f>
@@ -8844,82 +9384,42 @@
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="15" t="str">
-        <f>Status!B3</f>
-        <v>Dolch</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" t="str">
-        <f>CharacterSheet!B1</f>
-        <v>Mensch</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="15">
-        <f>Status!B4</f>
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" t="str">
+        <f>Status!I29</f>
+        <v>Pferd</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="15">
+        <f>Status!D23</f>
+        <v>69</v>
+      </c>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29">
+        <f>Status!Q17</f>
         <v>0</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30">
-        <f>Status!Q12</f>
-        <v>13</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>11</v>
-      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="15">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33">
-        <f>CharacterSheet!B8+CharacterSheet!B9</f>
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674D828-4729-47B4-8ACB-6271B75BA91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D2620-CD77-40A9-AD04-7076EEC63C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
     <sheet name="Inventar" sheetId="4" r:id="rId2"/>
     <sheet name="Pflanzen" sheetId="12" r:id="rId3"/>
-    <sheet name="CharacterSheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Prices+Changelog" sheetId="2" r:id="rId5"/>
-    <sheet name="Backstory" sheetId="11" r:id="rId6"/>
-    <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
+    <sheet name="Plötze" sheetId="14" r:id="rId4"/>
+    <sheet name="CharacterSheet" sheetId="1" r:id="rId5"/>
+    <sheet name="Prices+Changelog" sheetId="2" r:id="rId6"/>
+    <sheet name="Backstory" sheetId="11" r:id="rId7"/>
+    <sheet name="Abfrage" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="336">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -881,9 +882,6 @@
     <t>Reittier</t>
   </si>
   <si>
-    <t>Pferd</t>
-  </si>
-  <si>
     <t>SchadenWaffe1</t>
   </si>
   <si>
@@ -936,13 +934,127 @@
   </si>
   <si>
     <t>Hauptwaffe</t>
+  </si>
+  <si>
+    <t>Resistenzen</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Ausprägung</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Loyalität</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Fähigkeiten</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Smo Blo</t>
+  </si>
+  <si>
+    <t>Belphegor</t>
+  </si>
+  <si>
+    <t>Taming Points</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Tiernatur</t>
+  </si>
+  <si>
+    <t>Plötze</t>
+  </si>
+  <si>
+    <t>Satteltaschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speer </t>
+  </si>
+  <si>
+    <t>Schaden*2 vom Reittier sonst immer ad Disatvantage</t>
+  </si>
+  <si>
+    <t>Rüstungen</t>
+  </si>
+  <si>
+    <t>Health +100</t>
+  </si>
+  <si>
+    <t>Heiltrank S3</t>
+  </si>
+  <si>
+    <t>Health +200</t>
+  </si>
+  <si>
+    <t>Ausdauertrank S2</t>
+  </si>
+  <si>
+    <t>Ausdauer +4</t>
+  </si>
+  <si>
+    <t>Ausdauertrank S3</t>
+  </si>
+  <si>
+    <t>Ausdauer +6</t>
+  </si>
+  <si>
+    <t>Sicht S4</t>
+  </si>
+  <si>
+    <t>Thermosicht</t>
+  </si>
+  <si>
+    <t>Nebelgranatika S4</t>
+  </si>
+  <si>
+    <t>15m keine sicht</t>
+  </si>
+  <si>
+    <t>Segen der Sienna S3</t>
+  </si>
+  <si>
+    <t>Schwarzes Blut</t>
+  </si>
+  <si>
+    <t>AgiBuff S4</t>
+  </si>
+  <si>
+    <t>+2 Agi</t>
+  </si>
+  <si>
+    <t>Licht des Allgotts</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Seile</t>
+  </si>
+  <si>
+    <t>Zelt</t>
+  </si>
+  <si>
+    <t>Sanity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +1112,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1121,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1621,12 +1742,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1768,6 +1913,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1808,6 +1965,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3807,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:M28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3841,10 +4007,10 @@
     <col min="24" max="24" width="3.47265625" customWidth="1"/>
     <col min="25" max="25" width="7.578125" customWidth="1"/>
     <col min="26" max="26" width="11.578125" customWidth="1"/>
-    <col min="27" max="27" width="9.68359375" customWidth="1"/>
+    <col min="27" max="27" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -3862,9 +4028,11 @@
       <c r="G1" s="30"/>
       <c r="H1" s="7"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="J1" s="155" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -3891,15 +4059,18 @@
       </c>
       <c r="Y1" s="15"/>
       <c r="Z1" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AB1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>13</v>
@@ -3915,9 +4086,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="154">
+        <v>100</v>
+      </c>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -3930,22 +4103,23 @@
         <v>12</v>
       </c>
       <c r="S2" s="109"/>
-      <c r="T2" s="132" t="s">
+      <c r="T2" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="134"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="144"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -3993,14 +4167,15 @@
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>250</v>
       </c>
@@ -4042,12 +4217,13 @@
       </c>
       <c r="X4" s="62"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15" t="s">
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -4093,10 +4269,10 @@
       </c>
       <c r="X5" s="62"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7"/>
       <c r="B6" s="37"/>
       <c r="C6" s="7"/>
@@ -4136,10 +4312,10 @@
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="45" t="s">
         <v>39</v>
       </c>
@@ -4191,13 +4367,14 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="13">
         <v>10.5</v>
@@ -4247,7 +4424,7 @@
       </c>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -4304,7 +4481,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="15" t="s">
         <v>54</v>
       </c>
@@ -4365,12 +4542,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="13">
         <v>10.5</v>
@@ -4400,12 +4577,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="94"/>
-      <c r="T11" s="132" t="s">
+      <c r="T11" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="139"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="149"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="11" t="s">
@@ -4416,12 +4593,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="47">
         <v>10.5</v>
@@ -4474,7 +4651,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
@@ -4520,7 +4697,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="38"/>
       <c r="B14" s="37"/>
       <c r="C14" s="15"/>
@@ -4535,7 +4712,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="26"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="135" t="s">
+      <c r="Q14" s="145" t="s">
         <v>61</v>
       </c>
       <c r="R14" s="15"/>
@@ -4556,7 +4733,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
@@ -4576,7 +4753,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="26"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="136"/>
+      <c r="Q15" s="146"/>
       <c r="R15" s="15"/>
       <c r="S15" s="55"/>
       <c r="T15" s="67" t="s">
@@ -4597,7 +4774,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="42" t="s">
         <v>90</v>
       </c>
@@ -4624,15 +4801,15 @@
       <c r="N16" s="15"/>
       <c r="O16" s="26"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="137"/>
+      <c r="Q16" s="147"/>
       <c r="R16" s="15"/>
       <c r="S16" s="76"/>
-      <c r="T16" s="132" t="s">
+      <c r="T16" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="134"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="144"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="12" t="s">
@@ -5030,12 +5207,12 @@
       </c>
       <c r="R23" s="23"/>
       <c r="S23" s="76"/>
-      <c r="T23" s="132" t="s">
+      <c r="T23" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="134"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="144"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -5094,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5159,12 +5336,12 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="76"/>
-      <c r="T26" s="132" t="s">
+      <c r="T26" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="134"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="144"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
@@ -5233,13 +5410,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="140" t="s">
+      <c r="I28" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="142"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="152"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -5274,13 +5451,13 @@
       <c r="F29" s="15"/>
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
-      <c r="I29" s="129" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="131"/>
+      <c r="I29" s="139" t="s">
+        <v>311</v>
+      </c>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
@@ -5334,12 +5511,12 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="76"/>
-      <c r="T30" s="132" t="s">
+      <c r="T30" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="U30" s="133"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="134"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="144"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -5450,7 +5627,9 @@
       <c r="D34" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="T26:W26"/>
     <mergeCell ref="T30:W30"/>
@@ -6666,6 +6845,831 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE86972-147E-4E91-B657-780DABB21689}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="150"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="153"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="15">
+        <v>22500</v>
+      </c>
+      <c r="K4" s="15">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="O4" s="137"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="150"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="I6" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="134" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="15">
+        <f>420*M11</f>
+        <v>1680</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
+        <f>0.5*M11</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="15">
+        <v>4</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="15">
+        <f>900*M12</f>
+        <v>3600</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12:L18" si="0">0.5*M12</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>4</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="15">
+        <f>420*M13</f>
+        <v>1680</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>4</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="15">
+        <f>900*M14</f>
+        <v>3600</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>4</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="15">
+        <f>5000*M15</f>
+        <v>10000</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" s="15">
+        <f>5000*M16</f>
+        <v>15000</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" s="15">
+        <f>3000*M17</f>
+        <v>3000</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="15">
+        <f>2000*M18</f>
+        <v>4000</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2</v>
+      </c>
+      <c r="N18" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4200</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="J23" s="15">
+        <v>50</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>3</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="15">
+        <v>100</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" s="15">
+        <v>400</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
+        <v>4</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="15">
+        <v>500</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O35" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
@@ -7887,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB29849-F989-443C-A326-7D0CBD1A3348}">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -8532,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8555,12 +9559,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8599,6 +9603,9 @@
       <c r="H1" s="127" t="s">
         <v>262</v>
       </c>
+      <c r="I1" s="127" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -8617,7 +9624,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="127" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
@@ -8630,6 +9637,10 @@
         <f>Status!C26</f>
         <v>10</v>
       </c>
+      <c r="I2">
+        <f>Status!Z2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
@@ -8648,7 +9659,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
@@ -8661,6 +9672,10 @@
         <f>Status!C27</f>
         <v>5</v>
       </c>
+      <c r="I3" s="15">
+        <f>Status!Z3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
@@ -8679,7 +9694,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
@@ -8692,6 +9707,10 @@
         <f>Status!C28</f>
         <v>7</v>
       </c>
+      <c r="I4" s="15">
+        <f>Status!Z4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
@@ -8710,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
@@ -8723,6 +9742,10 @@
         <f>Status!C30</f>
         <v>7</v>
       </c>
+      <c r="I5" s="15">
+        <f>Status!Z5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
@@ -8741,7 +9764,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
@@ -8754,6 +9777,10 @@
         <f>Status!D2</f>
         <v>2</v>
       </c>
+      <c r="I6" s="15">
+        <f>Status!Z6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
@@ -8772,7 +9799,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
@@ -8784,6 +9811,10 @@
       <c r="H7" s="15">
         <f>Status!D3</f>
         <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <f>Status!Z7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -8804,7 +9835,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
@@ -8817,6 +9848,7 @@
         <f>Status!D4</f>
         <v>0</v>
       </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="str">
@@ -8836,7 +9868,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
@@ -8849,6 +9881,7 @@
         <f>Status!D5</f>
         <v>1</v>
       </c>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
@@ -8880,6 +9913,7 @@
         <f>Status!D8</f>
         <v>7</v>
       </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="127"/>
       <c r="K10" s="15"/>
     </row>
@@ -8912,6 +9946,7 @@
         <f>Status!D9</f>
         <v>7</v>
       </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="127"/>
       <c r="K11" s="15"/>
     </row>
@@ -8978,7 +10013,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -9086,7 +10121,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
@@ -9117,7 +10152,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
@@ -9148,7 +10183,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
@@ -9167,7 +10202,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -9178,7 +10213,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
@@ -9389,7 +10424,7 @@
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
-        <v>Pferd</v>
+        <v>Plötze</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -9404,7 +10439,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="127" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D2620-CD77-40A9-AD04-7076EEC63C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730D927-462E-4DEF-846F-C2B432E3D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="336">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -1925,6 +1925,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,12 +1974,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3975,42 +3975,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.68359375" customWidth="1"/>
-    <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="3.7890625" customWidth="1"/>
-    <col min="8" max="8" width="1.3671875" customWidth="1"/>
-    <col min="9" max="9" width="4.26171875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="2.9453125" customWidth="1"/>
-    <col min="13" max="13" width="4.47265625" customWidth="1"/>
-    <col min="14" max="14" width="1.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.3671875" customWidth="1"/>
-    <col min="16" max="16" width="3.89453125" customWidth="1"/>
-    <col min="17" max="17" width="18.1015625" customWidth="1"/>
-    <col min="18" max="18" width="3.7890625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="5.15625" customWidth="1"/>
-    <col min="20" max="20" width="15.26171875" customWidth="1"/>
-    <col min="21" max="21" width="6.3125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.7890625" customWidth="1"/>
-    <col min="23" max="23" width="3.7890625" customWidth="1"/>
-    <col min="24" max="24" width="3.47265625" customWidth="1"/>
-    <col min="25" max="25" width="7.578125" customWidth="1"/>
-    <col min="26" max="26" width="11.578125" customWidth="1"/>
-    <col min="27" max="27" width="11.5234375" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="55" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -4028,11 +4026,11 @@
       <c r="G1" s="30"/>
       <c r="H1" s="7"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="139" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -4068,7 +4066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>297</v>
       </c>
@@ -4086,11 +4084,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="154">
+      <c r="J2" s="140">
         <v>100</v>
       </c>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -4103,12 +4101,12 @@
         <v>12</v>
       </c>
       <c r="S2" s="109"/>
-      <c r="T2" s="142" t="s">
+      <c r="T2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="144"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="146"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="129"/>
@@ -4119,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>250</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -4272,7 +4270,7 @@
       <c r="Z5" s="130"/>
       <c r="AA5" s="130"/>
     </row>
-    <row r="6" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="37"/>
       <c r="C6" s="7"/>
@@ -4315,7 +4313,7 @@
       <c r="Z6" s="130"/>
       <c r="AA6" s="130"/>
     </row>
-    <row r="7" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>39</v>
       </c>
@@ -4369,7 +4367,7 @@
       <c r="AA7" s="15"/>
       <c r="AD7" s="15"/>
     </row>
-    <row r="8" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
@@ -4424,7 +4422,7 @@
       </c>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>54</v>
       </c>
@@ -4542,7 +4540,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>57</v>
       </c>
@@ -4577,12 +4575,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="94"/>
-      <c r="T11" s="142" t="s">
+      <c r="T11" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="149"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="151"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="11" t="s">
@@ -4593,7 +4591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="37"/>
       <c r="C14" s="15"/>
@@ -4712,7 +4710,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="26"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="145" t="s">
+      <c r="Q14" s="147" t="s">
         <v>61</v>
       </c>
       <c r="R14" s="15"/>
@@ -4733,7 +4731,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
@@ -4753,7 +4751,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="26"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="146"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="15"/>
       <c r="S15" s="55"/>
       <c r="T15" s="67" t="s">
@@ -4774,7 +4772,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>90</v>
       </c>
@@ -4801,15 +4799,15 @@
       <c r="N16" s="15"/>
       <c r="O16" s="26"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="147"/>
+      <c r="Q16" s="149"/>
       <c r="R16" s="15"/>
       <c r="S16" s="76"/>
-      <c r="T16" s="142" t="s">
+      <c r="T16" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="144"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="146"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="12" t="s">
@@ -4817,7 +4815,7 @@
       </c>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>92</v>
       </c>
@@ -4877,7 +4875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>95</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>97</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>241</v>
       </c>
@@ -5057,7 +5055,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>242</v>
       </c>
@@ -5113,7 +5111,7 @@
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
     </row>
-    <row r="22" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>243</v>
       </c>
@@ -5171,7 +5169,7 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>244</v>
       </c>
@@ -5207,12 +5205,12 @@
       </c>
       <c r="R23" s="23"/>
       <c r="S23" s="76"/>
-      <c r="T23" s="142" t="s">
+      <c r="T23" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="144"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="146"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -5220,7 +5218,7 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5260,7 +5258,7 @@
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
     </row>
-    <row r="25" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="124" t="s">
         <v>247</v>
       </c>
@@ -5309,7 +5307,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
@@ -5336,12 +5334,12 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="76"/>
-      <c r="T26" s="142" t="s">
+      <c r="T26" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="144"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="146"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
@@ -5349,7 +5347,7 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="122" t="s">
         <v>18</v>
       </c>
@@ -5394,29 +5392,23 @@
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="122">
-        <v>7</v>
-      </c>
-      <c r="D28" s="122">
-        <v>1</v>
-      </c>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="150" t="s">
+      <c r="I28" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -5441,7 +5433,7 @@
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
     </row>
-    <row r="29" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
         <v>31</v>
       </c>
@@ -5451,13 +5443,13 @@
       <c r="F29" s="15"/>
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
-      <c r="I29" s="139" t="s">
+      <c r="I29" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="143"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
@@ -5484,7 +5476,7 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="122" t="s">
         <v>27</v>
       </c>
@@ -5511,12 +5503,12 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="76"/>
-      <c r="T30" s="142" t="s">
+      <c r="T30" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
-      <c r="W30" s="144"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="146"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -5524,7 +5516,7 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="121"/>
       <c r="B31" s="121"/>
       <c r="C31" s="121"/>
@@ -5561,7 +5553,7 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
       <c r="B32" s="121"/>
       <c r="C32" s="121"/>
@@ -5598,7 +5590,7 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
     </row>
-    <row r="33" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="121"/>
       <c r="B33" s="121"/>
       <c r="C33" s="121"/>
@@ -5620,7 +5612,7 @@
       </c>
       <c r="X33" s="62"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="121"/>
       <c r="B34" s="121"/>
       <c r="C34" s="121"/>
@@ -6037,15 +6029,15 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="5" max="5" width="6.578125" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>106</v>
       </c>
@@ -6065,7 +6057,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>108</v>
       </c>
@@ -6081,7 +6073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
@@ -6097,8 +6089,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>111</v>
       </c>
@@ -6118,10 +6110,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -6138,7 +6130,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -6157,7 +6149,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>117</v>
       </c>
@@ -6176,7 +6168,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
@@ -6201,19 +6193,19 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>119</v>
       </c>
@@ -6235,7 +6227,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>121</v>
       </c>
@@ -6256,7 +6248,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>122</v>
       </c>
@@ -6278,7 +6270,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>123</v>
       </c>
@@ -6297,7 +6289,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>124</v>
       </c>
@@ -6318,7 +6310,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -6340,7 +6332,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6351,7 +6343,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -6364,7 +6356,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6381,7 +6373,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -6392,7 +6384,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6403,7 +6395,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -6414,7 +6406,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>128</v>
       </c>
@@ -6437,7 +6429,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6445,7 +6437,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>130</v>
       </c>
@@ -6468,7 +6460,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>132</v>
       </c>
@@ -6491,7 +6483,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -6502,7 +6494,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>134</v>
       </c>
@@ -6525,7 +6517,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>136</v>
       </c>
@@ -6537,7 +6529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>137</v>
       </c>
@@ -6563,12 +6555,12 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
@@ -6603,7 +6595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>147</v>
       </c>
@@ -6638,7 +6630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>152</v>
       </c>
@@ -6673,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>154</v>
       </c>
@@ -6708,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>156</v>
       </c>
@@ -6743,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>159</v>
       </c>
@@ -6778,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>154</v>
       </c>
@@ -6813,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6826,7 +6818,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6852,9 +6844,9 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>299</v>
       </c>
@@ -6896,7 +6888,7 @@
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>90</v>
       </c>
@@ -6907,7 +6899,7 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="150"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="I2" s="136"/>
@@ -6918,7 +6910,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134" t="s">
         <v>92</v>
       </c>
@@ -6929,7 +6921,7 @@
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="153"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
@@ -6952,7 +6944,7 @@
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="134" t="s">
         <v>235</v>
       </c>
@@ -6988,7 +6980,7 @@
       </c>
       <c r="O4" s="137"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
         <v>236</v>
       </c>
@@ -6999,7 +6991,7 @@
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="150"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7010,14 +7002,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134" t="s">
         <v>239</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="153"/>
+      <c r="E6" s="155"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
@@ -7040,7 +7032,7 @@
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
         <v>240</v>
       </c>
@@ -7060,14 +7052,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>237</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="150"/>
+      <c r="E8" s="152"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7078,14 +7070,14 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="134" t="s">
         <v>238</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="153"/>
+      <c r="E9" s="155"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
@@ -7106,7 +7098,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
         <v>263</v>
       </c>
@@ -7124,7 +7116,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>264</v>
       </c>
@@ -7154,7 +7146,7 @@
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>265</v>
       </c>
@@ -7184,7 +7176,7 @@
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>266</v>
       </c>
@@ -7214,7 +7206,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>267</v>
       </c>
@@ -7244,7 +7236,7 @@
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>268</v>
       </c>
@@ -7274,7 +7266,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>270</v>
       </c>
@@ -7304,7 +7296,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>273</v>
       </c>
@@ -7334,7 +7326,7 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>274</v>
       </c>
@@ -7364,7 +7356,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>277</v>
       </c>
@@ -7386,7 +7378,7 @@
       <c r="N19" s="138"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>269</v>
       </c>
@@ -7404,7 +7396,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>271</v>
       </c>
@@ -7434,7 +7426,7 @@
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>272</v>
       </c>
@@ -7452,7 +7444,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>275</v>
       </c>
@@ -7478,7 +7470,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>276</v>
       </c>
@@ -7504,7 +7496,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7528,7 +7520,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7552,7 +7544,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7568,7 +7560,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7584,7 +7576,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7600,7 +7592,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7616,7 +7608,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -7626,7 +7618,7 @@
       <c r="G31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -7636,7 +7628,7 @@
       <c r="G32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -7646,7 +7638,7 @@
       <c r="G33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -7656,7 +7648,7 @@
       <c r="G34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O35" s="15"/>
     </row>
   </sheetData>
@@ -7673,26 +7665,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.41796875" customWidth="1"/>
-    <col min="3" max="3" width="3.26171875" customWidth="1"/>
-    <col min="4" max="4" width="2.83984375" customWidth="1"/>
-    <col min="5" max="5" width="19.578125" customWidth="1"/>
-    <col min="6" max="6" width="4.68359375" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.68359375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>161</v>
       </c>
@@ -7735,7 +7727,7 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>14</v>
       </c>
@@ -7781,7 +7773,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>20</v>
       </c>
@@ -7827,7 +7819,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>28</v>
       </c>
@@ -7867,7 +7859,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>33</v>
       </c>
@@ -7903,7 +7895,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>35</v>
       </c>
@@ -7935,7 +7927,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>249</v>
       </c>
@@ -7969,7 +7961,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>42</v>
       </c>
@@ -8005,7 +7997,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
         <v>209</v>
       </c>
@@ -8035,7 +8027,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>46</v>
       </c>
@@ -8068,7 +8060,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>51</v>
       </c>
@@ -8099,7 +8091,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -8123,7 +8115,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
@@ -8149,7 +8141,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -8175,7 +8167,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -8207,7 +8199,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>92</v>
       </c>
@@ -8235,7 +8227,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>95</v>
       </c>
@@ -8259,7 +8251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>97</v>
       </c>
@@ -8285,7 +8277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>241</v>
       </c>
@@ -8313,7 +8305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>242</v>
       </c>
@@ -8340,7 +8332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>243</v>
       </c>
@@ -8364,7 +8356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>244</v>
       </c>
@@ -8388,7 +8380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -8405,7 +8397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -8424,7 +8416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -8441,7 +8433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -8458,7 +8450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -8477,7 +8469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -8487,7 +8479,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -8899,17 +8891,17 @@
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="5.15625" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.83984375" customWidth="1"/>
-    <col min="12" max="12" width="8.83984375" customWidth="1"/>
-    <col min="13" max="13" width="8.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>172</v>
       </c>
@@ -8930,7 +8922,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -8969,7 +8961,7 @@
       </c>
       <c r="O2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -8986,7 +8978,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -9025,7 +9017,7 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>185</v>
       </c>
@@ -9064,7 +9056,7 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>190</v>
       </c>
@@ -9089,7 +9081,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -9114,7 +9106,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -9139,7 +9131,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -9160,7 +9152,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -9177,7 +9169,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -9198,7 +9190,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -9215,7 +9207,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>198</v>
       </c>
@@ -9238,7 +9230,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>200</v>
       </c>
@@ -9263,7 +9255,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
@@ -9284,7 +9276,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>203</v>
       </c>
@@ -9309,7 +9301,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -9325,7 +9317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>206</v>
       </c>
@@ -9341,7 +9333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -9353,7 +9345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>92</v>
       </c>
@@ -9369,7 +9361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -9381,7 +9373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>180</v>
       </c>
@@ -9397,7 +9389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>185</v>
       </c>
@@ -9413,7 +9405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -9429,7 +9421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -9445,7 +9437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -9461,7 +9453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>196</v>
       </c>
@@ -9477,7 +9469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9489,7 +9481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9501,7 +9493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9513,7 +9505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9525,7 +9517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -9544,12 +9536,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.41796875" customWidth="1"/>
+    <col min="1" max="1" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>207</v>
       </c>
@@ -9564,21 +9556,21 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A30" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.15625" customWidth="1"/>
-    <col min="2" max="2" width="8.41796875" customWidth="1"/>
-    <col min="4" max="4" width="5.9453125" customWidth="1"/>
-    <col min="5" max="5" width="15.83984375" customWidth="1"/>
-    <col min="6" max="6" width="8.41796875" customWidth="1"/>
-    <col min="7" max="7" width="13.47265625" customWidth="1"/>
-    <col min="8" max="8" width="6.578125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -9607,7 +9599,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9642,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9677,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>67</v>
       </c>
@@ -9705,14 +9697,14 @@
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
         <f>Status!Z4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -9747,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>88</v>
       </c>
@@ -9782,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>231</v>
       </c>
@@ -9817,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -9850,7 +9842,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -9883,7 +9875,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>221</v>
       </c>
@@ -9917,7 +9909,7 @@
       <c r="J10" s="127"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>222</v>
       </c>
@@ -9950,7 +9942,7 @@
       <c r="J11" s="127"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -9980,7 +9972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -10011,7 +10003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>287</v>
       </c>
@@ -10042,7 +10034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -10073,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -10104,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -10135,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -10166,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -10197,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
         <v>71</v>
       </c>
@@ -10227,7 +10219,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
         <v>90</v>
       </c>
@@ -10258,7 +10250,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
         <v>92</v>
       </c>
@@ -10290,7 +10282,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
         <v>235</v>
       </c>
@@ -10322,7 +10314,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
         <v>236</v>
       </c>
@@ -10354,7 +10346,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="117" t="s">
         <v>239</v>
       </c>
@@ -10379,7 +10371,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="117" t="s">
         <v>240</v>
       </c>
@@ -10403,7 +10395,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="117" t="s">
         <v>237</v>
       </c>
@@ -10427,7 +10419,7 @@
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="117" t="s">
         <v>238</v>
       </c>
@@ -10437,7 +10429,7 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="127" t="s">
         <v>290</v>
       </c>
@@ -10447,10 +10439,10 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
     </row>
   </sheetData>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730D927-462E-4DEF-846F-C2B432E3D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688A3F4-C88A-4787-8A53-6115EF15F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="336">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t xml:space="preserve">Main </t>
-  </si>
-  <si>
     <t>Schwert</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>kirche des allgotts</t>
   </si>
   <si>
-    <t>Rücken</t>
-  </si>
-  <si>
     <t>Schild</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Ausdauertrank Stufe 1</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>Ausdauer</t>
   </si>
   <si>
-    <t>Köcher 2</t>
-  </si>
-  <si>
     <t>Fortbewegung</t>
   </si>
   <si>
@@ -792,9 +780,6 @@
     <t>Instinkt</t>
   </si>
   <si>
-    <t>Fernwaffe (oder Drittwaffe)</t>
-  </si>
-  <si>
     <t>ZustandWaffe1</t>
   </si>
   <si>
@@ -1048,6 +1033,21 @@
   </si>
   <si>
     <t>Sanity</t>
+  </si>
+  <si>
+    <t>Drittwaffe</t>
+  </si>
+  <si>
+    <t>Hauptholster</t>
+  </si>
+  <si>
+    <t>Sekundärholster</t>
+  </si>
+  <si>
+    <t>Rückenholster</t>
+  </si>
+  <si>
+    <t>Zusatzslot</t>
   </si>
 </sst>
 </file>
@@ -3975,13 +3975,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="120" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
@@ -4027,7 +4027,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="15"/>
       <c r="J1" s="139" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K1" s="139"/>
       <c r="L1" s="139"/>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="Y1" s="15"/>
       <c r="Z1" s="31" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AA1" s="31" t="s">
         <v>10</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="36">
         <v>42</v>
@@ -4094,7 +4094,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="91">
         <f>CharacterSheet!B2</f>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="S2" s="109"/>
       <c r="T2" s="144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U2" s="145"/>
       <c r="V2" s="145"/>
@@ -4111,18 +4111,18 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="129"/>
       <c r="AA2" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="11">
         <v>12</v>
@@ -4143,7 +4143,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" s="79">
         <f>CharacterSheet!B3</f>
@@ -4151,13 +4151,13 @@
       </c>
       <c r="S3" s="94"/>
       <c r="T3" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="V3" s="59" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="59" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="64">
         <f>CharacterSheet!I2</f>
@@ -4167,15 +4167,15 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="130"/>
       <c r="AA3" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4193,7 +4193,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" s="92">
         <f>CharacterSheet!B4</f>
@@ -4201,13 +4201,13 @@
       </c>
       <c r="S4" s="94"/>
       <c r="T4" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="52" t="s">
         <v>22</v>
-      </c>
-      <c r="V4" s="52" t="s">
-        <v>23</v>
       </c>
       <c r="W4" s="66">
         <f>CharacterSheet!I3</f>
@@ -4218,15 +4218,15 @@
       <c r="Z4" s="130"/>
       <c r="AA4" s="130"/>
       <c r="AB4" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C5" s="11">
         <v>15</v>
@@ -4247,7 +4247,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="65" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R5" s="103">
         <f>CharacterSheet!B5</f>
@@ -4255,10 +4255,10 @@
       </c>
       <c r="S5" s="94"/>
       <c r="T5" s="65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V5" s="52"/>
       <c r="W5" s="66">
@@ -4288,7 +4288,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R6" s="84">
         <f>CharacterSheet!B6</f>
@@ -4296,13 +4296,13 @@
       </c>
       <c r="S6" s="94"/>
       <c r="T6" s="65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="W6" s="66">
         <f>CharacterSheet!I5</f>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4341,7 +4341,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="106" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R7" s="107">
         <f>CharacterSheet!B7</f>
@@ -4349,13 +4349,13 @@
       </c>
       <c r="S7" s="94"/>
       <c r="T7" s="65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W7" s="66">
         <f>CharacterSheet!I6</f>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C8" s="13">
         <v>10.5</v>
@@ -4395,7 +4395,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R8" s="108">
         <f>CharacterSheet!B8</f>
@@ -4403,13 +4403,13 @@
       </c>
       <c r="S8" s="94"/>
       <c r="T8" s="65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U8" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W8" s="66">
         <f>CharacterSheet!I7</f>
@@ -4418,16 +4418,16 @@
       <c r="X8" s="62"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>6</v>
@@ -4450,20 +4450,20 @@
       <c r="O9" s="24"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="113" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R9" s="114">
         <v>5</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W9" s="66">
         <f>CharacterSheet!I8</f>
@@ -4472,7 +4472,7 @@
       <c r="X9" s="62"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA9" s="11">
         <f>Inventar!$G$22</f>
@@ -4481,10 +4481,10 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
@@ -4500,16 +4500,14 @@
       <c r="H10" s="15"/>
       <c r="I10" s="19"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
       <c r="N10" s="15"/>
       <c r="O10" s="26"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R10" s="96">
         <f>CharacterSheet!B10</f>
@@ -4520,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U10" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V10" s="61"/>
       <c r="W10" s="68">
@@ -4533,7 +4531,7 @@
       <c r="X10" s="62"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA10" s="11">
         <f>Inventar!$G$19</f>
@@ -4542,10 +4540,10 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C11" s="13">
         <v>10.5</v>
@@ -4568,7 +4566,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R11" s="97">
         <f>CharacterSheet!B11</f>
@@ -4576,7 +4574,7 @@
       </c>
       <c r="S11" s="94"/>
       <c r="T11" s="144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U11" s="150"/>
       <c r="V11" s="150"/>
@@ -4584,7 +4582,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="11">
         <f>R2*4</f>
@@ -4593,10 +4591,10 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C12" s="47">
         <v>10.5</v>
@@ -4619,7 +4617,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="98" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R12" s="116">
         <f>ROUNDUP((R7+R5)/2,0)</f>
@@ -4627,13 +4625,13 @@
       </c>
       <c r="S12" s="94"/>
       <c r="T12" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U12" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V12" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W12" s="64">
         <f>CharacterSheet!I10</f>
@@ -4642,7 +4640,7 @@
       <c r="X12" s="65"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA12" s="11">
         <f>AA11-AA10</f>
@@ -4651,7 +4649,7 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="48">
@@ -4663,9 +4661,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="19"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="20"/>
       <c r="N13" s="15"/>
@@ -4675,10 +4671,10 @@
       <c r="R13" s="15"/>
       <c r="S13" s="55"/>
       <c r="T13" s="65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V13" s="49"/>
       <c r="W13" s="66">
@@ -4688,7 +4684,7 @@
       <c r="X13" s="62"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="115" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA13" s="11" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
@@ -4711,15 +4707,15 @@
       <c r="O14" s="26"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="147" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="55"/>
       <c r="T14" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V14" s="49"/>
       <c r="W14" s="66">
@@ -4735,10 +4731,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="26"/>
@@ -4755,13 +4751,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="55"/>
       <c r="T15" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V15" s="60" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W15" s="68">
         <f>CharacterSheet!I13</f>
@@ -4774,7 +4770,7 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="43">
         <f>CharacterSheet!B15</f>
@@ -4803,7 +4799,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="76"/>
       <c r="T16" s="144" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U16" s="145"/>
       <c r="V16" s="145"/>
@@ -4811,13 +4807,13 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="57">
         <f>CharacterSheet!B16</f>
@@ -4848,13 +4844,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="55"/>
       <c r="T17" s="63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U17" s="69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V17" s="69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W17" s="64">
         <f>CharacterSheet!I14</f>
@@ -4863,21 +4859,21 @@
       <c r="X17" s="65"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AC17" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC17" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" s="41">
         <f>CharacterSheet!B17</f>
@@ -4898,15 +4894,11 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="M18" s="23"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -4914,10 +4906,10 @@
       <c r="R18" s="15"/>
       <c r="S18" s="55"/>
       <c r="T18" s="65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V18" s="53"/>
       <c r="W18" s="66">
@@ -4927,7 +4919,7 @@
       <c r="X18" s="62"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA18" s="15">
         <v>3</v>
@@ -4936,12 +4928,12 @@
         <v>5</v>
       </c>
       <c r="AC18" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" s="39">
         <f>CharacterSheet!B18</f>
@@ -4974,10 +4966,10 @@
       <c r="R19" s="7"/>
       <c r="S19" s="55"/>
       <c r="T19" s="65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V19" s="53"/>
       <c r="W19" s="66">
@@ -4987,7 +4979,7 @@
       <c r="X19" s="62"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AA19" s="15">
         <v>4</v>
@@ -4996,12 +4988,12 @@
         <v>2</v>
       </c>
       <c r="AC19" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B20" s="39">
         <f>CharacterSheet!B19</f>
@@ -5034,13 +5026,13 @@
       <c r="R20" s="7"/>
       <c r="S20" s="55"/>
       <c r="T20" s="65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W20" s="66">
         <f>CharacterSheet!I17</f>
@@ -5049,7 +5041,7 @@
       <c r="X20" s="62"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
@@ -5057,7 +5049,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B21" s="39">
         <f>CharacterSheet!B20</f>
@@ -5087,18 +5079,18 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R21" s="18"/>
       <c r="S21" s="55"/>
       <c r="T21" s="65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W21" s="66">
         <f>CharacterSheet!I18</f>
@@ -5113,7 +5105,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B22" s="39">
         <f>CharacterSheet!B21</f>
@@ -5134,9 +5126,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="56" t="s">
-        <v>93</v>
-      </c>
+      <c r="I22" s="56"/>
       <c r="J22" s="20"/>
       <c r="K22" s="15"/>
       <c r="L22" s="19"/>
@@ -5145,18 +5135,18 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="55"/>
       <c r="T22" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U22" s="70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V22" s="104" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W22" s="68">
         <f>CharacterSheet!I19</f>
@@ -5171,7 +5161,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B23" s="39">
         <f>CharacterSheet!B22</f>
@@ -5201,12 +5191,12 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R23" s="23"/>
       <c r="S23" s="76"/>
       <c r="T23" s="144" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U23" s="145"/>
       <c r="V23" s="145"/>
@@ -5241,10 +5231,10 @@
       <c r="R24" s="15"/>
       <c r="S24" s="55"/>
       <c r="T24" s="63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U24" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V24" s="105"/>
       <c r="W24" s="64">
@@ -5260,16 +5250,16 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C25" s="125" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="126" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5290,10 +5280,10 @@
       <c r="R25" s="15"/>
       <c r="S25" s="55"/>
       <c r="T25" s="67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U25" s="70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V25" s="104"/>
       <c r="W25" s="68">
@@ -5309,10 +5299,10 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="123" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" s="123" t="s">
-        <v>13</v>
       </c>
       <c r="C26" s="123">
         <v>10</v>
@@ -5335,7 +5325,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="76"/>
       <c r="T26" s="144" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U26" s="145"/>
       <c r="V26" s="145"/>
@@ -5348,11 +5338,11 @@
       <c r="AC26" s="15"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="122" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" s="122" t="s">
-        <v>19</v>
       </c>
       <c r="C27" s="122">
         <v>5</v>
@@ -5375,10 +5365,10 @@
       <c r="R27" s="15"/>
       <c r="S27" s="55"/>
       <c r="T27" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U27" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V27" s="73"/>
       <c r="W27" s="64">
@@ -5393,8 +5383,8 @@
       <c r="AC27" s="15"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
-        <v>26</v>
+      <c r="A28" s="123" t="s">
+        <v>334</v>
       </c>
       <c r="B28" s="122"/>
       <c r="C28" s="122"/>
@@ -5403,7 +5393,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="152" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J28" s="153"/>
       <c r="K28" s="153"/>
@@ -5416,10 +5406,10 @@
       <c r="R28" s="15"/>
       <c r="S28" s="55"/>
       <c r="T28" s="65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U28" s="50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="66">
@@ -5435,7 +5425,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
@@ -5444,7 +5434,7 @@
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
       <c r="I29" s="141" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J29" s="142"/>
       <c r="K29" s="142"/>
@@ -5457,13 +5447,13 @@
       <c r="R29" s="15"/>
       <c r="S29" s="55"/>
       <c r="T29" s="67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U29" s="60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V29" s="60" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="W29" s="68">
         <f>CharacterSheet!I24</f>
@@ -5478,10 +5468,10 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="122" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="B30" s="122" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="122">
         <v>7</v>
@@ -5504,7 +5494,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="76"/>
       <c r="T30" s="144" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U30" s="145"/>
       <c r="V30" s="145"/>
@@ -5536,10 +5526,10 @@
       <c r="R31" s="15"/>
       <c r="S31" s="55"/>
       <c r="T31" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U31" s="74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V31" s="74"/>
       <c r="W31" s="64">
@@ -5573,10 +5563,10 @@
       <c r="R32" s="15"/>
       <c r="S32" s="55"/>
       <c r="T32" s="65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U32" s="51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V32" s="51"/>
       <c r="W32" s="66">
@@ -5600,10 +5590,10 @@
       <c r="R33" s="15"/>
       <c r="S33" s="55"/>
       <c r="T33" s="67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="U33" s="75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V33" s="75"/>
       <c r="W33" s="68">
@@ -5632,6 +5622,7 @@
     <mergeCell ref="T23:W23"/>
     <mergeCell ref="I28:M28"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
     <cfRule type="containsText" dxfId="224" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
@@ -6039,14 +6030,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="15">
         <v>30000</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="15">
         <f>13490-E2+E3</f>
@@ -6059,14 +6050,14 @@
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E2" s="15">
         <f>200</f>
@@ -6075,14 +6066,14 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="15">
         <f>15000</f>
@@ -6092,22 +6083,22 @@
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6115,7 +6106,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="15">
         <v>5000</v>
@@ -6132,7 +6123,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" s="15">
         <v>2250</v>
@@ -6143,7 +6134,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6151,7 +6142,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" s="15">
         <v>3000</v>
@@ -6170,7 +6161,7 @@
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15">
         <f>E10*1000</f>
@@ -6187,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6207,29 +6198,29 @@
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B15" s="15">
         <v>2000</v>
@@ -6243,14 +6234,14 @@
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
       <c r="G15" s="100" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B16" s="15">
         <v>2000</v>
@@ -6272,7 +6263,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B17" s="15">
         <v>3000</v>
@@ -6291,7 +6282,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B18" s="15">
         <v>3000</v>
@@ -6305,14 +6296,14 @@
       <c r="E18" s="15"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19" s="15">
         <v>3000</v>
@@ -6351,7 +6342,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -6408,22 +6399,22 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6439,14 +6430,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D28" s="15">
         <f>0.5*E28</f>
@@ -6462,14 +6453,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" s="15">
         <f>0.5*E29</f>
@@ -6496,22 +6487,22 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -6519,7 +6510,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B33" s="15">
         <v>100</v>
@@ -6531,7 +6522,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B34" s="15">
         <v>500</v>
@@ -6562,42 +6553,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>142</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="15">
         <v>300</v>
@@ -6606,25 +6597,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E2" s="15">
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="15">
         <v>4</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K2" s="15">
         <v>6</v>
@@ -6632,7 +6623,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="15">
         <v>200</v>
@@ -6641,13 +6632,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G3" s="15">
         <v>3</v>
@@ -6667,7 +6658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="15">
         <v>50</v>
@@ -6676,19 +6667,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="15">
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I4" s="15">
         <v>3</v>
@@ -6702,7 +6693,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="15">
         <v>50</v>
@@ -6711,19 +6702,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -6737,7 +6728,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B6" s="15">
         <v>50</v>
@@ -6746,25 +6737,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G6" s="15">
         <v>4</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I6" s="15">
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K6" s="15">
         <v>3</v>
@@ -6772,7 +6763,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B7" s="15">
         <v>50</v>
@@ -6781,19 +6772,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I7" s="15">
         <v>3</v>
@@ -6848,53 +6839,53 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>304</v>
-      </c>
       <c r="G1" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="120" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J1" s="135" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K1" s="135" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" s="135" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="135" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
@@ -6912,11 +6903,11 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
@@ -6925,43 +6916,43 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="134" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J4" s="15">
         <v>22500</v>
@@ -6976,17 +6967,17 @@
         <v>1</v>
       </c>
       <c r="N4" s="137" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
@@ -7004,7 +6995,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
@@ -7013,34 +7004,34 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="31" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7054,7 +7045,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
@@ -7072,7 +7063,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="134" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
@@ -7081,26 +7072,26 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
@@ -7118,7 +7109,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -7127,7 +7118,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J11" s="15">
         <f>420*M11</f>
@@ -7142,13 +7133,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -7157,7 +7148,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J12" s="15">
         <f>900*M12</f>
@@ -7172,13 +7163,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -7187,7 +7178,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J13" s="15">
         <f>420*M13</f>
@@ -7202,13 +7193,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -7217,7 +7208,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J14" s="15">
         <f>900*M14</f>
@@ -7232,13 +7223,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -7247,7 +7238,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J15" s="15">
         <f>5000*M15</f>
@@ -7262,13 +7253,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -7277,7 +7268,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J16" s="15">
         <f>5000*M16</f>
@@ -7292,13 +7283,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -7307,7 +7298,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J17" s="15">
         <f>3000*M17</f>
@@ -7322,13 +7313,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -7337,7 +7328,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J18" s="15">
         <f>2000*M18</f>
@@ -7352,13 +7343,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="138" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -7367,7 +7358,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J19" s="15">
         <v>4200</v>
@@ -7380,7 +7371,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -7398,7 +7389,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -7407,28 +7398,28 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -7446,7 +7437,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -7455,7 +7446,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J23" s="15">
         <v>50</v>
@@ -7472,7 +7463,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="21"/>
@@ -7481,7 +7472,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J24" s="15">
         <v>100</v>
@@ -7505,7 +7496,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J25" s="15">
         <v>400</v>
@@ -7529,7 +7520,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J26" s="15">
         <v>500</v>
@@ -7665,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -7686,16 +7677,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>6</v>
@@ -7705,7 +7696,7 @@
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>8</v>
@@ -7715,10 +7706,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15">
@@ -7729,7 +7720,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="91">
         <v>12</v>
@@ -7741,13 +7732,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="G2" s="64" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="17">
         <v>-9</v>
@@ -7757,25 +7748,25 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="79">
         <v>12</v>
@@ -7787,13 +7778,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="77" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
@@ -7803,10 +7794,10 @@
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M3" s="15">
         <v>3</v>
@@ -7815,13 +7806,13 @@
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="92">
         <v>12</v>
@@ -7833,10 +7824,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="77"/>
       <c r="H4" s="7"/>
@@ -7846,7 +7837,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M4" s="15">
         <v>4</v>
@@ -7855,13 +7846,13 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="93">
         <v>13</v>
@@ -7871,13 +7862,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="66" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
@@ -7888,7 +7879,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -7897,7 +7888,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="84">
         <v>10</v>
@@ -7907,13 +7898,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="89">
@@ -7929,7 +7920,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" s="86">
         <v>12</v>
@@ -7941,13 +7932,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="89">
@@ -7963,7 +7954,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="95">
         <v>5</v>
@@ -7975,13 +7966,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="89">
@@ -7999,7 +7990,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" s="95">
         <v>5</v>
@@ -8007,10 +7998,10 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="78"/>
       <c r="H9" s="7"/>
@@ -8019,7 +8010,7 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -8029,7 +8020,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="102">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
@@ -8038,13 +8029,13 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="88">
@@ -8052,7 +8043,7 @@
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -8062,7 +8053,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="101">
         <f>B5-Inventar!H22</f>
@@ -8071,10 +8062,10 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="79"/>
       <c r="H11" s="7"/>
@@ -8083,7 +8074,7 @@
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -8097,10 +8088,10 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="79"/>
       <c r="H12" s="7"/>
@@ -8121,13 +8112,13 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="90">
@@ -8147,13 +8138,13 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="88">
@@ -8169,7 +8160,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -8179,10 +8170,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="7">
@@ -8201,7 +8192,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
@@ -8209,10 +8200,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="7"/>
@@ -8229,7 +8220,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" s="40">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8238,13 +8229,13 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="89">
@@ -8253,7 +8244,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
@@ -8262,13 +8253,13 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -8279,7 +8270,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B19" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8289,16 +8280,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="90">
@@ -8307,7 +8298,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B20" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8318,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="7"/>
@@ -8334,7 +8325,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B21" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -8343,10 +8334,10 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="37">
@@ -8358,21 +8349,21 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B22" s="39">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="7"/>
@@ -8386,10 +8377,10 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G23" s="84"/>
       <c r="H23" s="7"/>
@@ -8403,13 +8394,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="90">
@@ -8422,10 +8413,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G25" s="85"/>
       <c r="H25" s="7"/>
@@ -8439,10 +8430,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="86"/>
       <c r="H26" s="7"/>
@@ -8456,10 +8447,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="22">
@@ -8903,12 +8894,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -8924,40 +8915,40 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="99" t="s">
         <v>175</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>179</v>
       </c>
       <c r="O2" s="27"/>
     </row>
@@ -8980,14 +8971,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -8995,10 +8986,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -9013,20 +9004,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -9034,10 +9025,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -9052,20 +9043,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -9083,14 +9074,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -9108,14 +9099,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -9133,7 +9124,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -9171,10 +9162,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -9209,7 +9200,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -9217,7 +9208,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -9232,7 +9223,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -9240,7 +9231,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -9257,7 +9248,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -9278,7 +9269,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -9286,10 +9277,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9303,7 +9294,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -9319,7 +9310,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -9347,10 +9338,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -9375,7 +9366,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -9391,7 +9382,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -9407,7 +9398,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -9423,7 +9414,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -9439,7 +9430,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -9455,7 +9446,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -9543,7 +9534,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -9572,36 +9563,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G1" s="127" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H1" s="127" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I1" s="127" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>CharacterSheet!B2</f>
@@ -9616,14 +9607,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="127" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="127" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -9636,7 +9627,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="15">
         <f>CharacterSheet!B3</f>
@@ -9651,14 +9642,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="127" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H3" s="15">
         <f>Status!C27</f>
@@ -9671,7 +9662,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
@@ -9686,14 +9677,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
@@ -9706,7 +9697,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="15">
         <f>CharacterSheet!B5</f>
@@ -9721,14 +9712,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -9741,7 +9732,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
@@ -9756,14 +9747,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -9776,7 +9767,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -9791,14 +9782,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H7" s="15">
         <f>Status!D3</f>
@@ -9827,14 +9818,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="117" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H8" s="15">
         <f>Status!D4</f>
@@ -9860,14 +9851,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="117" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H9" s="15">
         <f>Status!D5</f>
@@ -9877,7 +9868,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -9892,14 +9883,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>CharacterSheet!B1</f>
         <v>Mensch</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -9911,7 +9902,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -9926,13 +9917,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H11" s="15">
         <f>Status!D9</f>
@@ -9944,7 +9935,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -9959,13 +9950,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H12" s="15">
         <f>Status!D10</f>
@@ -9974,7 +9965,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -9989,14 +9980,14 @@
         <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H13" s="15">
         <f>Status!D11</f>
@@ -10005,7 +9996,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -10020,14 +10011,14 @@
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H14" s="15">
         <f>Status!D12</f>
@@ -10036,7 +10027,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10051,14 +10042,14 @@
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F15" s="15">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
@@ -10067,7 +10058,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -10082,14 +10073,14 @@
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="15" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H16" s="15">
         <f>Status!E9</f>
@@ -10098,7 +10089,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -10113,14 +10104,14 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H17" s="15">
         <f>Status!E10</f>
@@ -10129,7 +10120,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B18" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -10144,14 +10135,14 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H18" s="15">
         <f>Status!E11</f>
@@ -10160,7 +10151,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -10175,14 +10166,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H19" s="15">
         <f>Status!E12</f>
@@ -10191,10 +10182,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -10205,14 +10196,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
@@ -10221,7 +10212,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -10236,14 +10227,14 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F21" s="13">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H21" s="15" t="str">
         <f>Status!B9</f>
@@ -10252,7 +10243,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="15">
         <f>Status!D17</f>
@@ -10275,7 +10266,7 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>Status!B10</f>
@@ -10284,7 +10275,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B23" s="15">
         <f>Status!D18</f>
@@ -10307,7 +10298,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>Status!B11</f>
@@ -10316,7 +10307,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B24" s="15">
         <f>Status!D19</f>
@@ -10339,7 +10330,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>Status!B12</f>
@@ -10348,7 +10339,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B25" s="15">
         <f>Status!D20</f>
@@ -10373,14 +10364,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="117" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B26" s="15">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
@@ -10397,7 +10388,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="117" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B27" s="15">
         <f>Status!D22</f>
@@ -10412,7 +10403,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
@@ -10421,7 +10412,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="117" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" s="15">
         <f>Status!D23</f>
@@ -10431,7 +10422,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="127" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,46 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688A3F4-C88A-4787-8A53-6115EF15F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821FA40-DA61-42D6-9941-0D5A85798338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
-    <sheet name="Inventar" sheetId="4" r:id="rId2"/>
-    <sheet name="Pflanzen" sheetId="12" r:id="rId3"/>
-    <sheet name="Plötze" sheetId="14" r:id="rId4"/>
-    <sheet name="CharacterSheet" sheetId="1" r:id="rId5"/>
-    <sheet name="Prices+Changelog" sheetId="2" r:id="rId6"/>
-    <sheet name="Backstory" sheetId="11" r:id="rId7"/>
-    <sheet name="Abfrage" sheetId="13" r:id="rId8"/>
+    <sheet name="DatenExelintern" sheetId="15" state="hidden" r:id="rId2"/>
+    <sheet name="Inventar" sheetId="4" r:id="rId3"/>
+    <sheet name="Pflanzen" sheetId="12" r:id="rId4"/>
+    <sheet name="Plötze" sheetId="14" r:id="rId5"/>
+    <sheet name="CharacterSheet" sheetId="1" r:id="rId6"/>
+    <sheet name="Prices+Changelog" sheetId="2" r:id="rId7"/>
+    <sheet name="Backstory" sheetId="11" r:id="rId8"/>
+    <sheet name="Abfrage" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="316">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -69,15 +62,15 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>Modifier Skill</t>
-  </si>
-  <si>
     <t>Sprachen</t>
   </si>
   <si>
     <t>Wissen</t>
   </si>
   <si>
+    <t xml:space="preserve">Main </t>
+  </si>
+  <si>
     <t>Schwert</t>
   </si>
   <si>
@@ -117,6 +110,9 @@
     <t>kirche des allgotts</t>
   </si>
   <si>
+    <t>Rücken</t>
+  </si>
+  <si>
     <t>Schild</t>
   </si>
   <si>
@@ -135,9 +131,6 @@
     <t>Wurfäxte</t>
   </si>
   <si>
-    <t>Physical(Ausdauer/Körperzustand)</t>
-  </si>
-  <si>
     <t>Unarmed</t>
   </si>
   <si>
@@ -264,6 +257,9 @@
     <t>Ausdauertrank Stufe 1</t>
   </si>
   <si>
+    <t>Main</t>
+  </si>
+  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -312,6 +308,9 @@
     <t>Ausdauer</t>
   </si>
   <si>
+    <t>Köcher 2</t>
+  </si>
+  <si>
     <t>Fortbewegung</t>
   </si>
   <si>
@@ -444,75 +443,6 @@
     <t>Bedroll</t>
   </si>
   <si>
-    <t>Häufigkeit</t>
-  </si>
-  <si>
-    <t>Wirkung 1</t>
-  </si>
-  <si>
-    <t>W1 Effekt</t>
-  </si>
-  <si>
-    <t>Wirkung 2</t>
-  </si>
-  <si>
-    <t>W2 Effekt</t>
-  </si>
-  <si>
-    <t>Wirkung 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W3 Effekt </t>
-  </si>
-  <si>
-    <t>Wirkung 4</t>
-  </si>
-  <si>
-    <t>W4 Effekt</t>
-  </si>
-  <si>
-    <t>Freizinnkraut Blüte</t>
-  </si>
-  <si>
-    <t>Aphrodisika</t>
-  </si>
-  <si>
-    <t>Heilung</t>
-  </si>
-  <si>
-    <t>Madnika</t>
-  </si>
-  <si>
-    <t>Drain Intelligence</t>
-  </si>
-  <si>
-    <t>Kleine Dornhaube</t>
-  </si>
-  <si>
-    <t>Nebelgrantika</t>
-  </si>
-  <si>
-    <t>Herrenmantel</t>
-  </si>
-  <si>
-    <t>Sedativika</t>
-  </si>
-  <si>
-    <t>Kranichsfuß</t>
-  </si>
-  <si>
-    <t>Paralyse</t>
-  </si>
-  <si>
-    <t>Nachtsicht</t>
-  </si>
-  <si>
-    <t>Süße Stainbirne</t>
-  </si>
-  <si>
-    <t>Increase Physical</t>
-  </si>
-  <si>
     <t>Attributes</t>
   </si>
   <si>
@@ -780,6 +710,9 @@
     <t>Instinkt</t>
   </si>
   <si>
+    <t>Fernwaffe (oder Drittwaffe)</t>
+  </si>
+  <si>
     <t>ZustandWaffe1</t>
   </si>
   <si>
@@ -1035,19 +968,19 @@
     <t>Sanity</t>
   </si>
   <si>
-    <t>Drittwaffe</t>
-  </si>
-  <si>
-    <t>Hauptholster</t>
-  </si>
-  <si>
-    <t>Sekundärholster</t>
-  </si>
-  <si>
-    <t>Rückenholster</t>
-  </si>
-  <si>
-    <t>Zusatzslot</t>
+    <t>Physical(Körperzustand)</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>Schwer</t>
+  </si>
+  <si>
+    <t>Natürlich</t>
+  </si>
+  <si>
+    <t>Rüstungsschwere</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1796,11 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1809,36 +1738,20 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -1852,7 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1870,7 +1782,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1889,7 +1800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,22 +1809,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1925,20 +1826,189 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1949,28 +2019,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1978,7 +2060,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
   <dxfs count="225">
@@ -3677,7 +3759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3973,329 +4055,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AD34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
-    <col min="6" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="15" customWidth="1"/>
+    <col min="6" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="1.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="55" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="2.453125" customWidth="1"/>
+    <col min="12" max="12" width="2.90625" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" customWidth="1"/>
+    <col min="14" max="14" width="1.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.36328125" customWidth="1"/>
+    <col min="16" max="16" width="3.90625" customWidth="1"/>
+    <col min="17" max="17" width="18.08984375" customWidth="1"/>
+    <col min="18" max="18" width="5.08984375" style="41" customWidth="1"/>
+    <col min="19" max="19" width="5.1796875" customWidth="1"/>
+    <col min="20" max="20" width="15.26953125" style="15" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.453125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="3.81640625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="3.453125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="3.6328125" customWidth="1"/>
+    <col min="26" max="27" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:31" s="155" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="139" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="30" t="s">
+      <c r="D1" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
+      <c r="J1" s="180" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="Q1" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="153"/>
+      <c r="S1" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="157"/>
+      <c r="W1" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="153"/>
+      <c r="Z1" s="157" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA1" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AB1" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="113">
         <v>42</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="113">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="140">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="181">
         <v>100</v>
       </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="91">
-        <f>CharacterSheet!B2</f>
+      <c r="R2" s="72">
+        <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="144" t="s">
+      <c r="S2" s="162"/>
+      <c r="T2" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="7"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="187"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129" t="s">
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="110" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="121">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="121">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="65" t="s">
+      <c r="Q3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="79">
-        <f>CharacterSheet!B3</f>
+      <c r="R3" s="60">
+        <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="63" t="s">
+      <c r="S3" s="163"/>
+      <c r="T3" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="U3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="64">
+      <c r="W3" s="109">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="X3" s="62"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130" t="s">
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="110" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="174" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="92">
-        <f>CharacterSheet!B4</f>
+      <c r="Q4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="73">
+        <f>CharacterSheet!B4+B4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="94"/>
-      <c r="T4" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="52" t="s">
+      <c r="S4" s="163"/>
+      <c r="T4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="66">
+      <c r="W4" s="48">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="X4" s="62"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="121">
         <v>15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="121">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="103">
-        <f>CharacterSheet!B5</f>
+      <c r="Q5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="83">
+        <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="94"/>
-      <c r="T5" s="65" t="s">
+      <c r="S5" s="163"/>
+      <c r="T5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="66">
+      <c r="V5" s="39"/>
+      <c r="W5" s="48">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="X5" s="62"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="154"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="84">
-        <f>CharacterSheet!B6</f>
+      <c r="R6" s="65">
+        <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="94"/>
-      <c r="T6" s="65" t="s">
+      <c r="S6" s="163"/>
+      <c r="T6" s="47" t="s">
         <v>34</v>
       </c>
       <c r="U6" s="11" t="s">
@@ -4304,159 +4388,168 @@
       <c r="V6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="66">
+      <c r="W6" s="48">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="X6" s="62"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="E7" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="R7" s="107">
-        <f>CharacterSheet!B7</f>
+      <c r="Q7" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="R7" s="87">
+        <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="94"/>
-      <c r="T7" s="65" t="s">
-        <v>204</v>
+      <c r="S7" s="163"/>
+      <c r="T7" s="47" t="s">
+        <v>183</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="W7" s="66">
+        <v>206</v>
+      </c>
+      <c r="W7" s="48">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="X7" s="62"/>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AD7" s="15"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="130">
         <v>10.5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="110">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="114">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="108">
-        <f>CharacterSheet!B8</f>
+      <c r="R8" s="88">
+        <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="94"/>
-      <c r="T8" s="65" t="s">
+      <c r="S8" s="163"/>
+      <c r="T8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="U8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="66">
+      <c r="W8" s="48">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="X8" s="62"/>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="130">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="110">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="110">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="24"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="129"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="114">
+      <c r="Q9" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="93">
+        <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="65" t="s">
+      <c r="S9" s="163"/>
+      <c r="T9" s="47" t="s">
         <v>41</v>
       </c>
       <c r="U9" s="11" t="s">
@@ -4465,1150 +4558,1548 @@
       <c r="V9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="66">
+      <c r="W9" s="48">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="X9" s="62"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="174">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="130">
         <v>6</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="110">
         <v>7</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="110">
         <v>1</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="26"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="114"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="131"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="96">
-        <f>CharacterSheet!B10</f>
+      <c r="R10" s="76">
+        <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="94">
+      <c r="S10" s="163">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="67" t="s">
+      <c r="T10" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="61" t="s">
+      <c r="U10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="68">
+      <c r="V10" s="44"/>
+      <c r="W10" s="50">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="X10" s="62"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="11" t="s">
+      <c r="Z10" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="174">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="130">
         <v>10.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="110">
         <v>7</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="110">
         <v>1</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="26"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="131"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="97">
-        <f>CharacterSheet!B11</f>
+      <c r="R11" s="77">
+        <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="144" t="s">
+      <c r="S11" s="163"/>
+      <c r="T11" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="7"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="193"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="174">
         <f>R2*4</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="B12" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="134">
         <v>10.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="125">
         <v>7</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="125">
         <v>1</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="26"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="R12" s="116">
+      <c r="Q12" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="94">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="94"/>
-      <c r="T12" s="63" t="s">
+      <c r="S12" s="163"/>
+      <c r="T12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="59" t="s">
+      <c r="V12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="64">
+      <c r="W12" s="46">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="X12" s="65"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="174">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="48">
+      <c r="B13" s="135"/>
+      <c r="C13" s="136">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="65" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="49" t="s">
+      <c r="U13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="49"/>
-      <c r="W13" s="66">
+      <c r="V13" s="36"/>
+      <c r="W13" s="48">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="X13" s="62"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA13" s="11" t="str">
+      <c r="Z13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="174" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="147" t="s">
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+    </row>
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="137"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="65" t="s">
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="66">
+      <c r="V14" s="36"/>
+      <c r="W14" s="48">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="X14" s="62"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="67" t="s">
+      <c r="D15" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="61" t="s">
+      <c r="U15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="W15" s="68">
+      <c r="V15" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15" s="50">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="X15" s="65"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="43">
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="165">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="139">
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="144" t="s">
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="7"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="187"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="12" t="s">
+      <c r="Z16" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="57">
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+    </row>
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="167">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="140">
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="36">
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="113">
         <v>0</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="63" t="s">
+      <c r="R17" s="110"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="69" t="s">
+      <c r="U17" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="V17" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="W17" s="64">
+      <c r="V17" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" s="46">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="X17" s="65"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="6" t="s">
+      <c r="Z17" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AA17" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AC17" s="161" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="41">
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+    </row>
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="168">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="139">
         <f>B18+C18</f>
         <v>55</v>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="110" t="str">
         <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="65" t="s">
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="U18" s="53" t="s">
+      <c r="U18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="V18" s="53"/>
-      <c r="W18" s="66">
+      <c r="V18" s="40"/>
+      <c r="W18" s="48">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="X18" s="62"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="15">
+      <c r="Z18" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="110">
         <v>3</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="110">
         <v>5</v>
       </c>
-      <c r="AC18" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="39">
+      <c r="AC18" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="169">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="139">
         <f>B19+C19</f>
         <v>193</v>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="110" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="53" t="s">
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="V19" s="53"/>
-      <c r="W19" s="66">
+      <c r="V19" s="40"/>
+      <c r="W19" s="48">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="X19" s="62"/>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA19" s="15">
+      <c r="Z19" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA19" s="110">
         <v>4</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="110">
         <v>2</v>
       </c>
-      <c r="AC19" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="39">
+      <c r="AC19" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="169">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="139">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="65" t="s">
-        <v>77</v>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W20" s="66">
+        <v>80</v>
+      </c>
+      <c r="W20" s="48">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="X20" s="62"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="Z20" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="169">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="139">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16" t="s">
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="65" t="s">
-        <v>84</v>
+      <c r="R21" s="116"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="W21" s="66">
+        <v>206</v>
+      </c>
+      <c r="W21" s="48">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="X21" s="62"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="39">
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="169" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="169">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="139">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="19" t="s">
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="118"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="U22" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="V22" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="68">
+      <c r="R22" s="118"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="50">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="X22" s="65"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="39">
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="169" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="169">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="138">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="139">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="21" t="s">
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="23"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="146"/>
-      <c r="X23" s="7"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="185" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="187"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="15" t="str">
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="U24" s="71" t="s">
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="105"/>
-      <c r="W24" s="64">
+      <c r="V24" s="85"/>
+      <c r="W24" s="46">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="X24" s="65"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="125" t="s">
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="126" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="15" t="str">
+      <c r="D25" s="145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="110" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="U25" s="70" t="s">
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="V25" s="104"/>
-      <c r="W25" s="68">
+      <c r="V25" s="84"/>
+      <c r="W25" s="50">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="X25" s="65"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" s="123" t="s">
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="123">
+      <c r="C26" s="146">
         <v>10</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="146">
         <v>1</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="7"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="187"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="B27" s="122" t="s">
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="147">
         <v>5</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="147">
         <v>1</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="U27" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="V27" s="73"/>
-      <c r="W27" s="64">
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="55"/>
+      <c r="W27" s="46">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="X27" s="65"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
-        <v>334</v>
-      </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="152" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="U28" s="50" t="s">
-        <v>85</v>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="147">
+        <v>7</v>
+      </c>
+      <c r="D28" s="147">
+        <v>1</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="194" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="U28" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="V28" s="14"/>
-      <c r="W28" s="66">
+      <c r="W28" s="48">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="X28" s="62"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="141" t="s">
-        <v>306</v>
-      </c>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="U29" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="V29" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="W29" s="68">
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+    </row>
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="182" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="V29" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="W29" s="50">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="X29" s="65"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="122">
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+    </row>
+    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="147">
         <v>7</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="147">
         <v>1</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="7"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="185" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="187"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="V31" s="74"/>
-      <c r="W31" s="64">
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31" s="149"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="V31" s="56"/>
+      <c r="W31" s="46">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="X31" s="62"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="U32" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="V32" s="51"/>
-      <c r="W32" s="66">
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32" s="149"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="U32" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="V32" s="38"/>
+      <c r="W32" s="48">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="X32" s="62"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="U33" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="V33" s="75"/>
-      <c r="W33" s="68">
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+    </row>
+    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="U33" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="V33" s="57"/>
+      <c r="W33" s="50">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="X33" s="62"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z40" s="110"/>
+      <c r="AA40" s="110"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z43" s="110"/>
+      <c r="AA43" s="110"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="110"/>
+      <c r="AD43" s="110"/>
+      <c r="AE43" s="110"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="110"/>
+      <c r="AE44" s="110"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z48" s="110"/>
+      <c r="AA48" s="110"/>
+      <c r="AB48" s="110"/>
+      <c r="AC48" s="110"/>
+      <c r="AD48" s="110"/>
+      <c r="AE48" s="110"/>
+    </row>
+    <row r="49" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z49" s="110"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="110"/>
+      <c r="AE49" s="110"/>
+    </row>
+    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
+      <c r="AC50" s="110"/>
+      <c r="AD50" s="110"/>
+      <c r="AE50" s="110"/>
+    </row>
+    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z51" s="110"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="110"/>
+      <c r="AC51" s="110"/>
+      <c r="AD51" s="110"/>
+      <c r="AE51" s="110"/>
+    </row>
+    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z52" s="110"/>
+      <c r="AA52" s="110"/>
+      <c r="AB52" s="110"/>
+      <c r="AC52" s="110"/>
+      <c r="AD52" s="110"/>
+      <c r="AE52" s="110"/>
+    </row>
+    <row r="53" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="110"/>
+      <c r="AD53" s="110"/>
+      <c r="AE53" s="110"/>
+    </row>
+    <row r="54" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z54" s="110"/>
+      <c r="AA54" s="110"/>
+      <c r="AB54" s="110"/>
+      <c r="AC54" s="110"/>
+      <c r="AD54" s="110"/>
+      <c r="AE54" s="110"/>
+    </row>
+    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z55" s="110"/>
+      <c r="AA55" s="110"/>
+      <c r="AB55" s="110"/>
+      <c r="AC55" s="110"/>
+      <c r="AD55" s="110"/>
+      <c r="AE55" s="110"/>
+    </row>
+    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="110"/>
+      <c r="AC56" s="110"/>
+      <c r="AD56" s="110"/>
+      <c r="AE56" s="110"/>
+    </row>
+    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z57" s="110"/>
+      <c r="AA57" s="110"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="110"/>
+      <c r="AE57" s="110"/>
+    </row>
+    <row r="58" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z58" s="110"/>
+      <c r="AA58" s="110"/>
+      <c r="AB58" s="110"/>
+      <c r="AC58" s="110"/>
+      <c r="AD58" s="110"/>
+      <c r="AE58" s="110"/>
+    </row>
+    <row r="59" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z59" s="110"/>
+      <c r="AA59" s="110"/>
+      <c r="AB59" s="110"/>
+      <c r="AC59" s="110"/>
+      <c r="AD59" s="110"/>
+      <c r="AE59" s="110"/>
+    </row>
+    <row r="60" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z60" s="110"/>
+      <c r="AA60" s="110"/>
+      <c r="AB60" s="110"/>
+      <c r="AC60" s="110"/>
+      <c r="AD60" s="110"/>
+      <c r="AE60" s="110"/>
+    </row>
+    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z61" s="110"/>
+      <c r="AA61" s="110"/>
+      <c r="AB61" s="110"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+    </row>
+    <row r="62" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z62" s="110"/>
+      <c r="AA62" s="110"/>
+      <c r="AB62" s="110"/>
+      <c r="AC62" s="110"/>
+      <c r="AD62" s="110"/>
+      <c r="AE62" s="110"/>
+    </row>
+    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z63" s="110"/>
+      <c r="AA63" s="110"/>
+      <c r="AB63" s="110"/>
+      <c r="AC63" s="110"/>
+      <c r="AD63" s="110"/>
+      <c r="AE63" s="110"/>
+    </row>
+    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z64" s="110"/>
+      <c r="AA64" s="110"/>
+      <c r="AB64" s="110"/>
+      <c r="AC64" s="110"/>
+      <c r="AD64" s="110"/>
+      <c r="AE64" s="110"/>
+    </row>
+    <row r="65" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="110"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="110"/>
+      <c r="AE65" s="110"/>
+    </row>
+    <row r="66" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z66" s="110"/>
+      <c r="AA66" s="110"/>
+      <c r="AB66" s="110"/>
+      <c r="AC66" s="110"/>
+      <c r="AD66" s="110"/>
+      <c r="AE66" s="110"/>
+    </row>
+    <row r="67" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z67" s="110"/>
+      <c r="AA67" s="110"/>
+      <c r="AB67" s="110"/>
+      <c r="AC67" s="110"/>
+      <c r="AD67" s="110"/>
+      <c r="AE67" s="110"/>
+    </row>
+    <row r="68" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="110"/>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="110"/>
+      <c r="AD68" s="110"/>
+      <c r="AE68" s="110"/>
+    </row>
+    <row r="69" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z69" s="110"/>
+      <c r="AA69" s="110"/>
+      <c r="AB69" s="110"/>
+      <c r="AC69" s="110"/>
+      <c r="AD69" s="110"/>
+      <c r="AE69" s="110"/>
+    </row>
+    <row r="70" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z70" s="110"/>
+      <c r="AA70" s="110"/>
+      <c r="AB70" s="110"/>
+      <c r="AC70" s="110"/>
+      <c r="AD70" s="110"/>
+      <c r="AE70" s="110"/>
+    </row>
+    <row r="71" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z71" s="110"/>
+      <c r="AA71" s="110"/>
+      <c r="AB71" s="110"/>
+      <c r="AC71" s="110"/>
+      <c r="AD71" s="110"/>
+      <c r="AE71" s="110"/>
+    </row>
+    <row r="72" spans="26:31" x14ac:dyDescent="0.35">
+      <c r="Z72" s="110"/>
+      <c r="AA72" s="110"/>
+      <c r="AB72" s="110"/>
+      <c r="AC72" s="110"/>
+      <c r="AD72" s="110"/>
+      <c r="AE72" s="110"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
@@ -5622,7 +6113,6 @@
     <mergeCell ref="T23:W23"/>
     <mergeCell ref="I28:M28"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
     <cfRule type="containsText" dxfId="224" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
@@ -6009,35 +6499,94 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1E1B24B-B73F-4697-BC8A-5BF3BF7F2CAB}">
+          <x14:formula1>
+            <xm:f>DatenExelintern!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:B12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76877D7D-C28B-49C4-AA36-E564794A89D6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="15">
         <v>30000</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="15">
         <f>13490-E2+E3</f>
@@ -6048,65 +6597,65 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="15">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="15">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="31" t="s">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="15">
         <v>5000</v>
@@ -6121,9 +6670,9 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="15">
         <v>2250</v>
@@ -6134,15 +6683,15 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" s="15">
         <v>3000</v>
@@ -6159,9 +6708,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="15">
         <f>E10*1000</f>
@@ -6174,53 +6723,53 @@
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>114</v>
+      <c r="F10" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="31" t="s">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>109</v>
+      <c r="F14" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" s="15">
         <v>2000</v>
@@ -6233,15 +6782,15 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="100" t="s">
-        <v>116</v>
+      <c r="G15" s="80" t="s">
+        <v>118</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B16" s="15">
         <v>2000</v>
@@ -6253,7 +6802,7 @@
         <v>1.25</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -6261,9 +6810,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15">
         <v>3000</v>
@@ -6280,9 +6829,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B18" s="15">
         <v>3000</v>
@@ -6294,16 +6843,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>121</v>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="15">
         <v>3000</v>
@@ -6323,7 +6872,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6334,20 +6883,20 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>123</v>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6364,7 +6913,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -6375,7 +6924,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6386,7 +6935,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -6397,30 +6946,30 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="31" t="s">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>109</v>
+      <c r="F26" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6428,16 +6977,16 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D28" s="15">
         <f>0.5*E28</f>
@@ -6451,16 +7000,16 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" s="15">
         <f>0.5*E29</f>
@@ -6474,7 +7023,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -6485,32 +7034,32 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="31" t="s">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="31" t="s">
-        <v>109</v>
+      <c r="F32" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B33" s="15">
         <v>100</v>
@@ -6520,9 +7069,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" s="15">
         <v>500</v>
@@ -6538,265 +7087,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC7A07-5BA1-48E5-9BF5-5D6824B8082D}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="15">
-        <v>300</v>
-      </c>
-      <c r="C2" s="15">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="15">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="15">
-        <v>4</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="15">
-        <v>200</v>
-      </c>
-      <c r="C3" s="15">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="15">
-        <v>3</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="15">
-        <v>50</v>
-      </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="15">
-        <v>3</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="15">
-        <v>50</v>
-      </c>
-      <c r="C5" s="15">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="15">
-        <v>50</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="15">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="15">
-        <v>4</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="15">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="179"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6809,7 +7205,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6827,73 +7223,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE86972-147E-4E91-B657-780DABB21689}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="118" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="31" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="120" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="135" t="s">
+      <c r="I1" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="135" t="s">
-        <v>109</v>
+      <c r="N1" s="105" t="s">
+        <v>111</v>
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
-        <v>87</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="103" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="152"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="I2" s="136"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -6901,25 +7298,25 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
-        <v>89</v>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="104" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="155"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>1</v>
@@ -6931,28 +7328,28 @@
         <v>3</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
-        <v>231</v>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="104" t="s">
+        <v>210</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>303</v>
+      <c r="E4" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J4" s="15">
         <v>22500</v>
@@ -6966,23 +7363,23 @@
       <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="137" t="s">
-        <v>309</v>
-      </c>
-      <c r="O4" s="137"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
-        <v>232</v>
+      <c r="N4" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="107"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="104" t="s">
+        <v>211</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="152"/>
+      <c r="E5" s="197"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -6993,21 +7390,21 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
-        <v>235</v>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="155"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>39</v>
@@ -7019,19 +7416,19 @@
         <v>3</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
-        <v>236</v>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="104" t="s">
+        <v>215</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="31" t="s">
-        <v>305</v>
+      <c r="E7" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7043,14 +7440,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
-        <v>233</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="152"/>
+      <c r="E8" s="197"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7061,21 +7458,21 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
-        <v>234</v>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="104" t="s">
+        <v>213</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="155"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
@@ -7085,13 +7482,13 @@
         <v>3</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
-        <v>258</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="104" t="s">
+        <v>238</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
@@ -7107,9 +7504,9 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -7118,7 +7515,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J11" s="15">
         <f>420*M11</f>
@@ -7133,13 +7530,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -7148,7 +7545,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="J12" s="15">
         <f>900*M12</f>
@@ -7163,13 +7560,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -7178,7 +7575,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J13" s="15">
         <f>420*M13</f>
@@ -7193,13 +7590,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -7208,7 +7605,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="J14" s="15">
         <f>900*M14</f>
@@ -7223,13 +7620,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -7238,7 +7635,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="J15" s="15">
         <f>5000*M15</f>
@@ -7253,13 +7650,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -7268,7 +7665,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="J16" s="15">
         <f>5000*M16</f>
@@ -7283,13 +7680,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -7298,7 +7695,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J17" s="15">
         <f>3000*M17</f>
@@ -7313,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -7328,7 +7725,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J18" s="15">
         <f>2000*M18</f>
@@ -7342,14 +7739,14 @@
       <c r="M18" s="15">
         <v>2</v>
       </c>
-      <c r="N18" s="138" t="s">
-        <v>325</v>
+      <c r="N18" s="108" t="s">
+        <v>305</v>
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -7358,7 +7755,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J19" s="15">
         <v>4200</v>
@@ -7366,12 +7763,12 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="138"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -7387,9 +7784,9 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -7398,10 +7795,10 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="22" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>1</v>
@@ -7413,13 +7810,13 @@
         <v>3</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -7435,9 +7832,9 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -7446,7 +7843,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="J23" s="15">
         <v>50</v>
@@ -7461,9 +7858,9 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="21" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="21"/>
@@ -7472,7 +7869,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J24" s="15">
         <v>100</v>
@@ -7487,7 +7884,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7496,7 +7893,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="J25" s="15">
         <v>400</v>
@@ -7511,7 +7908,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7520,7 +7917,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J26" s="15">
         <v>500</v>
@@ -7535,7 +7932,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7551,7 +7948,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7567,7 +7964,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7583,7 +7980,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7599,7 +7996,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -7609,7 +8006,7 @@
       <c r="G31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -7619,7 +8016,7 @@
       <c r="G32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -7629,7 +8026,7 @@
       <c r="G33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -7639,7 +8036,7 @@
       <c r="G34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O35" s="15"/>
     </row>
   </sheetData>
@@ -7652,64 +8049,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.6328125" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
-        <v>10</v>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15">
@@ -7718,11 +8116,11 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="72">
         <v>12</v>
       </c>
       <c r="C2" s="15">
@@ -7731,24 +8129,24 @@
       <c r="D2" s="15">
         <v>10</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="46" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="17">
         <v>-9</v>
       </c>
-      <c r="I2" s="88">
+      <c r="I2" s="69">
         <v>29</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>69</v>
@@ -7764,11 +8162,11 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="60">
         <v>12</v>
       </c>
       <c r="C3" s="15">
@@ -7777,19 +8175,19 @@
       <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="70">
         <v>30</v>
       </c>
       <c r="J3" s="15"/>
@@ -7797,7 +8195,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="15">
         <v>3</v>
@@ -7806,15 +8204,15 @@
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="92">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="73">
         <v>12</v>
       </c>
       <c r="C4" s="15">
@@ -7823,21 +8221,21 @@
       <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="77"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="89">
+      <c r="I4" s="70">
         <v>20</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" s="15">
         <v>4</v>
@@ -7846,68 +8244,68 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="93">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="74">
         <v>13</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="48" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="89">
+      <c r="I5" s="70">
         <v>30</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="65">
         <v>10</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>204</v>
+      <c r="E6" s="47" t="s">
+        <v>183</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>227</v>
+        <v>86</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>206</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="89">
+      <c r="I6" s="70">
         <v>20</v>
       </c>
       <c r="J6" s="15"/>
@@ -7918,11 +8316,11 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="86">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="67">
         <v>12</v>
       </c>
       <c r="C7" s="15">
@@ -7931,17 +8329,17 @@
       <c r="D7" s="15">
         <v>10</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="48" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="89">
+      <c r="I7" s="70">
         <v>20</v>
       </c>
       <c r="J7" s="15"/>
@@ -7952,11 +8350,11 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="75">
         <v>5</v>
       </c>
       <c r="C8" s="15">
@@ -7965,22 +8363,22 @@
       <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="48" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="89">
+      <c r="I8" s="70">
         <v>20</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="110" t="s">
-        <v>11</v>
+      <c r="K8" s="89" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -7988,24 +8386,24 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="95">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="75">
         <v>5</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="90">
+      <c r="I9" s="71">
         <v>20</v>
       </c>
       <c r="J9" s="15"/>
@@ -8018,27 +8416,27 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="82">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="46" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="88">
+      <c r="I10" s="69">
         <v>20</v>
       </c>
       <c r="J10" s="15"/>
@@ -8051,30 +8449,30 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="81">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="79"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="89">
+      <c r="I11" s="70">
         <v>24</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -8082,20 +8480,20 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="89">
+      <c r="I12" s="70">
         <v>20</v>
       </c>
       <c r="J12" s="15"/>
@@ -8106,22 +8504,26 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>227</v>
+      <c r="G13" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="90">
+      <c r="I13" s="71">
         <v>20</v>
       </c>
       <c r="J13" s="15"/>
@@ -8132,22 +8534,22 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="88">
+      <c r="I14" s="69">
         <v>20</v>
       </c>
       <c r="J14" s="15"/>
@@ -8158,9 +8560,9 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -8169,17 +8571,17 @@
         <v>-3</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="80"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="70">
         <v>35</v>
       </c>
       <c r="J15" s="15"/>
@@ -8190,24 +8592,24 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="53" t="s">
+      <c r="E16" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="80"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="89">
+      <c r="I16" s="70">
         <v>20</v>
       </c>
       <c r="J16" s="15"/>
@@ -8218,61 +8620,61 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="40">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="35">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="65" t="s">
-        <v>77</v>
+      <c r="E17" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>165</v>
+        <v>143</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="89">
+      <c r="I17" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="39">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="65" t="s">
-        <v>84</v>
+      <c r="E18" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>227</v>
+        <v>86</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="70">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="39">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8280,27 +8682,27 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>165</v>
+        <v>145</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="90">
+      <c r="I19" s="71">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="39">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8309,158 +8711,158 @@
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="82"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="88">
+      <c r="I20" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="39">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="37">
+      <c r="G21" s="62"/>
+      <c r="H21" s="32">
         <v>-8</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="71">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="39">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="83"/>
+      <c r="E22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="64"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="88">
+      <c r="I22" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="84"/>
+      <c r="E23" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="65"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="89">
+      <c r="I23" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>227</v>
+      <c r="E24" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="90">
+      <c r="I24" s="71">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="85"/>
+      <c r="E25" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="66"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="88">
+      <c r="I25" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="86"/>
+      <c r="E26" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="67"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="89">
+      <c r="I26" s="70">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="87"/>
+      <c r="E27" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="68"/>
       <c r="H27" s="22">
         <v>-15</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="71">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -8470,7 +8872,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -8874,32 +9276,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB29849-F989-443C-A326-7D0CBD1A3348}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -8913,46 +9316,46 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -8969,16 +9372,16 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -8986,10 +9389,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -9004,20 +9407,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -9025,10 +9428,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -9043,20 +9446,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -9072,16 +9475,16 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -9097,16 +9500,16 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -9122,9 +9525,9 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -9143,7 +9546,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -9160,12 +9563,12 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -9181,7 +9584,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -9198,9 +9601,9 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -9208,7 +9611,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -9221,9 +9624,9 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -9231,7 +9634,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -9246,9 +9649,9 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -9267,9 +9670,9 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -9277,10 +9680,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9292,9 +9695,9 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -9308,9 +9711,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -9324,7 +9727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -9336,12 +9739,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -9352,7 +9755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -9364,9 +9767,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -9380,9 +9783,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -9396,9 +9799,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -9412,9 +9815,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -9428,9 +9831,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -9444,9 +9847,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -9460,7 +9863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9472,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9484,7 +9887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9496,7 +9899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9508,34 +9911,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>203</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9543,54 +9923,79 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="127.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A1:I30"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="100" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="127" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="127" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -9606,15 +10011,15 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="127" t="s">
-        <v>284</v>
+      <c r="E2" s="100" t="s">
+        <v>264</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="G2" s="127" t="s">
-        <v>246</v>
+      <c r="G2" s="100" t="s">
+        <v>226</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -9625,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -9641,15 +10046,15 @@
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="127" t="s">
-        <v>283</v>
+      <c r="E3" s="100" t="s">
+        <v>263</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="G3" s="127" t="s">
-        <v>247</v>
+      <c r="G3" s="100" t="s">
+        <v>227</v>
       </c>
       <c r="H3" s="15">
         <f>Status!C27</f>
@@ -9660,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
@@ -9676,26 +10081,26 @@
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="E4" s="117" t="s">
-        <v>286</v>
+      <c r="E4" s="95" t="s">
+        <v>266</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="G4" s="127" t="s">
-        <v>248</v>
+      <c r="G4" s="100" t="s">
+        <v>228</v>
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="15">
         <f>Status!Z4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
@@ -9711,15 +10116,15 @@
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="E5" s="117" t="s">
-        <v>287</v>
+      <c r="E5" s="95" t="s">
+        <v>267</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="G5" s="127" t="s">
-        <v>249</v>
+      <c r="G5" s="100" t="s">
+        <v>229</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -9730,9 +10135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
@@ -9746,15 +10151,15 @@
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="E6" s="117" t="s">
-        <v>288</v>
+      <c r="E6" s="95" t="s">
+        <v>268</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>250</v>
+      <c r="G6" s="100" t="s">
+        <v>230</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -9765,9 +10170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -9781,15 +10186,15 @@
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="E7" s="117" t="s">
-        <v>289</v>
+      <c r="E7" s="95" t="s">
+        <v>269</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="G7" s="127" t="s">
-        <v>251</v>
+      <c r="G7" s="100" t="s">
+        <v>231</v>
       </c>
       <c r="H7" s="15">
         <f>Status!D3</f>
@@ -9800,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -9817,15 +10222,15 @@
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="117" t="s">
-        <v>290</v>
+      <c r="E8" s="95" t="s">
+        <v>270</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="G8" s="127" t="s">
-        <v>252</v>
+      <c r="G8" s="100" t="s">
+        <v>232</v>
       </c>
       <c r="H8" s="15">
         <f>Status!D4</f>
@@ -9833,7 +10238,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -9850,15 +10255,15 @@
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="117" t="s">
-        <v>291</v>
+      <c r="E9" s="95" t="s">
+        <v>271</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="G9" s="127" t="s">
-        <v>253</v>
+      <c r="G9" s="100" t="s">
+        <v>233</v>
       </c>
       <c r="H9" s="15">
         <f>Status!D5</f>
@@ -9866,9 +10271,9 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -9882,27 +10287,27 @@
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>224</v>
+      <c r="E10" s="100" t="s">
+        <v>203</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>CharacterSheet!B1</f>
         <v>Mensch</v>
       </c>
-      <c r="G10" s="127" t="s">
-        <v>258</v>
+      <c r="G10" s="100" t="s">
+        <v>238</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
         <v>7</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="127"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -9917,25 +10322,25 @@
         <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="H11" s="15">
         <f>Status!D9</f>
         <v>7</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="127"/>
+      <c r="J11" s="100"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -9950,22 +10355,22 @@
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="H12" s="15">
         <f>Status!D10</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -9980,23 +10385,23 @@
         <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="H13" s="15">
         <f>Status!D11</f>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -10011,23 +10416,23 @@
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H14" s="15">
         <f>Status!D12</f>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10042,23 +10447,23 @@
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F15" s="15">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -10073,23 +10478,23 @@
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="15" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H16" s="15">
         <f>Status!E9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -10104,23 +10509,23 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="H17" s="15">
         <f>Status!E10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B18" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -10135,23 +10540,23 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="H18" s="15">
         <f>Status!E11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -10166,26 +10571,27 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H19" s="15">
         <f>Status!E12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>281</v>
+      <c r="B20" t="str">
+        <f>CharacterSheet!B13</f>
+        <v>Random</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -10196,23 +10602,23 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
-        <v>87</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="95" t="s">
+        <v>88</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
@@ -10227,23 +10633,23 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F21" s="13">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H21" s="15" t="str">
         <f>Status!B9</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
-        <v>89</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="95" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="15">
         <f>Status!D17</f>
@@ -10266,16 +10672,16 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>Status!B10</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
-        <v>231</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="95" t="s">
+        <v>210</v>
       </c>
       <c r="B23" s="15">
         <f>Status!D18</f>
@@ -10298,16 +10704,16 @@
         <v>6</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>Status!B11</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
-        <v>232</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="95" t="s">
+        <v>211</v>
       </c>
       <c r="B24" s="15">
         <f>Status!D19</f>
@@ -10330,16 +10736,16 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>Status!B12</f>
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
-        <v>235</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="95" t="s">
+        <v>214</v>
       </c>
       <c r="B25" s="15">
         <f>Status!D20</f>
@@ -10362,16 +10768,16 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="117" t="s">
-        <v>236</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="95" t="s">
+        <v>215</v>
       </c>
       <c r="B26" s="15">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
@@ -10386,9 +10792,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
-        <v>233</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="95" t="s">
+        <v>212</v>
       </c>
       <c r="B27" s="15">
         <f>Status!D22</f>
@@ -10403,16 +10809,16 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
-        <v>234</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="95" t="s">
+        <v>213</v>
       </c>
       <c r="B28" s="15">
         <f>Status!D23</f>
@@ -10420,9 +10826,9 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="127" t="s">
-        <v>285</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="100" t="s">
+        <v>265</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
@@ -10430,10 +10836,10 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C31" s="15"/>
     </row>
   </sheetData>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821FA40-DA61-42D6-9941-0D5A85798338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F427F39-770E-4204-B04B-D77F55528976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1704,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1914,12 +1923,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2058,9 +2061,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
   <dxfs count="225">
@@ -3759,7 +3763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4059,90 +4063,90 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" style="15" customWidth="1"/>
-    <col min="6" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="1.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.453125" customWidth="1"/>
-    <col min="12" max="12" width="2.90625" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" customWidth="1"/>
-    <col min="14" max="14" width="1.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.36328125" customWidth="1"/>
-    <col min="16" max="16" width="3.90625" customWidth="1"/>
-    <col min="17" max="17" width="18.08984375" customWidth="1"/>
-    <col min="18" max="18" width="5.08984375" style="41" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.26953125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.453125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="15" customWidth="1"/>
-    <col min="24" max="24" width="3.453125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="3.6328125" customWidth="1"/>
-    <col min="26" max="27" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="41" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="3.5703125" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="155" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:31" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-      <c r="J1" s="180" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="152"/>
+      <c r="J1" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="Q1" s="153" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="Q1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="153"/>
-      <c r="S1" s="156" t="s">
+      <c r="R1" s="151"/>
+      <c r="S1" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="157" t="s">
+      <c r="U1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157" t="s">
+      <c r="V1" s="155"/>
+      <c r="W1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="153"/>
-      <c r="Z1" s="157" t="s">
+      <c r="X1" s="151"/>
+      <c r="Z1" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="157" t="s">
+      <c r="AA1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="157" t="s">
+      <c r="AB1" s="155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="173" t="s">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="171" t="s">
         <v>272</v>
       </c>
       <c r="B2" s="113" t="s">
@@ -4159,11 +4163,11 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="110"/>
-      <c r="J2" s="181">
+      <c r="J2" s="179">
         <v>100</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
       <c r="M2" s="110"/>
       <c r="N2" s="110"/>
       <c r="O2" s="110"/>
@@ -4175,16 +4179,16 @@
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="162"/>
-      <c r="T2" s="185" t="s">
+      <c r="S2" s="160"/>
+      <c r="T2" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="187"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="185"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158" t="s">
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156" t="s">
         <v>15</v>
       </c>
       <c r="AB2" s="110" t="s">
@@ -4194,8 +4198,8 @@
       <c r="AD2" s="110"/>
       <c r="AE2" s="110"/>
     </row>
-    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="172" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="121" t="s">
@@ -4226,7 +4230,7 @@
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="163"/>
+      <c r="S3" s="161"/>
       <c r="T3" s="92" t="s">
         <v>20</v>
       </c>
@@ -4241,8 +4245,8 @@
         <v>29</v>
       </c>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159" t="s">
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157" t="s">
         <v>23</v>
       </c>
       <c r="AB3" s="110" t="s">
@@ -4252,8 +4256,8 @@
       <c r="AD3" s="110"/>
       <c r="AE3" s="110"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="174" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
         <v>225</v>
       </c>
       <c r="B4" s="121"/>
@@ -4278,7 +4282,7 @@
         <f>CharacterSheet!B4+B4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="163"/>
+      <c r="S4" s="161"/>
       <c r="T4" s="47" t="s">
         <v>28</v>
       </c>
@@ -4293,8 +4297,8 @@
         <v>30</v>
       </c>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
       <c r="AB4" s="110" t="s">
         <v>29</v>
       </c>
@@ -4302,8 +4306,8 @@
       <c r="AD4" s="110"/>
       <c r="AE4" s="110"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="172" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="121" t="s">
@@ -4334,7 +4338,7 @@
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="163"/>
+      <c r="S5" s="161"/>
       <c r="T5" s="47" t="s">
         <v>32</v>
       </c>
@@ -4347,15 +4351,15 @@
         <v>20</v>
       </c>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
       <c r="AB5" s="110"/>
       <c r="AC5" s="110"/>
       <c r="AD5" s="110"/>
       <c r="AE5" s="110"/>
     </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="154"/>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="152"/>
       <c r="B6" s="124"/>
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
@@ -4378,7 +4382,7 @@
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="163"/>
+      <c r="S6" s="161"/>
       <c r="T6" s="47" t="s">
         <v>34</v>
       </c>
@@ -4393,15 +4397,15 @@
         <v>30</v>
       </c>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="157"/>
       <c r="AB6" s="110"/>
       <c r="AC6" s="110"/>
       <c r="AD6" s="110"/>
       <c r="AE6" s="110"/>
     </row>
-    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="175" t="s">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="173" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="126" t="s">
@@ -4434,7 +4438,7 @@
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="163"/>
+      <c r="S7" s="161"/>
       <c r="T7" s="47" t="s">
         <v>183</v>
       </c>
@@ -4456,8 +4460,8 @@
       <c r="AD7" s="110"/>
       <c r="AE7" s="110"/>
     </row>
-    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="155" t="s">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="153" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="110" t="s">
@@ -4490,7 +4494,7 @@
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="163"/>
+      <c r="S8" s="161"/>
       <c r="T8" s="47" t="s">
         <v>35</v>
       </c>
@@ -4505,17 +4509,17 @@
         <v>20</v>
       </c>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="177" t="s">
+      <c r="Z8" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="155"/>
+      <c r="AA8" s="153"/>
       <c r="AB8" s="110"/>
       <c r="AC8" s="110"/>
       <c r="AD8" s="110"/>
       <c r="AE8" s="110"/>
     </row>
-    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="155" t="s">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="110" t="s">
@@ -4548,7 +4552,7 @@
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="163"/>
+      <c r="S9" s="161"/>
       <c r="T9" s="47" t="s">
         <v>41</v>
       </c>
@@ -4563,10 +4567,10 @@
         <v>20</v>
       </c>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="174" t="s">
+      <c r="Z9" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="174">
+      <c r="AA9" s="172">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
@@ -4575,8 +4579,8 @@
       <c r="AD9" s="110"/>
       <c r="AE9" s="110"/>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="110" t="s">
@@ -4611,7 +4615,7 @@
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="163">
+      <c r="S10" s="161">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
@@ -4627,10 +4631,10 @@
         <v>20</v>
       </c>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="174" t="s">
+      <c r="Z10" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="174">
+      <c r="AA10" s="172">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
@@ -4639,8 +4643,8 @@
       <c r="AD10" s="110"/>
       <c r="AE10" s="110"/>
     </row>
-    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="153" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="110" t="s">
@@ -4673,18 +4677,18 @@
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="163"/>
-      <c r="T11" s="191" t="s">
+      <c r="S11" s="161"/>
+      <c r="T11" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="193"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="191"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="174" t="s">
+      <c r="Z11" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="174">
+      <c r="AA11" s="172">
         <f>R2*4</f>
         <v>48</v>
       </c>
@@ -4693,8 +4697,8 @@
       <c r="AD11" s="110"/>
       <c r="AE11" s="110"/>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="176" t="s">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="174" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="125" t="s">
@@ -4727,7 +4731,7 @@
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="163"/>
+      <c r="S12" s="161"/>
       <c r="T12" s="45" t="s">
         <v>53</v>
       </c>
@@ -4742,10 +4746,10 @@
         <v>20</v>
       </c>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="174" t="s">
+      <c r="Z12" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="AA12" s="174">
+      <c r="AA12" s="172">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
@@ -4754,8 +4758,8 @@
       <c r="AD12" s="110"/>
       <c r="AE12" s="110"/>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="177" t="s">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="175" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="135"/>
@@ -4793,10 +4797,10 @@
         <v>24</v>
       </c>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="178" t="s">
+      <c r="Z13" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" s="174" t="str">
+      <c r="AA13" s="172" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="AD13" s="110"/>
       <c r="AE13" s="110"/>
     </row>
-    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="137"/>
       <c r="B14" s="124"/>
       <c r="C14" s="110"/>
@@ -4822,7 +4826,7 @@
       <c r="N14" s="110"/>
       <c r="O14" s="131"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="188" t="s">
+      <c r="Q14" s="186" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="110"/>
@@ -4846,7 +4850,7 @@
       <c r="AD14" s="110"/>
       <c r="AE14" s="110"/>
     </row>
-    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="110"/>
       <c r="C15" s="135" t="s">
@@ -4867,7 +4871,7 @@
       <c r="N15" s="110"/>
       <c r="O15" s="131"/>
       <c r="P15" s="110"/>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="187"/>
       <c r="R15" s="110"/>
       <c r="S15" s="111"/>
       <c r="T15" s="49" t="s">
@@ -4891,11 +4895,11 @@
       <c r="AD15" s="110"/>
       <c r="AE15" s="110"/>
     </row>
-    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="164" t="s">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="165">
+      <c r="B16" s="163">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
@@ -4903,7 +4907,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="167">
         <f>B16-C16</f>
         <v>275</v>
       </c>
@@ -4919,15 +4923,15 @@
       <c r="N16" s="110"/>
       <c r="O16" s="131"/>
       <c r="P16" s="110"/>
-      <c r="Q16" s="190"/>
+      <c r="Q16" s="188"/>
       <c r="R16" s="110"/>
       <c r="S16" s="112"/>
-      <c r="T16" s="185" t="s">
+      <c r="T16" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="187"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="185"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="135" t="s">
         <v>66</v>
@@ -4938,11 +4942,11 @@
       <c r="AD16" s="110"/>
       <c r="AE16" s="110"/>
     </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="166" t="s">
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="167">
+      <c r="B17" s="165">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
@@ -4950,13 +4954,13 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="140">
+      <c r="D17" s="197">
         <f>B17+C17</f>
         <v>12</v>
       </c>
       <c r="E17" s="110"/>
       <c r="F17" s="110"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="110"/>
       <c r="I17" s="117"/>
       <c r="J17" s="114"/>
@@ -4964,7 +4968,7 @@
       <c r="L17" s="114"/>
       <c r="M17" s="118"/>
       <c r="N17" s="110"/>
-      <c r="O17" s="141"/>
+      <c r="O17" s="139"/>
       <c r="P17" s="110"/>
       <c r="Q17" s="113">
         <v>0</v>
@@ -4985,26 +4989,26 @@
         <v>20</v>
       </c>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="160" t="s">
+      <c r="Z17" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="AA17" s="161" t="s">
+      <c r="AA17" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="161" t="s">
+      <c r="AB17" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="AC17" s="161" t="s">
+      <c r="AC17" s="159" t="s">
         <v>72</v>
       </c>
       <c r="AD17" s="110"/>
       <c r="AE17" s="110"/>
     </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="168" t="s">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="166">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
@@ -5012,7 +5016,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="139">
+      <c r="D18" s="167">
         <f>B18+C18</f>
         <v>55</v>
       </c>
@@ -5065,11 +5069,11 @@
       <c r="AD18" s="110"/>
       <c r="AE18" s="110"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="169" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="169">
+      <c r="B19" s="167">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
@@ -5077,7 +5081,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="167">
         <f>B19+C19</f>
         <v>193</v>
       </c>
@@ -5126,11 +5130,11 @@
       <c r="AD19" s="110"/>
       <c r="AE19" s="110"/>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="169" t="s">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="169">
+      <c r="B20" s="167">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
@@ -5138,7 +5142,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="139">
+      <c r="D20" s="167">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>20</v>
       </c>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="143" t="s">
+      <c r="Z20" s="141" t="s">
         <v>87</v>
       </c>
       <c r="AA20" s="110"/>
@@ -5183,11 +5187,11 @@
       <c r="AD20" s="110"/>
       <c r="AE20" s="110"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="169" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="169">
+      <c r="B21" s="167">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
@@ -5195,7 +5199,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="167">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5240,11 +5244,11 @@
       <c r="AD21" s="110"/>
       <c r="AE21" s="110"/>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="169" t="s">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="169">
+      <c r="B22" s="167">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
@@ -5252,7 +5256,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="139">
+      <c r="D22" s="167">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5263,7 +5267,7 @@
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
-      <c r="I22" s="142" t="s">
+      <c r="I22" s="140" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="118"/>
@@ -5299,11 +5303,11 @@
       <c r="AD22" s="110"/>
       <c r="AE22" s="110"/>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="169" t="s">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="169">
+      <c r="B23" s="167">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
@@ -5311,7 +5315,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="139">
+      <c r="D23" s="167">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5335,12 +5339,12 @@
       </c>
       <c r="R23" s="120"/>
       <c r="S23" s="112"/>
-      <c r="T23" s="185" t="s">
+      <c r="T23" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="187"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="185"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="110"/>
       <c r="AA23" s="110"/>
@@ -5349,10 +5353,10 @@
       <c r="AD23" s="110"/>
       <c r="AE23" s="110"/>
     </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="143"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="110"/>
       <c r="E24" s="110" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
@@ -5391,17 +5395,17 @@
       <c r="AD24" s="110"/>
       <c r="AE24" s="110"/>
     </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="170" t="s">
+    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="143" t="s">
         <v>260</v>
       </c>
       <c r="E25" s="110" t="str">
@@ -5441,17 +5445,17 @@
       <c r="AD25" s="110"/>
       <c r="AE25" s="110"/>
     </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="171" t="s">
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="146">
+      <c r="C26" s="144">
         <v>10</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="144">
         <v>1</v>
       </c>
       <c r="E26" s="110"/>
@@ -5469,12 +5473,12 @@
       <c r="Q26" s="110"/>
       <c r="R26" s="110"/>
       <c r="S26" s="112"/>
-      <c r="T26" s="185" t="s">
+      <c r="T26" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="187"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="185"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="110"/>
       <c r="AA26" s="110"/>
@@ -5483,17 +5487,17 @@
       <c r="AD26" s="110"/>
       <c r="AE26" s="110"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="172" t="s">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="147">
+      <c r="C27" s="145">
         <v>5</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D27" s="145">
         <v>1</v>
       </c>
       <c r="E27" s="110"/>
@@ -5530,30 +5534,30 @@
       <c r="AD27" s="110"/>
       <c r="AE27" s="110"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="172" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="147">
+      <c r="C28" s="145">
         <v>7</v>
       </c>
-      <c r="D28" s="147">
+      <c r="D28" s="145">
         <v>1</v>
       </c>
       <c r="E28" s="110"/>
       <c r="F28" s="110"/>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
-      <c r="I28" s="194" t="s">
+      <c r="I28" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="196"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110"/>
       <c r="P28" s="110"/>
@@ -5579,24 +5583,24 @@
       <c r="AD28" s="110"/>
       <c r="AE28" s="110"/>
     </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="172" t="s">
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="110"/>
       <c r="F29" s="110"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="182" t="s">
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="184"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="182"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
@@ -5624,26 +5628,26 @@
       <c r="AD29" s="110"/>
       <c r="AE29" s="110"/>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="172" t="s">
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="145">
         <v>7</v>
       </c>
-      <c r="D30" s="147">
+      <c r="D30" s="145">
         <v>1</v>
       </c>
       <c r="E30" s="110"/>
       <c r="F30" s="110"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
       <c r="L30" s="114"/>
       <c r="M30" s="110"/>
       <c r="N30" s="110"/>
@@ -5652,12 +5656,12 @@
       <c r="Q30" s="110"/>
       <c r="R30" s="110"/>
       <c r="S30" s="112"/>
-      <c r="T30" s="185" t="s">
+      <c r="T30" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="187"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="185"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="110"/>
       <c r="AA30" s="110"/>
@@ -5666,11 +5670,11 @@
       <c r="AD30" s="110"/>
       <c r="AE30" s="110"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="149"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="110"/>
       <c r="F31" s="110"/>
       <c r="G31" s="110"/>
@@ -5705,11 +5709,11 @@
       <c r="AD31" s="110"/>
       <c r="AE31" s="110"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="149"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="110"/>
       <c r="F32" s="110"/>
       <c r="G32" s="110"/>
@@ -5744,11 +5748,11 @@
       <c r="AD32" s="110"/>
       <c r="AE32" s="110"/>
     </row>
-    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="149"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
+    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="147"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="110"/>
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
@@ -5782,7 +5786,7 @@
       <c r="AD33" s="110"/>
       <c r="AE33" s="110"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="99"/>
       <c r="B34" s="99"/>
       <c r="C34" s="99"/>
@@ -5794,7 +5798,7 @@
       <c r="AD34" s="110"/>
       <c r="AE34" s="110"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z35" s="110"/>
       <c r="AA35" s="110"/>
       <c r="AB35" s="110"/>
@@ -5802,7 +5806,7 @@
       <c r="AD35" s="110"/>
       <c r="AE35" s="110"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z36" s="110"/>
       <c r="AA36" s="110"/>
       <c r="AB36" s="110"/>
@@ -5810,7 +5814,7 @@
       <c r="AD36" s="110"/>
       <c r="AE36" s="110"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z37" s="110"/>
       <c r="AA37" s="110"/>
       <c r="AB37" s="110"/>
@@ -5818,7 +5822,7 @@
       <c r="AD37" s="110"/>
       <c r="AE37" s="110"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z38" s="110"/>
       <c r="AA38" s="110"/>
       <c r="AB38" s="110"/>
@@ -5826,7 +5830,7 @@
       <c r="AD38" s="110"/>
       <c r="AE38" s="110"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z39" s="110"/>
       <c r="AA39" s="110"/>
       <c r="AB39" s="110"/>
@@ -5834,7 +5838,7 @@
       <c r="AD39" s="110"/>
       <c r="AE39" s="110"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z40" s="110"/>
       <c r="AA40" s="110"/>
       <c r="AB40" s="110"/>
@@ -5842,7 +5846,7 @@
       <c r="AD40" s="110"/>
       <c r="AE40" s="110"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z41" s="110"/>
       <c r="AA41" s="110"/>
       <c r="AB41" s="110"/>
@@ -5850,7 +5854,7 @@
       <c r="AD41" s="110"/>
       <c r="AE41" s="110"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z42" s="110"/>
       <c r="AA42" s="110"/>
       <c r="AB42" s="110"/>
@@ -5858,7 +5862,7 @@
       <c r="AD42" s="110"/>
       <c r="AE42" s="110"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z43" s="110"/>
       <c r="AA43" s="110"/>
       <c r="AB43" s="110"/>
@@ -5866,7 +5870,7 @@
       <c r="AD43" s="110"/>
       <c r="AE43" s="110"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z44" s="110"/>
       <c r="AA44" s="110"/>
       <c r="AB44" s="110"/>
@@ -5874,7 +5878,7 @@
       <c r="AD44" s="110"/>
       <c r="AE44" s="110"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z45" s="110"/>
       <c r="AA45" s="110"/>
       <c r="AB45" s="110"/>
@@ -5882,7 +5886,7 @@
       <c r="AD45" s="110"/>
       <c r="AE45" s="110"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z46" s="110"/>
       <c r="AA46" s="110"/>
       <c r="AB46" s="110"/>
@@ -5890,7 +5894,7 @@
       <c r="AD46" s="110"/>
       <c r="AE46" s="110"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z47" s="110"/>
       <c r="AA47" s="110"/>
       <c r="AB47" s="110"/>
@@ -5898,7 +5902,7 @@
       <c r="AD47" s="110"/>
       <c r="AE47" s="110"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Z48" s="110"/>
       <c r="AA48" s="110"/>
       <c r="AB48" s="110"/>
@@ -5906,7 +5910,7 @@
       <c r="AD48" s="110"/>
       <c r="AE48" s="110"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z49" s="110"/>
       <c r="AA49" s="110"/>
       <c r="AB49" s="110"/>
@@ -5914,7 +5918,7 @@
       <c r="AD49" s="110"/>
       <c r="AE49" s="110"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z50" s="110"/>
       <c r="AA50" s="110"/>
       <c r="AB50" s="110"/>
@@ -5922,7 +5926,7 @@
       <c r="AD50" s="110"/>
       <c r="AE50" s="110"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z51" s="110"/>
       <c r="AA51" s="110"/>
       <c r="AB51" s="110"/>
@@ -5930,7 +5934,7 @@
       <c r="AD51" s="110"/>
       <c r="AE51" s="110"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z52" s="110"/>
       <c r="AA52" s="110"/>
       <c r="AB52" s="110"/>
@@ -5938,7 +5942,7 @@
       <c r="AD52" s="110"/>
       <c r="AE52" s="110"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z53" s="110"/>
       <c r="AA53" s="110"/>
       <c r="AB53" s="110"/>
@@ -5946,7 +5950,7 @@
       <c r="AD53" s="110"/>
       <c r="AE53" s="110"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z54" s="110"/>
       <c r="AA54" s="110"/>
       <c r="AB54" s="110"/>
@@ -5954,7 +5958,7 @@
       <c r="AD54" s="110"/>
       <c r="AE54" s="110"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z55" s="110"/>
       <c r="AA55" s="110"/>
       <c r="AB55" s="110"/>
@@ -5962,7 +5966,7 @@
       <c r="AD55" s="110"/>
       <c r="AE55" s="110"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z56" s="110"/>
       <c r="AA56" s="110"/>
       <c r="AB56" s="110"/>
@@ -5970,7 +5974,7 @@
       <c r="AD56" s="110"/>
       <c r="AE56" s="110"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z57" s="110"/>
       <c r="AA57" s="110"/>
       <c r="AB57" s="110"/>
@@ -5978,7 +5982,7 @@
       <c r="AD57" s="110"/>
       <c r="AE57" s="110"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z58" s="110"/>
       <c r="AA58" s="110"/>
       <c r="AB58" s="110"/>
@@ -5986,7 +5990,7 @@
       <c r="AD58" s="110"/>
       <c r="AE58" s="110"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z59" s="110"/>
       <c r="AA59" s="110"/>
       <c r="AB59" s="110"/>
@@ -5994,7 +5998,7 @@
       <c r="AD59" s="110"/>
       <c r="AE59" s="110"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z60" s="110"/>
       <c r="AA60" s="110"/>
       <c r="AB60" s="110"/>
@@ -6002,7 +6006,7 @@
       <c r="AD60" s="110"/>
       <c r="AE60" s="110"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z61" s="110"/>
       <c r="AA61" s="110"/>
       <c r="AB61" s="110"/>
@@ -6010,7 +6014,7 @@
       <c r="AD61" s="110"/>
       <c r="AE61" s="110"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z62" s="110"/>
       <c r="AA62" s="110"/>
       <c r="AB62" s="110"/>
@@ -6018,7 +6022,7 @@
       <c r="AD62" s="110"/>
       <c r="AE62" s="110"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z63" s="110"/>
       <c r="AA63" s="110"/>
       <c r="AB63" s="110"/>
@@ -6026,7 +6030,7 @@
       <c r="AD63" s="110"/>
       <c r="AE63" s="110"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z64" s="110"/>
       <c r="AA64" s="110"/>
       <c r="AB64" s="110"/>
@@ -6034,7 +6038,7 @@
       <c r="AD64" s="110"/>
       <c r="AE64" s="110"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z65" s="110"/>
       <c r="AA65" s="110"/>
       <c r="AB65" s="110"/>
@@ -6042,7 +6046,7 @@
       <c r="AD65" s="110"/>
       <c r="AE65" s="110"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z66" s="110"/>
       <c r="AA66" s="110"/>
       <c r="AB66" s="110"/>
@@ -6050,7 +6054,7 @@
       <c r="AD66" s="110"/>
       <c r="AE66" s="110"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z67" s="110"/>
       <c r="AA67" s="110"/>
       <c r="AB67" s="110"/>
@@ -6058,7 +6062,7 @@
       <c r="AD67" s="110"/>
       <c r="AE67" s="110"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z68" s="110"/>
       <c r="AA68" s="110"/>
       <c r="AB68" s="110"/>
@@ -6066,7 +6070,7 @@
       <c r="AD68" s="110"/>
       <c r="AE68" s="110"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z69" s="110"/>
       <c r="AA69" s="110"/>
       <c r="AB69" s="110"/>
@@ -6074,7 +6078,7 @@
       <c r="AD69" s="110"/>
       <c r="AE69" s="110"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z70" s="110"/>
       <c r="AA70" s="110"/>
       <c r="AB70" s="110"/>
@@ -6082,7 +6086,7 @@
       <c r="AD70" s="110"/>
       <c r="AE70" s="110"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z71" s="110"/>
       <c r="AA71" s="110"/>
       <c r="AB71" s="110"/>
@@ -6090,7 +6094,7 @@
       <c r="AD71" s="110"/>
       <c r="AE71" s="110"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.25">
       <c r="Z72" s="110"/>
       <c r="AA72" s="110"/>
       <c r="AB72" s="110"/>
@@ -6523,34 +6527,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6569,15 +6573,14 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="6.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -6597,7 +6600,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>106</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
@@ -6629,8 +6632,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>109</v>
       </c>
@@ -6650,10 +6653,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>112</v>
       </c>
@@ -6670,7 +6673,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>113</v>
       </c>
@@ -6689,7 +6692,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>115</v>
       </c>
@@ -6708,7 +6711,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
@@ -6733,19 +6736,19 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>117</v>
       </c>
@@ -6767,7 +6770,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>119</v>
       </c>
@@ -6788,7 +6791,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>120</v>
       </c>
@@ -6810,7 +6813,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>121</v>
       </c>
@@ -6829,7 +6832,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>122</v>
       </c>
@@ -6850,7 +6853,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>124</v>
       </c>
@@ -6872,7 +6875,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6883,7 +6886,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -6896,7 +6899,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -6913,7 +6916,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -6924,7 +6927,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -6935,7 +6938,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -6946,7 +6949,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>126</v>
       </c>
@@ -6969,7 +6972,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6977,7 +6980,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>128</v>
       </c>
@@ -7000,7 +7003,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
@@ -7023,7 +7026,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7034,7 +7037,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>132</v>
       </c>
@@ -7057,7 +7060,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>134</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>135</v>
       </c>
@@ -7096,25 +7099,25 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="179"/>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7127,7 +7130,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -7140,7 +7143,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -7153,7 +7156,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -7166,7 +7169,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -7179,7 +7182,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -7192,7 +7195,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -7205,7 +7208,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -7232,9 +7235,9 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>274</v>
       </c>
@@ -7276,7 +7279,7 @@
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
         <v>88</v>
       </c>
@@ -7287,7 +7290,7 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="197"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="I2" s="106"/>
@@ -7298,7 +7301,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
         <v>90</v>
       </c>
@@ -7309,7 +7312,7 @@
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="198"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
@@ -7332,7 +7335,7 @@
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="s">
         <v>210</v>
       </c>
@@ -7368,7 +7371,7 @@
       </c>
       <c r="O4" s="107"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>211</v>
       </c>
@@ -7379,7 +7382,7 @@
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="195"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7390,14 +7393,14 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
         <v>214</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="198"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
@@ -7420,7 +7423,7 @@
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
         <v>215</v>
       </c>
@@ -7440,14 +7443,14 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
         <v>212</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="197"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7458,14 +7461,14 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>213</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="198"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
@@ -7486,7 +7489,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="104" t="s">
         <v>238</v>
       </c>
@@ -7504,7 +7507,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>239</v>
       </c>
@@ -7534,7 +7537,7 @@
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>240</v>
       </c>
@@ -7564,7 +7567,7 @@
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>241</v>
       </c>
@@ -7594,7 +7597,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>242</v>
       </c>
@@ -7624,7 +7627,7 @@
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>243</v>
       </c>
@@ -7654,7 +7657,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>245</v>
       </c>
@@ -7684,7 +7687,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>248</v>
       </c>
@@ -7714,7 +7717,7 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>249</v>
       </c>
@@ -7744,7 +7747,7 @@
       </c>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>252</v>
       </c>
@@ -7766,7 +7769,7 @@
       <c r="N19" s="108"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>244</v>
       </c>
@@ -7784,7 +7787,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>246</v>
       </c>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>247</v>
       </c>
@@ -7832,7 +7835,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>250</v>
       </c>
@@ -7858,7 +7861,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>251</v>
       </c>
@@ -7884,7 +7887,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7908,7 +7911,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7932,7 +7935,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7948,7 +7951,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7964,7 +7967,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7980,7 +7983,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7996,7 +7999,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -8006,7 +8009,7 @@
       <c r="G31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -8016,7 +8019,7 @@
       <c r="G32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -8026,7 +8029,7 @@
       <c r="G33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -8036,7 +8039,7 @@
       <c r="G34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O35" s="15"/>
     </row>
   </sheetData>
@@ -8058,22 +8061,22 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="4.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" customWidth="1"/>
-    <col min="9" max="9" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
@@ -8116,7 +8119,7 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>13</v>
       </c>
@@ -8162,7 +8165,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
@@ -8208,7 +8211,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
@@ -8248,7 +8251,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>311</v>
       </c>
@@ -8284,7 +8287,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>33</v>
       </c>
@@ -8316,7 +8319,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>224</v>
       </c>
@@ -8350,7 +8353,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>40</v>
       </c>
@@ -8386,7 +8389,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>184</v>
       </c>
@@ -8416,7 +8419,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8449,7 +8452,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
@@ -8480,7 +8483,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -8504,7 +8507,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>69</v>
       </c>
@@ -8534,7 +8537,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -8560,7 +8563,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -8592,7 +8595,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -8620,7 +8623,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>93</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>95</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>216</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>217</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>218</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>219</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -8790,7 +8793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -8809,7 +8812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -8826,7 +8829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -8843,7 +8846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -8862,7 +8865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -8872,7 +8875,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9285,17 +9288,17 @@
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="3.54296875" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>147</v>
       </c>
@@ -9316,7 +9319,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>136</v>
       </c>
@@ -9355,7 +9358,7 @@
       </c>
       <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -9372,7 +9375,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -9411,7 +9414,7 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -9450,7 +9453,7 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -9475,7 +9478,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -9500,7 +9503,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -9525,7 +9528,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
@@ -9546,7 +9549,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -9563,7 +9566,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9587,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -9601,7 +9604,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>173</v>
       </c>
@@ -9624,7 +9627,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>175</v>
       </c>
@@ -9649,7 +9652,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -9670,7 +9673,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>178</v>
       </c>
@@ -9695,7 +9698,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>181</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -9739,7 +9742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>90</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -9767,7 +9770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>155</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -9799,7 +9802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -9863,7 +9866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -9875,7 +9878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -9887,7 +9890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -9899,7 +9902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -9911,7 +9914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -9931,12 +9934,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.453125" customWidth="1"/>
+    <col min="1" max="1" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>182</v>
       </c>
@@ -9955,18 +9958,18 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -10030,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>86</v>
       </c>
@@ -10170,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>206</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -10238,7 +10241,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -10271,7 +10274,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>196</v>
       </c>
@@ -10305,7 +10308,7 @@
       <c r="J10" s="100"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>197</v>
       </c>
@@ -10338,7 +10341,7 @@
       <c r="J11" s="100"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>262</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>69</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>88</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
         <v>90</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>Leicht</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
         <v>210</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>211</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>Mittel</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>214</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
         <v>215</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
         <v>212</v>
       </c>
@@ -10816,7 +10819,7 @@
         <v>Plötze</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>213</v>
       </c>
@@ -10826,7 +10829,7 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
         <v>265</v>
       </c>
@@ -10836,10 +10839,10 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
     </row>
   </sheetData>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F427F39-770E-4204-B04B-D77F55528976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A82132-EB57-40A9-9624-8855F11AF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="314">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>Mensch</t>
-  </si>
-  <si>
     <t>Atributpunkte</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
   </si>
   <si>
     <t>Contacts:</t>
-  </si>
-  <si>
-    <t>Points: cha+exp+luck</t>
   </si>
   <si>
     <t>Int*2</t>
@@ -1994,6 +1988,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2061,7 +2056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4062,8 +4056,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,23 +4094,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="149" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E1" s="151"/>
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
       <c r="H1" s="152"/>
-      <c r="J1" s="178" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="J1" s="179" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
       <c r="Q1" s="151" t="s">
         <v>4</v>
       </c>
@@ -4136,7 +4130,7 @@
       </c>
       <c r="X1" s="151"/>
       <c r="Z1" s="155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA1" s="155" t="s">
         <v>9</v>
@@ -4147,7 +4141,7 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="113" t="s">
         <v>12</v>
@@ -4163,11 +4157,11 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="110"/>
-      <c r="J2" s="179">
+      <c r="J2" s="180">
         <v>100</v>
       </c>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="110"/>
       <c r="N2" s="110"/>
       <c r="O2" s="110"/>
@@ -4180,12 +4174,12 @@
         <v>12</v>
       </c>
       <c r="S2" s="160"/>
-      <c r="T2" s="183" t="s">
+      <c r="T2" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="186"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="156"/>
       <c r="AA2" s="156" t="s">
@@ -4258,7 +4252,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="121"/>
@@ -4311,7 +4305,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="121">
         <v>15</v>
@@ -4332,7 +4326,7 @@
       <c r="O5" s="110"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R5" s="83">
         <f>CharacterSheet!B5+S5</f>
@@ -4418,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="114"/>
       <c r="G7" s="114"/>
@@ -4432,7 +4426,7 @@
       <c r="O7" s="110"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R7" s="87">
         <f>CharacterSheet!B7+S7</f>
@@ -4440,13 +4434,13 @@
       </c>
       <c r="S7" s="161"/>
       <c r="T7" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W7" s="48">
         <f>CharacterSheet!I6</f>
@@ -4465,7 +4459,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="130">
         <v>10.5</v>
@@ -4546,7 +4540,7 @@
       <c r="O9" s="129"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R9" s="93">
         <f>CharacterSheet!B9+S9</f>
@@ -4648,7 +4642,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="130">
         <v>10.5</v>
@@ -4678,12 +4672,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="161"/>
-      <c r="T11" s="189" t="s">
+      <c r="T11" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="192"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="172" t="s">
         <v>54</v>
@@ -4702,7 +4696,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="134">
         <v>10.5</v>
@@ -4725,7 +4719,7 @@
       <c r="O12" s="131"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R12" s="94">
         <f>ROUNDUP((R7+R5)/2,0)</f>
@@ -4798,7 +4792,7 @@
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="176" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA13" s="172" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
@@ -4826,7 +4820,7 @@
       <c r="N14" s="110"/>
       <c r="O14" s="131"/>
       <c r="P14" s="110"/>
-      <c r="Q14" s="186" t="s">
+      <c r="Q14" s="187" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="110"/>
@@ -4871,7 +4865,7 @@
       <c r="N15" s="110"/>
       <c r="O15" s="131"/>
       <c r="P15" s="110"/>
-      <c r="Q15" s="187"/>
+      <c r="Q15" s="188"/>
       <c r="R15" s="110"/>
       <c r="S15" s="111"/>
       <c r="T15" s="49" t="s">
@@ -4881,7 +4875,7 @@
         <v>36</v>
       </c>
       <c r="V15" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W15" s="50">
         <f>CharacterSheet!I13</f>
@@ -4923,15 +4917,15 @@
       <c r="N16" s="110"/>
       <c r="O16" s="131"/>
       <c r="P16" s="110"/>
-      <c r="Q16" s="188"/>
+      <c r="Q16" s="189"/>
       <c r="R16" s="110"/>
       <c r="S16" s="112"/>
-      <c r="T16" s="183" t="s">
+      <c r="T16" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="186"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="135" t="s">
         <v>66</v>
@@ -4954,7 +4948,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="178">
         <f>B17+C17</f>
         <v>12</v>
       </c>
@@ -4982,7 +4976,7 @@
         <v>65</v>
       </c>
       <c r="V17" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W17" s="46">
         <f>CharacterSheet!I14</f>
@@ -5132,7 +5126,7 @@
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="167" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="167">
         <f>CharacterSheet!B19</f>
@@ -5189,7 +5183,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="167">
         <f>CharacterSheet!B20</f>
@@ -5230,7 +5224,7 @@
         <v>86</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W21" s="48">
         <f>CharacterSheet!I18</f>
@@ -5246,7 +5240,7 @@
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="167" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" s="167">
         <f>CharacterSheet!B21</f>
@@ -5286,7 +5280,7 @@
         <v>89</v>
       </c>
       <c r="U22" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V22" s="84" t="s">
         <v>80</v>
@@ -5305,7 +5299,7 @@
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="167" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="167">
         <f>CharacterSheet!B22</f>
@@ -5339,12 +5333,12 @@
       </c>
       <c r="R23" s="120"/>
       <c r="S23" s="112"/>
-      <c r="T23" s="183" t="s">
+      <c r="T23" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="186"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="110"/>
       <c r="AA23" s="110"/>
@@ -5397,16 +5391,16 @@
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="168" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" s="142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="142" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E25" s="110" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5473,12 +5467,12 @@
       <c r="Q26" s="110"/>
       <c r="R26" s="110"/>
       <c r="S26" s="112"/>
-      <c r="T26" s="183" t="s">
+      <c r="T26" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="184"/>
-      <c r="V26" s="184"/>
-      <c r="W26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="186"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="110"/>
       <c r="AA26" s="110"/>
@@ -5551,13 +5545,13 @@
       <c r="F28" s="110"/>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
-      <c r="I28" s="192" t="s">
-        <v>254</v>
-      </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
+      <c r="I28" s="193" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="195"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110"/>
       <c r="P28" s="110"/>
@@ -5594,13 +5588,13 @@
       <c r="F29" s="110"/>
       <c r="G29" s="146"/>
       <c r="H29" s="146"/>
-      <c r="I29" s="180" t="s">
-        <v>286</v>
-      </c>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="182"/>
+      <c r="I29" s="181" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="183"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
@@ -5614,7 +5608,7 @@
         <v>86</v>
       </c>
       <c r="V29" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W29" s="50">
         <f>CharacterSheet!I24</f>
@@ -5656,12 +5650,12 @@
       <c r="Q30" s="110"/>
       <c r="R30" s="110"/>
       <c r="S30" s="112"/>
-      <c r="T30" s="183" t="s">
+      <c r="T30" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="186"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="110"/>
       <c r="AA30" s="110"/>
@@ -5694,7 +5688,7 @@
         <v>102</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V31" s="56"/>
       <c r="W31" s="46">
@@ -5730,10 +5724,10 @@
       <c r="R32" s="110"/>
       <c r="S32" s="111"/>
       <c r="T32" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V32" s="38"/>
       <c r="W32" s="48">
@@ -5772,7 +5766,7 @@
         <v>103</v>
       </c>
       <c r="U33" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V33" s="57"/>
       <c r="W33" s="50">
@@ -6531,12 +6525,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -6546,17 +6540,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7239,28 +7233,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="D1" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="E1" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="F1" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>279</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" s="105" t="s">
         <v>110</v>
@@ -7285,12 +7279,12 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="195"/>
+      <c r="E2" s="196"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="I2" s="106"/>
@@ -7307,12 +7301,12 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="22" t="s">
@@ -7337,22 +7331,22 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J4" s="15">
         <v>22500</v>
@@ -7367,22 +7361,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O4" s="107"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="195"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="I5" s="15"/>
@@ -7395,16 +7389,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="196"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="I6" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>110</v>
@@ -7425,13 +7419,13 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7445,12 +7439,12 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="195"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="I8" s="15"/>
@@ -7463,12 +7457,12 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="196"/>
+      <c r="E9" s="197"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="I9" s="22" t="s">
@@ -7491,7 +7485,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
@@ -7509,7 +7503,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -7533,13 +7527,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -7548,7 +7542,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J12" s="15">
         <f>900*M12</f>
@@ -7563,13 +7557,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -7578,7 +7572,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13" s="15">
         <f>420*M13</f>
@@ -7593,13 +7587,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -7608,7 +7602,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J14" s="15">
         <f>900*M14</f>
@@ -7623,13 +7617,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -7638,7 +7632,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J15" s="15">
         <f>5000*M15</f>
@@ -7653,13 +7647,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -7668,7 +7662,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J16" s="15">
         <f>5000*M16</f>
@@ -7683,13 +7677,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -7698,7 +7692,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J17" s="15">
         <f>3000*M17</f>
@@ -7713,13 +7707,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -7728,7 +7722,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J18" s="15">
         <f>2000*M18</f>
@@ -7743,13 +7737,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -7758,7 +7752,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J19" s="15">
         <v>4200</v>
@@ -7771,7 +7765,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -7789,7 +7783,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -7798,7 +7792,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="I21" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>110</v>
@@ -7819,7 +7813,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -7837,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -7846,7 +7840,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J23" s="15">
         <v>50</v>
@@ -7863,7 +7857,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="21"/>
@@ -7896,7 +7890,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J25" s="15">
         <v>400</v>
@@ -8057,8 +8051,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8066,7 +8060,7 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
@@ -8080,14 +8074,12 @@
       <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>6</v>
@@ -8097,7 +8089,7 @@
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>8</v>
@@ -8107,16 +8099,11 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="15">
-        <f>B4+B7+B8+B9</f>
-        <v>34</v>
-      </c>
+      <c r="O1" s="15"/>
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8149,7 +8136,7 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>69</v>
@@ -8253,7 +8240,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="74">
         <v>13</v>
@@ -8299,13 +8286,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="70">
@@ -8321,7 +8308,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="67">
         <v>12</v>
@@ -8391,7 +8378,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="75">
         <v>5</v>
@@ -8512,7 +8499,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -8523,7 +8510,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="71">
@@ -8637,10 +8624,10 @@
         <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="70">
@@ -8664,7 +8651,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -8675,7 +8662,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8685,16 +8672,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="71">
@@ -8703,7 +8690,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
@@ -8730,7 +8717,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
@@ -8754,14 +8741,14 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="34">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="45" t="s">
@@ -8805,7 +8792,7 @@
         <v>86</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="71">
@@ -8821,7 +8808,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="7"/>
@@ -8835,10 +8822,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="67"/>
       <c r="H26" s="7"/>
@@ -8855,7 +8842,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="68"/>
       <c r="H27" s="22">
@@ -8889,6 +8876,7 @@
       <c r="I30" s="15"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F3:G4 F6:G6">
     <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
@@ -9300,12 +9288,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -9324,37 +9312,37 @@
         <v>136</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="M2" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="91" t="s">
+      <c r="N2" s="79" t="s">
         <v>152</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>154</v>
       </c>
       <c r="O2" s="24"/>
     </row>
@@ -9377,14 +9365,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -9392,10 +9380,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -9410,20 +9398,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -9431,10 +9419,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -9449,20 +9437,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -9480,14 +9468,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -9505,14 +9493,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -9530,7 +9518,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -9571,7 +9559,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -9606,7 +9594,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -9614,7 +9602,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -9629,7 +9617,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -9637,7 +9625,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -9654,7 +9642,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -9675,7 +9663,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -9683,10 +9671,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9700,7 +9688,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -9716,7 +9704,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -9747,7 +9735,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -9772,7 +9760,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -9788,7 +9776,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -9804,7 +9792,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -9820,7 +9808,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -9836,7 +9824,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -9852,7 +9840,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -9941,7 +9929,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9971,31 +9959,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F1" s="95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" s="100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H1" s="100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I1" s="100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10015,14 +10003,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -10050,14 +10038,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H3" s="15">
         <f>Status!C27</f>
@@ -10085,14 +10073,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" s="15">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="15">
         <f>Status!C28</f>
@@ -10120,14 +10108,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" s="15">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -10155,14 +10143,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F6" s="15">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -10175,7 +10163,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -10190,14 +10178,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" s="15">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H7" s="15">
         <f>Status!D3</f>
@@ -10226,14 +10214,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" s="15">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H8" s="15">
         <f>Status!D4</f>
@@ -10259,14 +10247,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" s="15">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="100" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H9" s="15">
         <f>Status!D5</f>
@@ -10276,7 +10264,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -10291,14 +10279,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="15" t="str">
+        <v>201</v>
+      </c>
+      <c r="F10" s="15">
         <f>CharacterSheet!B1</f>
-        <v>Mensch</v>
+        <v>0</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -10310,7 +10298,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -10325,13 +10313,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H11" s="15">
         <f>Status!D9</f>
@@ -10343,7 +10331,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <f>Inventar!G22</f>
@@ -10358,13 +10346,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="15">
         <f>Status!D10</f>
@@ -10373,7 +10361,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13">
         <f>Inventar!G19</f>
@@ -10388,14 +10376,14 @@
         <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="15">
         <f>Status!D11</f>
@@ -10404,7 +10392,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="15">
         <f>Status!AA11</f>
@@ -10419,14 +10407,14 @@
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="15">
         <f>Status!D12</f>
@@ -10435,7 +10423,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" t="str">
         <f>Status!AA13</f>
@@ -10450,14 +10438,14 @@
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="15">
         <f>Status!B4</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H15">
         <f>Status!E8</f>
@@ -10466,7 +10454,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16">
         <f>Status!R12</f>
@@ -10488,7 +10476,7 @@
         <v>Leichter Schild</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H16" s="15">
         <f>Status!E9</f>
@@ -10497,7 +10485,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -10512,14 +10500,14 @@
         <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F17" s="15">
         <f>Status!C2</f>
         <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H17" s="15">
         <f>Status!E10</f>
@@ -10528,7 +10516,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -10543,14 +10531,14 @@
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H18" s="15">
         <f>Status!E11</f>
@@ -10559,7 +10547,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
@@ -10574,14 +10562,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="15">
         <f>Status!C4</f>
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H19" s="15">
         <f>Status!E12</f>
@@ -10605,14 +10593,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F20" s="15">
         <f>Status!C5</f>
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H20" t="str">
         <f>Status!B8</f>
@@ -10636,14 +10624,14 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="13">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" s="15" t="str">
         <f>Status!B9</f>
@@ -10675,7 +10663,7 @@
         <v>10.5</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H22" s="15" t="str">
         <f>Status!B10</f>
@@ -10684,7 +10672,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="15">
         <f>Status!D18</f>
@@ -10707,7 +10695,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H23" s="15" t="str">
         <f>Status!B11</f>
@@ -10716,7 +10704,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" s="15">
         <f>Status!D19</f>
@@ -10739,7 +10727,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="15" t="str">
         <f>Status!B12</f>
@@ -10748,7 +10736,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" s="15">
         <f>Status!D20</f>
@@ -10773,14 +10761,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26" s="15">
         <f>Status!D21</f>
         <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
@@ -10797,7 +10785,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="15">
         <f>Status!D22</f>
@@ -10812,7 +10800,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F27" t="str">
         <f>Status!I29</f>
@@ -10821,7 +10809,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" s="15">
         <f>Status!D23</f>
@@ -10831,7 +10819,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A82132-EB57-40A9-9624-8855F11AF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7130AE3F-412C-4791-948E-EFFB2C9FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -1707,25 +1707,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1742,10 +1737,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1779,13 +1772,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1795,15 +1783,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2055,6 +2040,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4065,8 +4107,8 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="11" customWidth="1"/>
     <col min="6" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
@@ -4078,2023 +4120,2023 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="41" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="34" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="15" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="5" customWidth="1"/>
     <col min="25" max="25" width="3.5703125" customWidth="1"/>
     <col min="26" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:31" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="152"/>
-      <c r="J1" s="179" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="J1" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="Q1" s="151" t="s">
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="151"/>
-      <c r="S1" s="154" t="s">
+      <c r="R1" s="136"/>
+      <c r="S1" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="155" t="s">
+      <c r="T1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="155" t="s">
+      <c r="U1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155" t="s">
+      <c r="V1" s="140"/>
+      <c r="W1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="151"/>
-      <c r="Z1" s="155" t="s">
+      <c r="X1" s="136"/>
+      <c r="Z1" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" s="155" t="s">
+      <c r="AA1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="155" t="s">
+      <c r="AB1" s="140" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="98">
         <v>42</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="98">
         <v>2</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="180">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="165">
         <v>100</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="45" t="s">
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="62">
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="160"/>
-      <c r="T2" s="184" t="s">
+      <c r="S2" s="145"/>
+      <c r="T2" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="186"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156" t="s">
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="171"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="110" t="s">
+      <c r="AB2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="121">
+      <c r="C3" s="106">
         <v>12</v>
       </c>
-      <c r="D3" s="121">
+      <c r="D3" s="106">
         <v>1</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="47" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="60">
+      <c r="R3" s="53">
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="161"/>
-      <c r="T3" s="92" t="s">
+      <c r="S3" s="146"/>
+      <c r="T3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="109">
+      <c r="W3" s="94">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="110" t="s">
+      <c r="AB3" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="47" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="63">
         <f>CharacterSheet!B4+B4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="161"/>
-      <c r="T4" s="47" t="s">
+      <c r="S4" s="146"/>
+      <c r="T4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="48">
+      <c r="W4" s="41">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="110" t="s">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="106">
         <v>15</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="106">
         <v>1</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="47" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="69">
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="161"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="146"/>
+      <c r="T5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="48">
+      <c r="V5" s="32"/>
+      <c r="W5" s="41">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="47" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="58">
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="161"/>
-      <c r="T6" s="47" t="s">
+      <c r="S6" s="146"/>
+      <c r="T6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="41">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="86" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="R7" s="87">
+      <c r="R7" s="73">
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="47" t="s">
+      <c r="S7" s="146"/>
+      <c r="T7" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="W7" s="48">
+      <c r="W7" s="41">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="115">
         <v>10.5</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="95">
         <v>7</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="99">
         <v>1</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="45" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="88">
+      <c r="R8" s="74">
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="161"/>
-      <c r="T8" s="47" t="s">
+      <c r="S8" s="146"/>
+      <c r="T8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="48">
+      <c r="W8" s="41">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="175" t="s">
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="115">
         <v>6</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="95">
         <v>7</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="95">
         <v>1</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="92" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="R9" s="93">
+      <c r="R9" s="78">
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="161"/>
-      <c r="T9" s="47" t="s">
+      <c r="S9" s="146"/>
+      <c r="T9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="48">
+      <c r="W9" s="41">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="172" t="s">
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="172">
+      <c r="AA9" s="157">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="115">
         <v>6</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="95">
         <v>7</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="95">
         <v>1</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="114"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="47" t="s">
+      <c r="L10" s="99"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="64">
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="161">
+      <c r="S10" s="146">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="50">
+      <c r="V10" s="37"/>
+      <c r="W10" s="43">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="172" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="172">
+      <c r="AA10" s="157">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="115">
         <v>10.5</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="95">
         <v>7</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="95">
         <v>1</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="47" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="65">
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="161"/>
-      <c r="T11" s="190" t="s">
+      <c r="S11" s="146"/>
+      <c r="T11" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="192"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="172" t="s">
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="177"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="172">
+      <c r="AA11" s="157">
         <f>R2*4</f>
         <v>48</v>
       </c>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="119">
         <v>10.5</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="110">
         <v>7</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="110">
         <v>1</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="78" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="94">
+      <c r="R12" s="79">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="161"/>
-      <c r="T12" s="45" t="s">
+      <c r="S12" s="146"/>
+      <c r="T12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="U12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="42" t="s">
+      <c r="V12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12" s="39">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="172" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="AA12" s="172">
+      <c r="AA12" s="157">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136">
+      <c r="B13" s="120"/>
+      <c r="C13" s="121">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="47" t="s">
+      <c r="L13" s="99"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="48">
+      <c r="V13" s="29"/>
+      <c r="W13" s="41">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="176" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="AA13" s="172" t="str">
+      <c r="AA13" s="157" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
     </row>
     <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="187" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="110"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="47" t="s">
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="48">
+      <c r="V14" s="29"/>
+      <c r="W14" s="41">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="135" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="49" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="43">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="163">
+      <c r="B16" s="148">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="167">
+      <c r="D16" s="152">
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="184" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="169" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="186"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="135" t="s">
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="171"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="165">
+      <c r="B17" s="150">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="178">
+      <c r="D17" s="163">
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="113">
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="98">
         <v>0</v>
       </c>
-      <c r="R17" s="110"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="45" t="s">
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="51" t="s">
+      <c r="U17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="V17" s="51" t="s">
+      <c r="V17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="39">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="158" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="AA17" s="159" t="s">
+      <c r="AA17" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="159" t="s">
+      <c r="AB17" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="AC17" s="159" t="s">
+      <c r="AC17" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="166">
+      <c r="B18" s="151">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="152">
         <f>B18+C18</f>
         <v>55</v>
       </c>
-      <c r="E18" s="110" t="str">
+      <c r="E18" s="95" t="str">
         <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="119" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="120" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="47" t="s">
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U18" s="40" t="s">
+      <c r="U18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="48">
+      <c r="V18" s="33"/>
+      <c r="W18" s="41">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="110" t="s">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="AA18" s="110">
+      <c r="AA18" s="95">
         <v>3</v>
       </c>
-      <c r="AB18" s="110">
+      <c r="AB18" s="95">
         <v>5</v>
       </c>
-      <c r="AC18" s="110" t="s">
+      <c r="AC18" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="167" t="s">
+      <c r="A19" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="167">
+      <c r="B19" s="152">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="167">
+      <c r="D19" s="152">
         <f>B19+C19</f>
         <v>193</v>
       </c>
-      <c r="E19" s="110" t="str">
+      <c r="E19" s="95" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="47" t="s">
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="40" t="s">
+      <c r="U19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="48">
+      <c r="V19" s="33"/>
+      <c r="W19" s="41">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="110" t="s">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="AA19" s="110">
+      <c r="AA19" s="95">
         <v>4</v>
       </c>
-      <c r="AB19" s="110">
+      <c r="AB19" s="95">
         <v>2</v>
       </c>
-      <c r="AC19" s="110" t="s">
+      <c r="AC19" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="167">
+      <c r="B20" s="152">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="167">
+      <c r="D20" s="152">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
-      <c r="E20" s="110" t="str">
+      <c r="E20" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="47" t="s">
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="41">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="141" t="s">
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="152" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="167">
+      <c r="B21" s="152">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="C21" s="138">
+      <c r="C21" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="167">
+      <c r="D21" s="152">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E21" s="110" t="str">
+      <c r="E21" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="115" t="s">
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="116"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="47" t="s">
+      <c r="R21" s="101"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="W21" s="48">
+      <c r="W21" s="41">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="152" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="167">
+      <c r="B22" s="152">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="167">
+      <c r="D22" s="152">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E22" s="110" t="str">
+      <c r="E22" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="140" t="s">
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="118"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="117" t="s">
+      <c r="J22" s="103"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="118"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="49" t="s">
+      <c r="R22" s="103"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="V22" s="84" t="s">
+      <c r="V22" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="43">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="152" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="167">
+      <c r="B23" s="152">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="123">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="167">
+      <c r="D23" s="152">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E23" s="110" t="str">
+      <c r="E23" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="119" t="s">
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="120"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="184" t="s">
+      <c r="R23" s="105"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="186"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="171"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110" t="str">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="45" t="s">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="U24" s="53" t="s">
+      <c r="U24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="85"/>
-      <c r="W24" s="46">
+      <c r="V24" s="71"/>
+      <c r="W24" s="39">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="110" t="str">
+      <c r="E25" s="95" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="49" t="s">
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U25" s="52" t="s">
+      <c r="U25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="V25" s="84"/>
-      <c r="W25" s="50">
+      <c r="V25" s="70"/>
+      <c r="W25" s="43">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="144">
+      <c r="C26" s="129">
         <v>10</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="129">
         <v>1</v>
       </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="184" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="186"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="171"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170" t="s">
+      <c r="A27" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C27" s="130">
         <v>5</v>
       </c>
-      <c r="D27" s="145">
+      <c r="D27" s="130">
         <v>1</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="45" t="s">
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="U27" s="54" t="s">
+      <c r="U27" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="V27" s="55"/>
-      <c r="W27" s="46">
+      <c r="V27" s="48"/>
+      <c r="W27" s="39">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="145">
+      <c r="C28" s="130">
         <v>7</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="130">
         <v>1</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="193" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="47" t="s">
+      <c r="J28" s="179"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="U28" s="37" t="s">
+      <c r="U28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="48">
+      <c r="V28" s="10"/>
+      <c r="W28" s="41">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="181" t="s">
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="166" t="s">
         <v>284</v>
       </c>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="49" t="s">
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="U29" s="43" t="s">
+      <c r="U29" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="V29" s="43" t="s">
+      <c r="V29" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="43">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="130">
         <v>7</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="130">
         <v>1</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="184" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="186"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="171"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="45" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="U31" s="56" t="s">
+      <c r="U31" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="V31" s="56"/>
-      <c r="W31" s="46">
+      <c r="V31" s="49"/>
+      <c r="W31" s="39">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="47" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="U32" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="V32" s="38"/>
-      <c r="W32" s="48">
+      <c r="V32" s="31"/>
+      <c r="W32" s="41">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="147"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="49" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="U33" s="57" t="s">
+      <c r="U33" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="V33" s="57"/>
-      <c r="W33" s="50">
+      <c r="V33" s="50"/>
+      <c r="W33" s="43">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="110"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="110"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="110"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z42" s="110"/>
-      <c r="AA42" s="110"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="110"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="110"/>
-      <c r="AD43" s="110"/>
-      <c r="AE43" s="110"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="95"/>
+      <c r="AD46" s="95"/>
+      <c r="AE46" s="95"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="95"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
+      <c r="Z48" s="95"/>
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="95"/>
+      <c r="AE48" s="95"/>
     </row>
     <row r="49" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z49" s="110"/>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="110"/>
-      <c r="AE49" s="110"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
+      <c r="AE49" s="95"/>
     </row>
     <row r="50" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
+      <c r="AC50" s="95"/>
+      <c r="AD50" s="95"/>
+      <c r="AE50" s="95"/>
     </row>
     <row r="51" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
     </row>
     <row r="52" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="110"/>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
     </row>
     <row r="53" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="95"/>
+      <c r="AD53" s="95"/>
+      <c r="AE53" s="95"/>
     </row>
     <row r="54" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z54" s="110"/>
-      <c r="AA54" s="110"/>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
     </row>
     <row r="55" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z55" s="110"/>
-      <c r="AA55" s="110"/>
-      <c r="AB55" s="110"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="110"/>
-      <c r="AE55" s="110"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="95"/>
+      <c r="AE55" s="95"/>
     </row>
     <row r="56" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z56" s="110"/>
-      <c r="AA56" s="110"/>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
+      <c r="Z56" s="95"/>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="95"/>
+      <c r="AD56" s="95"/>
+      <c r="AE56" s="95"/>
     </row>
     <row r="57" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z57" s="110"/>
-      <c r="AA57" s="110"/>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95"/>
     </row>
     <row r="58" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95"/>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95"/>
     </row>
     <row r="59" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="110"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
+      <c r="AC59" s="95"/>
+      <c r="AD59" s="95"/>
+      <c r="AE59" s="95"/>
     </row>
     <row r="60" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="110"/>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="95"/>
+      <c r="AD60" s="95"/>
+      <c r="AE60" s="95"/>
     </row>
     <row r="61" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z61" s="110"/>
-      <c r="AA61" s="110"/>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
+      <c r="Z61" s="95"/>
+      <c r="AA61" s="95"/>
+      <c r="AB61" s="95"/>
+      <c r="AC61" s="95"/>
+      <c r="AD61" s="95"/>
+      <c r="AE61" s="95"/>
     </row>
     <row r="62" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z62" s="110"/>
-      <c r="AA62" s="110"/>
-      <c r="AB62" s="110"/>
-      <c r="AC62" s="110"/>
-      <c r="AD62" s="110"/>
-      <c r="AE62" s="110"/>
+      <c r="Z62" s="95"/>
+      <c r="AA62" s="95"/>
+      <c r="AB62" s="95"/>
+      <c r="AC62" s="95"/>
+      <c r="AD62" s="95"/>
+      <c r="AE62" s="95"/>
     </row>
     <row r="63" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z63" s="110"/>
-      <c r="AA63" s="110"/>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
+      <c r="Z63" s="95"/>
+      <c r="AA63" s="95"/>
+      <c r="AB63" s="95"/>
+      <c r="AC63" s="95"/>
+      <c r="AD63" s="95"/>
+      <c r="AE63" s="95"/>
     </row>
     <row r="64" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z64" s="110"/>
-      <c r="AA64" s="110"/>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="110"/>
-      <c r="AE64" s="110"/>
+      <c r="Z64" s="95"/>
+      <c r="AA64" s="95"/>
+      <c r="AB64" s="95"/>
+      <c r="AC64" s="95"/>
+      <c r="AD64" s="95"/>
+      <c r="AE64" s="95"/>
     </row>
     <row r="65" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z65" s="110"/>
-      <c r="AA65" s="110"/>
-      <c r="AB65" s="110"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="110"/>
-      <c r="AE65" s="110"/>
+      <c r="Z65" s="95"/>
+      <c r="AA65" s="95"/>
+      <c r="AB65" s="95"/>
+      <c r="AC65" s="95"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="95"/>
     </row>
     <row r="66" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z66" s="110"/>
-      <c r="AA66" s="110"/>
-      <c r="AB66" s="110"/>
-      <c r="AC66" s="110"/>
-      <c r="AD66" s="110"/>
-      <c r="AE66" s="110"/>
+      <c r="Z66" s="95"/>
+      <c r="AA66" s="95"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="95"/>
     </row>
     <row r="67" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z67" s="110"/>
-      <c r="AA67" s="110"/>
-      <c r="AB67" s="110"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="110"/>
-      <c r="AE67" s="110"/>
+      <c r="Z67" s="95"/>
+      <c r="AA67" s="95"/>
+      <c r="AB67" s="95"/>
+      <c r="AC67" s="95"/>
+      <c r="AD67" s="95"/>
+      <c r="AE67" s="95"/>
     </row>
     <row r="68" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z68" s="110"/>
-      <c r="AA68" s="110"/>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
+      <c r="Z68" s="95"/>
+      <c r="AA68" s="95"/>
+      <c r="AB68" s="95"/>
+      <c r="AC68" s="95"/>
+      <c r="AD68" s="95"/>
+      <c r="AE68" s="95"/>
     </row>
     <row r="69" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z69" s="110"/>
-      <c r="AA69" s="110"/>
-      <c r="AB69" s="110"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="110"/>
-      <c r="AE69" s="110"/>
+      <c r="Z69" s="95"/>
+      <c r="AA69" s="95"/>
+      <c r="AB69" s="95"/>
+      <c r="AC69" s="95"/>
+      <c r="AD69" s="95"/>
+      <c r="AE69" s="95"/>
     </row>
     <row r="70" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z70" s="110"/>
-      <c r="AA70" s="110"/>
-      <c r="AB70" s="110"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="110"/>
-      <c r="AE70" s="110"/>
+      <c r="Z70" s="95"/>
+      <c r="AA70" s="95"/>
+      <c r="AB70" s="95"/>
+      <c r="AC70" s="95"/>
+      <c r="AD70" s="95"/>
+      <c r="AE70" s="95"/>
     </row>
     <row r="71" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z71" s="110"/>
-      <c r="AA71" s="110"/>
-      <c r="AB71" s="110"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="110"/>
-      <c r="AE71" s="110"/>
+      <c r="Z71" s="95"/>
+      <c r="AA71" s="95"/>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="95"/>
+      <c r="AD71" s="95"/>
+      <c r="AE71" s="95"/>
     </row>
     <row r="72" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z72" s="110"/>
-      <c r="AA72" s="110"/>
-      <c r="AB72" s="110"/>
-      <c r="AC72" s="110"/>
-      <c r="AD72" s="110"/>
-      <c r="AE72" s="110"/>
+      <c r="Z72" s="95"/>
+      <c r="AA72" s="95"/>
+      <c r="AB72" s="95"/>
+      <c r="AC72" s="95"/>
+      <c r="AD72" s="95"/>
+      <c r="AE72" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6523,8 +6565,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6575,506 +6617,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="11">
         <v>30000</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="11">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>5000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>30</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>2250</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>3000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>25</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>2000</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>1.25</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="80" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>2000</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>1.25</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="7">
+      <c r="E16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="5">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>3000</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>10.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>3000</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>10.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>3000</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>10.5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <f>SUM(D8:D115)</f>
         <v>19.5</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <f>SUM(D6:D25)</f>
         <v>15.5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <f>ROUND(G22/5,0)</f>
         <v>3</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="11">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="11">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>100</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <v>500</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7098,122 +7140,122 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7232,809 +7274,809 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="22" t="s">
+      <c r="E3" s="182"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>22500</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>34</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="107"/>
+      <c r="O4" s="92"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="196"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="I6" s="22" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="22" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <f>420*M11</f>
         <v>1680</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <f>0.5*M11</f>
         <v>2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="11">
         <v>4</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="O11" s="15"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <f>900*M12</f>
         <v>3600</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <f t="shared" ref="L12:L18" si="0">0.5*M12</f>
         <v>2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="11">
         <v>4</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="O12" s="15"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <f>420*M13</f>
         <v>1680</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <f>900*M14</f>
         <v>3600</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="11">
         <v>4</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <f>5000*M15</f>
         <v>10000</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="11">
         <v>2</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <f>5000*M16</f>
         <v>15000</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="11">
         <v>3</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="11">
         <f>3000*M17</f>
         <v>3000</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="11">
         <v>1</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <f>2000*M18</f>
         <v>4000</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="11">
         <v>2</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="15" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>4200</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="15"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="22" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="15"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="11">
         <v>50</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="11">
         <v>3</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="11">
         <v>100</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>0.5</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="11">
         <v>2</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="11">
         <v>400</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <v>4</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="11">
         <v>1</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="15" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="11">
         <v>500</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="O34" s="15"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O35" s="15"/>
+      <c r="O35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8049,10 +8091,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,817 +8105,1318 @@
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="183">
         <v>12</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="95">
         <v>-4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="95">
         <v>10</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="197">
         <v>29</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="P2" s="198"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="184">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="95">
         <v>-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="95">
         <v>10</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="199">
         <v>30</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="95">
         <v>3</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="95">
         <v>5</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="P3" s="126"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="185">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="95">
         <v>-4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="95">
         <v>10</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="70">
+      <c r="G4" s="51"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="199">
         <v>20</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="95">
         <v>4</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="95">
         <v>2</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="186">
         <v>13</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95">
         <v>10</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="199">
         <v>30</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="187">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95">
         <v>10</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="70">
+      <c r="H6" s="99"/>
+      <c r="I6" s="199">
         <v>20</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="188">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="95">
         <v>-4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="95">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="70">
+      <c r="H7" s="99"/>
+      <c r="I7" s="199">
         <v>20</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="189">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="95">
         <v>-8</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="95">
         <v>10</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="70">
+      <c r="H8" s="99"/>
+      <c r="I8" s="199">
         <v>20</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="89" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="189">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="49" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="71">
+      <c r="G9" s="52"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="201">
         <v>20</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="190">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="69">
+      <c r="H10" s="99"/>
+      <c r="I10" s="197">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="191">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="70">
+      <c r="G11" s="53"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="199">
         <v>24</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="95"/>
+      <c r="K11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="47" t="s">
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="70">
+      <c r="G12" s="53"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="199">
         <v>20</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="49" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="71">
+      <c r="H13" s="99"/>
+      <c r="I13" s="201">
         <v>20</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="45" t="s">
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="44" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="69">
+      <c r="H14" s="99"/>
+      <c r="I14" s="197">
         <v>20</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="192">
         <v>275</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="95">
         <v>-3</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="7">
+      <c r="G15" s="54"/>
+      <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="199">
         <v>35</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="193">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="70">
+      <c r="G16" s="54"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="199">
         <v>20</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="194">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="47" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="70">
+      <c r="H17" s="99"/>
+      <c r="I17" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="47" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="199">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="95">
         <v>25</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="71">
+      <c r="H19" s="99"/>
+      <c r="I19" s="201">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="95">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="69">
+      <c r="G20" s="56"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="49" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="32">
+      <c r="G21" s="55"/>
+      <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="201">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="195">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="95"/>
+      <c r="E22" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="69">
+      <c r="G22" s="57"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="47" t="s">
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="70">
+      <c r="G23" s="58"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="49" t="s">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="71">
+      <c r="H24" s="99"/>
+      <c r="I24" s="201">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="45" t="s">
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="69">
+      <c r="G25" s="59"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="197">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="47" t="s">
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="70">
+      <c r="G26" s="60"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="199">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="49" t="s">
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="22">
+      <c r="G27" s="61"/>
+      <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="201">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="H30" s="15">
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="95">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -9287,490 +9830,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="90" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>10</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>10</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>12</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>2</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>8</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>0.5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>4</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>6</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14">
         <v>7</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14">
         <v>8</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14">
         <v>9</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14">
         <v>10</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="14">
         <v>11</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9778,15 +10321,15 @@
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14">
         <v>12</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9794,15 +10337,15 @@
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14">
         <v>13</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9810,15 +10353,15 @@
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14">
         <v>14</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9826,15 +10369,15 @@
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>5</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="19">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14">
         <v>15</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="15">
         <v>18</v>
       </c>
     </row>
@@ -9842,71 +10385,71 @@
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <v>6</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14">
         <v>16</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="19">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14">
         <v>17</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="19">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14">
         <v>18</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="19">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="14">
         <v>19</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="16">
         <v>20</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9928,7 +10471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9970,19 +10513,19 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="85" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10002,14 +10545,14 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="85" t="s">
         <v>224</v>
       </c>
       <c r="H2">
@@ -10022,297 +10565,297 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="11" t="str">
         <f>CharacterSheet!E3</f>
         <v>Armed</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <f>Status!C27</f>
         <v>5</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <f>Status!Z3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="11" t="str">
         <f>CharacterSheet!E4</f>
         <v>Unarmed</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <f>Status!C28</f>
         <v>7</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <f>Status!Z4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="11" t="str">
         <f>CharacterSheet!E5</f>
         <v>Blocken</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="85" t="s">
         <v>227</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
         <v>7</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <f>Status!Z5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="11" t="str">
         <f>CharacterSheet!E6</f>
         <v>Artillerie</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="85" t="s">
         <v>228</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
         <v>2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <f>Status!Z6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="11" t="str">
         <f>CharacterSheet!E7</f>
         <v>Ranged</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <f>Status!D3</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <f>Status!Z7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="11" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="11" t="str">
         <f>CharacterSheet!E8</f>
         <v>throwing</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <f>Status!D4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="11" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <f>CharacterSheet!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="11" t="str">
         <f>CharacterSheet!E9</f>
         <v>Dodge</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <f>Status!D5</f>
         <v>1</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="11" t="str">
         <f>CharacterSheet!E10</f>
         <v>Acrobatics</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="85" t="s">
         <v>236</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
         <v>7</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="11" t="str">
         <f>CharacterSheet!E11</f>
         <v>Schleichen</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F11">
@@ -10321,13 +10864,13 @@
       <c r="G11" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <f>Status!D9</f>
         <v>7</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -10337,15 +10880,15 @@
         <f>Inventar!G22</f>
         <v>15.5</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="11" t="str">
         <f>CharacterSheet!E12</f>
         <v>Taschendiebstahl</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F12">
@@ -10354,7 +10897,7 @@
       <c r="G12" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <f>Status!D10</f>
         <v>7</v>
       </c>
@@ -10367,15 +10910,15 @@
         <f>Inventar!G19</f>
         <v>19.5</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="11" t="str">
         <f>CharacterSheet!E13</f>
         <v>Schlossknacken</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F13" t="str">
@@ -10385,38 +10928,38 @@
       <c r="G13" t="s">
         <v>239</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <f>Status!D11</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <f>Status!AA11</f>
         <v>48</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="11" t="str">
         <f>CharacterSheet!E14</f>
         <v>Lying</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="15" t="str">
+      <c r="F14" s="11" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="G14" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <f>Status!D12</f>
         <v>7</v>
       </c>
@@ -10429,18 +10972,18 @@
         <f>Status!AA13</f>
         <v>Leicht</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="11" t="str">
         <f>CharacterSheet!E15</f>
         <v>Persuation</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <f>Status!B4</f>
         <v>0</v>
       </c>
@@ -10460,25 +11003,25 @@
         <f>Status!R12</f>
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="11" t="str">
         <f>CharacterSheet!E16</f>
         <v>Performance</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="15" t="str">
+      <c r="F16" s="11" t="str">
         <f>Status!B5</f>
         <v>Leichter Schild</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <f>Status!E9</f>
         <v>1</v>
       </c>
@@ -10491,25 +11034,25 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="11" t="str">
         <f>CharacterSheet!E17</f>
         <v>Feilschen</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <f>Status!C2</f>
         <v>42</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <f>Status!E10</f>
         <v>1</v>
       </c>
@@ -10518,29 +11061,29 @@
       <c r="A18" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="11" t="str">
         <f>CharacterSheet!E18</f>
         <v>Insight</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <f>Status!C3</f>
         <v>12</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <f>Status!E11</f>
         <v>1</v>
       </c>
@@ -10553,49 +11096,49 @@
         <f>CharacterSheet!B8+CharacterSheet!B9</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="11" t="str">
         <f>CharacterSheet!E19</f>
         <v>Intimidation</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <f>Status!C4</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <f>Status!E12</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="str">
         <f>CharacterSheet!B13</f>
         <v>Random</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="11" t="str">
         <f>CharacterSheet!E20</f>
         <v xml:space="preserve">Swimming </v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>Status!C5</f>
         <v>15</v>
       </c>
@@ -10608,194 +11151,194 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="80" t="s">
         <v>88</v>
       </c>
       <c r="B21">
         <f>Status!D16</f>
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="11" t="str">
         <f>CharacterSheet!E21</f>
         <v>Running</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <f>Status!C13</f>
         <v>43.5</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="15" t="str">
+      <c r="H21" s="11" t="str">
         <f>Status!B9</f>
         <v>Leicht</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <f>Status!D17</f>
         <v>12</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="11" t="str">
         <f>CharacterSheet!E22</f>
         <v>Handwerk</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="11" t="str">
         <f>Status!A8</f>
         <v>Helm</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <f>Status!C8</f>
         <v>10.5</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="15" t="str">
+      <c r="H22" s="11" t="str">
         <f>Status!B10</f>
         <v>Leicht</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <f>Status!D18</f>
         <v>55</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="11" t="str">
         <f>CharacterSheet!E23</f>
         <v>Alchemie</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="11" t="str">
         <f>Status!A9</f>
         <v>Brust</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <f>Status!C9</f>
         <v>6</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="15" t="str">
+      <c r="H23" s="11" t="str">
         <f>Status!B11</f>
         <v>Mittel</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <f>Status!D19</f>
         <v>193</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="11" t="str">
         <f>CharacterSheet!E24</f>
         <v>Vehicles</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="11" t="str">
         <f>Status!A10</f>
         <v>Arme</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f>Status!C10</f>
         <v>6</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H24" s="15" t="str">
+      <c r="H24" s="11" t="str">
         <f>Status!B12</f>
         <v>Mittel</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <f>Status!D20</f>
         <v>55</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="11" t="str">
         <f>CharacterSheet!E25</f>
         <v>Animal Handling</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="11" t="str">
         <f>Status!A11</f>
         <v>Gürtel</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <f>Status!C11</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <f>Status!D21</f>
         <v>55</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="11">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="11" t="str">
         <f>Status!A12</f>
         <v>Beine</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <f>Status!C12</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <f>Status!D22</f>
         <v>69</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="11" t="str">
         <f>CharacterSheet!E27</f>
         <v>Perception</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="11">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
@@ -10808,30 +11351,30 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <f>Status!D23</f>
         <v>69</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="85" t="s">
         <v>263</v>
       </c>
       <c r="B29">
         <f>Status!Q17</f>
         <v>0</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\DownloadContainer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7130AE3F-412C-4791-948E-EFFB2C9FD039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458185F-A840-4E30-A5EB-085E0B682B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -1974,6 +1974,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2040,63 +2097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4098,8 +4098,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,11 +4148,11 @@
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="137"/>
-      <c r="J1" s="164" t="s">
+      <c r="J1" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
       <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
@@ -4199,11 +4199,11 @@
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="95"/>
-      <c r="J2" s="165">
+      <c r="J2" s="184">
         <v>100</v>
       </c>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
@@ -4216,12 +4216,12 @@
         <v>12</v>
       </c>
       <c r="S2" s="145"/>
-      <c r="T2" s="169" t="s">
+      <c r="T2" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="171"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="190"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="141"/>
       <c r="AA2" s="141" t="s">
@@ -4315,7 +4315,7 @@
         <v>27</v>
       </c>
       <c r="R4" s="63">
-        <f>CharacterSheet!B4+B4</f>
+        <f>CharacterSheet!B4+S4</f>
         <v>12</v>
       </c>
       <c r="S4" s="146"/>
@@ -4714,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="S11" s="146"/>
-      <c r="T11" s="175" t="s">
+      <c r="T11" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="177"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="196"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="157" t="s">
         <v>54</v>
@@ -4862,7 +4862,7 @@
       <c r="N14" s="95"/>
       <c r="O14" s="116"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="172" t="s">
+      <c r="Q14" s="191" t="s">
         <v>59</v>
       </c>
       <c r="R14" s="95"/>
@@ -4907,7 +4907,7 @@
       <c r="N15" s="95"/>
       <c r="O15" s="116"/>
       <c r="P15" s="95"/>
-      <c r="Q15" s="173"/>
+      <c r="Q15" s="192"/>
       <c r="R15" s="95"/>
       <c r="S15" s="96"/>
       <c r="T15" s="42" t="s">
@@ -4959,15 +4959,15 @@
       <c r="N16" s="95"/>
       <c r="O16" s="116"/>
       <c r="P16" s="95"/>
-      <c r="Q16" s="174"/>
+      <c r="Q16" s="193"/>
       <c r="R16" s="95"/>
       <c r="S16" s="97"/>
-      <c r="T16" s="169" t="s">
+      <c r="T16" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="171"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="190"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="120" t="s">
         <v>66</v>
@@ -5375,12 +5375,12 @@
       </c>
       <c r="R23" s="105"/>
       <c r="S23" s="97"/>
-      <c r="T23" s="169" t="s">
+      <c r="T23" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="171"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="189"/>
+      <c r="W23" s="190"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="95"/>
@@ -5509,12 +5509,12 @@
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
       <c r="S26" s="97"/>
-      <c r="T26" s="169" t="s">
+      <c r="T26" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="171"/>
+      <c r="U26" s="189"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="190"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="95"/>
       <c r="AA26" s="95"/>
@@ -5587,13 +5587,13 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="95"/>
-      <c r="I28" s="178" t="s">
+      <c r="I28" s="197" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="180"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="95"/>
       <c r="O28" s="95"/>
       <c r="P28" s="95"/>
@@ -5630,13 +5630,13 @@
       <c r="F29" s="95"/>
       <c r="G29" s="131"/>
       <c r="H29" s="131"/>
-      <c r="I29" s="166" t="s">
+      <c r="I29" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="168"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="187"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
@@ -5692,12 +5692,12 @@
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="169" t="s">
+      <c r="T30" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="171"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="189"/>
+      <c r="W30" s="190"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="95"/>
       <c r="AA30" s="95"/>
@@ -7326,7 +7326,7 @@
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="181"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="I2" s="91"/>
@@ -7348,7 +7348,7 @@
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="182"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="I3" s="17" t="s">
@@ -7418,7 +7418,7 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="200"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11"/>
@@ -7436,7 +7436,7 @@
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="182"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="I6" s="17" t="s">
@@ -7486,7 +7486,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="181"/>
+      <c r="E8" s="200"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="I8" s="11"/>
@@ -7504,7 +7504,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="182"/>
+      <c r="E9" s="201"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="17" t="s">
@@ -8093,7 +8093,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8152,7 +8152,7 @@
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="183">
+      <c r="B2" s="164">
         <v>12</v>
       </c>
       <c r="C2" s="95">
@@ -8173,7 +8173,7 @@
       <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="197">
+      <c r="I2" s="178">
         <v>29</v>
       </c>
       <c r="J2" s="95"/>
@@ -8192,7 +8192,7 @@
       <c r="O2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="198"/>
+      <c r="P2" s="179"/>
       <c r="Q2" s="95"/>
       <c r="R2" s="95"/>
       <c r="S2" s="95"/>
@@ -8207,7 +8207,7 @@
       <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="184">
+      <c r="B3" s="165">
         <v>12</v>
       </c>
       <c r="C3" s="95">
@@ -8228,7 +8228,7 @@
       <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="199">
+      <c r="I3" s="180">
         <v>30</v>
       </c>
       <c r="J3" s="95"/>
@@ -8262,7 +8262,7 @@
       <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="185">
+      <c r="B4" s="166">
         <v>12</v>
       </c>
       <c r="C4" s="95">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="99"/>
-      <c r="I4" s="199">
+      <c r="I4" s="180">
         <v>20</v>
       </c>
       <c r="J4" s="95"/>
@@ -8311,7 +8311,7 @@
       <c r="A5" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="186">
+      <c r="B5" s="167">
         <v>13</v>
       </c>
       <c r="C5" s="95"/>
@@ -8330,7 +8330,7 @@
       <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="199">
+      <c r="I5" s="180">
         <v>30</v>
       </c>
       <c r="J5" s="95"/>
@@ -8356,7 +8356,7 @@
       <c r="A6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="168">
         <v>10</v>
       </c>
       <c r="C6" s="95"/>
@@ -8373,7 +8373,7 @@
         <v>204</v>
       </c>
       <c r="H6" s="99"/>
-      <c r="I6" s="199">
+      <c r="I6" s="180">
         <v>20</v>
       </c>
       <c r="J6" s="95"/>
@@ -8397,7 +8397,7 @@
       <c r="A7" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="169">
         <v>12</v>
       </c>
       <c r="C7" s="95">
@@ -8416,7 +8416,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="99"/>
-      <c r="I7" s="199">
+      <c r="I7" s="180">
         <v>20</v>
       </c>
       <c r="J7" s="95"/>
@@ -8440,7 +8440,7 @@
       <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="189">
+      <c r="B8" s="170">
         <v>5</v>
       </c>
       <c r="C8" s="95">
@@ -8459,11 +8459,11 @@
         <v>36</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="I8" s="199">
+      <c r="I8" s="180">
         <v>20</v>
       </c>
       <c r="J8" s="95"/>
-      <c r="K8" s="200" t="s">
+      <c r="K8" s="181" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="95"/>
@@ -8485,7 +8485,7 @@
       <c r="A9" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="189">
+      <c r="B9" s="170">
         <v>5</v>
       </c>
       <c r="C9" s="95"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="99"/>
-      <c r="I9" s="201">
+      <c r="I9" s="182">
         <v>20</v>
       </c>
       <c r="J9" s="95"/>
@@ -8524,7 +8524,7 @@
       <c r="A10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="190">
+      <c r="B10" s="171">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="99"/>
-      <c r="I10" s="197">
+      <c r="I10" s="178">
         <v>20</v>
       </c>
       <c r="J10" s="95"/>
@@ -8566,7 +8566,7 @@
       <c r="A11" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="191">
+      <c r="B11" s="172">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="199">
+      <c r="I11" s="180">
         <v>24</v>
       </c>
       <c r="J11" s="95"/>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="199">
+      <c r="I12" s="180">
         <v>20</v>
       </c>
       <c r="J12" s="95"/>
@@ -8654,7 +8654,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="99"/>
-      <c r="I13" s="201">
+      <c r="I13" s="182">
         <v>20</v>
       </c>
       <c r="J13" s="95"/>
@@ -8689,7 +8689,7 @@
         <v>86</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="197">
+      <c r="I14" s="178">
         <v>20</v>
       </c>
       <c r="J14" s="95"/>
@@ -8713,7 +8713,7 @@
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="192">
+      <c r="B15" s="173">
         <v>275</v>
       </c>
       <c r="C15" s="95">
@@ -8730,7 +8730,7 @@
       <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="199">
+      <c r="I15" s="180">
         <v>35</v>
       </c>
       <c r="J15" s="95"/>
@@ -8754,7 +8754,7 @@
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="193">
+      <c r="B16" s="174">
         <v>12</v>
       </c>
       <c r="C16" s="95"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="99"/>
-      <c r="I16" s="199">
+      <c r="I16" s="180">
         <v>20</v>
       </c>
       <c r="J16" s="95"/>
@@ -8791,7 +8791,7 @@
       <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="194">
+      <c r="B17" s="175">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>142</v>
       </c>
       <c r="H17" s="99"/>
-      <c r="I17" s="199">
+      <c r="I17" s="180">
         <v>20</v>
       </c>
       <c r="J17" s="95"/>
@@ -8831,7 +8831,7 @@
       <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="195">
+      <c r="B18" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="199">
+      <c r="I18" s="180">
         <v>28</v>
       </c>
       <c r="J18" s="95"/>
@@ -8873,7 +8873,7 @@
       <c r="A19" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="195">
+      <c r="B19" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>142</v>
       </c>
       <c r="H19" s="99"/>
-      <c r="I19" s="201">
+      <c r="I19" s="182">
         <v>20</v>
       </c>
       <c r="J19" s="95"/>
@@ -8917,7 +8917,7 @@
       <c r="A20" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="195">
+      <c r="B20" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="197">
+      <c r="I20" s="178">
         <v>20</v>
       </c>
       <c r="J20" s="95"/>
@@ -8960,7 +8960,7 @@
       <c r="A21" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="195">
+      <c r="B21" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="201">
+      <c r="I21" s="182">
         <v>28</v>
       </c>
       <c r="J21" s="95"/>
@@ -9000,11 +9000,11 @@
       <c r="A22" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="195">
+      <c r="B22" s="176">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="177" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="95"/>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="197">
+      <c r="I22" s="178">
         <v>20</v>
       </c>
       <c r="J22" s="95"/>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="199">
+      <c r="I23" s="180">
         <v>20</v>
       </c>
       <c r="J23" s="95"/>
@@ -9084,7 +9084,7 @@
         <v>204</v>
       </c>
       <c r="H24" s="99"/>
-      <c r="I24" s="201">
+      <c r="I24" s="182">
         <v>20</v>
       </c>
       <c r="J24" s="95"/>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="99"/>
-      <c r="I25" s="197">
+      <c r="I25" s="178">
         <v>20</v>
       </c>
       <c r="J25" s="95"/>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="99"/>
-      <c r="I26" s="199">
+      <c r="I26" s="180">
         <v>20</v>
       </c>
       <c r="J26" s="95"/>
@@ -9185,7 +9185,7 @@
       <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="201">
+      <c r="I27" s="182">
         <v>35</v>
       </c>
       <c r="J27" s="95"/>

--- a/Container/CCrand.xlsx
+++ b/Container/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458185F-A840-4E30-A5EB-085E0B682B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E1C13-1E56-4E62-9D92-2E4D514521FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Kampf</t>
   </si>
   <si>
-    <t>Kaiserlich 10</t>
-  </si>
-  <si>
-    <t>literatur</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>Phy</t>
   </si>
   <si>
-    <t>Rah Kari 6</t>
-  </si>
-  <si>
-    <t>kirche des allgotts</t>
-  </si>
-  <si>
     <t>Rücken</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Armed</t>
   </si>
   <si>
-    <t>Pferdezucht</t>
-  </si>
-  <si>
     <t>Köcher</t>
   </si>
   <si>
@@ -254,12 +239,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
     <t>Trivia</t>
   </si>
   <si>
@@ -584,9 +563,6 @@
     <t>600-700</t>
   </si>
   <si>
-    <t>Hanlo, dieses ist ein Beispielcharakter, seine backstory ist beispielhaft</t>
-  </si>
-  <si>
     <t>Artillerie</t>
   </si>
   <si>
@@ -698,9 +674,6 @@
     <t>Bein Links</t>
   </si>
   <si>
-    <t>Kaiserlich 8</t>
-  </si>
-  <si>
     <t>Waffe</t>
   </si>
   <si>
@@ -984,13 +957,46 @@
   </si>
   <si>
     <t>Rüstungsschwere</t>
+  </si>
+  <si>
+    <t>Kaiserlich 3</t>
+  </si>
+  <si>
+    <t>Wissenspunkte:</t>
+  </si>
+  <si>
+    <t>Kontaktpunkte:</t>
+  </si>
+  <si>
+    <t>Religion des Allgottes 3</t>
+  </si>
+  <si>
+    <t>Elfisch 2</t>
+  </si>
+  <si>
+    <t>Geschichte des Kaiserreichs 1</t>
+  </si>
+  <si>
+    <t>Schriftlehre 1</t>
+  </si>
+  <si>
+    <t>Wissen und Sprachen</t>
+  </si>
+  <si>
+    <t>Nur relevant für Char-Creation, danach umwandeln um die Punkte selbst zu tracken:</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Affection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1060,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1943,12 +1957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2098,6 +2106,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3796,6 +3819,229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9117329</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF9E3C1-A7D4-45D8-989A-007F2D0FFFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524" y="9525"/>
+          <a:ext cx="9107805" cy="6800850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Kindheit und Jugend:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>CCrand wuchs im Herzland auf und blabla</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Geschichte:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Momentan ist CCrand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> unterwegs um Abenteuer zu erleben da er später einmal Allgottspriester werden will</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800"/>
+            <a:t>Religion: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>Random Charakter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> ist allgottgläubig seitdem er geboren wurde. Streng religiös von seinen Eltern erzogen wollte er immer Priester werden. Allerdings muss er sich dafür erstmal seine Sporen verdienen.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>Politische Vorstellungen:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t>CCrand ist Unpolitisch da er ein Beispielcharakter ist </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+            <a:t>Wichtige Freundschaften:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200"/>
+            <a:t>CCrand hat einen Saufkumpan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+            <a:t> namens Arminius Laschet</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425239</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6418988E-C838-4C8D-A02E-BE10039CDAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10056072" y="0"/>
+          <a:ext cx="4381500" cy="6903364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4099,60 +4345,60 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="11" customWidth="1"/>
-    <col min="6" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.578125" customWidth="1"/>
+    <col min="3" max="3" width="7.578125" customWidth="1"/>
+    <col min="4" max="4" width="6.83984375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.15625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="3.83984375" customWidth="1"/>
+    <col min="8" max="8" width="1.41796875" customWidth="1"/>
+    <col min="9" max="9" width="4.26171875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="34" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="11" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="2.41796875" customWidth="1"/>
+    <col min="12" max="12" width="2.83984375" customWidth="1"/>
+    <col min="13" max="13" width="4.41796875" customWidth="1"/>
+    <col min="14" max="14" width="1.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.41796875" customWidth="1"/>
+    <col min="16" max="16" width="3.83984375" customWidth="1"/>
+    <col min="17" max="17" width="18.15625" customWidth="1"/>
+    <col min="18" max="18" width="5.15625" style="34" customWidth="1"/>
+    <col min="19" max="19" width="5.15625" customWidth="1"/>
+    <col min="20" max="20" width="15.26171875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.26171875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="6.41796875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="3.83984375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.41796875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="3.578125" customWidth="1"/>
+    <col min="26" max="27" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="138" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="134" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E1" s="136"/>
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="137"/>
-      <c r="J1" s="183" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
+      <c r="J1" s="181" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
       <c r="Q1" s="136" t="s">
         <v>4</v>
       </c>
@@ -4172,7 +4418,7 @@
       </c>
       <c r="X1" s="136"/>
       <c r="Z1" s="140" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA1" s="140" t="s">
         <v>9</v>
@@ -4181,9 +4427,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
-        <v>270</v>
+    <row r="2" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="154" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>12</v>
@@ -4199,11 +4445,11 @@
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="95"/>
-      <c r="J2" s="184">
+      <c r="J2" s="182">
         <v>100</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
@@ -4215,31 +4461,31 @@
         <f>CharacterSheet!B2+S2</f>
         <v>12</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="188" t="s">
+      <c r="S2" s="143"/>
+      <c r="T2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="190"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="188"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="141"/>
-      <c r="AA2" s="141" t="s">
-        <v>15</v>
+      <c r="AA2" s="204" t="s">
+        <v>305</v>
       </c>
       <c r="AB2" s="95" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="AC2" s="95"/>
       <c r="AD2" s="95"/>
       <c r="AE2" s="95"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
-        <v>17</v>
+    <row r="3" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="155" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="106">
         <v>12</v>
@@ -4260,21 +4506,21 @@
       <c r="O3" s="95"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R3" s="53">
         <f>CharacterSheet!B3+S3</f>
         <v>12</v>
       </c>
-      <c r="S3" s="146"/>
+      <c r="S3" s="144"/>
       <c r="T3" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="W3" s="94">
         <f>CharacterSheet!I2</f>
@@ -4283,18 +4529,18 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="142"/>
       <c r="AA3" s="142" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="AB3" s="95" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="AC3" s="95"/>
       <c r="AD3" s="95"/>
       <c r="AE3" s="95"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>223</v>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="155" t="s">
+        <v>214</v>
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
@@ -4312,21 +4558,21 @@
       <c r="O4" s="95"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R4" s="63">
         <f>CharacterSheet!B4+S4</f>
         <v>12</v>
       </c>
-      <c r="S4" s="146"/>
+      <c r="S4" s="144"/>
       <c r="T4" s="40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W4" s="41">
         <f>CharacterSheet!I3</f>
@@ -4336,18 +4582,18 @@
       <c r="Z4" s="142"/>
       <c r="AA4" s="142"/>
       <c r="AB4" s="95" t="s">
-        <v>29</v>
+        <v>311</v>
       </c>
       <c r="AC4" s="95"/>
       <c r="AD4" s="95"/>
       <c r="AE4" s="95"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="157" t="s">
-        <v>26</v>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="155" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C5" s="106">
         <v>15</v>
@@ -4368,18 +4614,18 @@
       <c r="O5" s="95"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="40" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="R5" s="69">
         <f>CharacterSheet!B5+S5</f>
         <v>13</v>
       </c>
-      <c r="S5" s="146"/>
+      <c r="S5" s="144"/>
       <c r="T5" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V5" s="32"/>
       <c r="W5" s="41">
@@ -4389,12 +4635,11 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="142"/>
       <c r="AA5" s="142"/>
-      <c r="AB5" s="95"/>
       <c r="AC5" s="95"/>
       <c r="AD5" s="95"/>
       <c r="AE5" s="95"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="137"/>
       <c r="B6" s="109"/>
       <c r="C6" s="99"/>
@@ -4412,21 +4657,21 @@
       <c r="O6" s="95"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R6" s="58">
         <f>CharacterSheet!B6+S6</f>
         <v>10</v>
       </c>
-      <c r="S6" s="146"/>
+      <c r="S6" s="144"/>
       <c r="T6" s="40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W6" s="41">
         <f>CharacterSheet!I5</f>
@@ -4435,26 +4680,25 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="142"/>
       <c r="AA6" s="142"/>
-      <c r="AB6" s="95"/>
       <c r="AC6" s="95"/>
       <c r="AD6" s="95"/>
       <c r="AE6" s="95"/>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158" t="s">
-        <v>37</v>
+    <row r="7" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="156" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="99"/>
@@ -4468,21 +4712,21 @@
       <c r="O7" s="95"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="72" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R7" s="73">
         <f>CharacterSheet!B7+S7</f>
         <v>12</v>
       </c>
-      <c r="S7" s="146"/>
+      <c r="S7" s="144"/>
       <c r="T7" s="40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W7" s="41">
         <f>CharacterSheet!I6</f>
@@ -4496,12 +4740,12 @@
       <c r="AD7" s="95"/>
       <c r="AE7" s="95"/>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="138" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C8" s="115">
         <v>10.5</v>
@@ -4524,29 +4768,29 @@
       <c r="O8" s="95"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R8" s="74">
         <f>CharacterSheet!B8+S8</f>
         <v>5</v>
       </c>
-      <c r="S8" s="146"/>
+      <c r="S8" s="144"/>
       <c r="T8" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W8" s="41">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="160" t="s">
-        <v>42</v>
+      <c r="Z8" s="158" t="s">
+        <v>37</v>
       </c>
       <c r="AA8" s="138"/>
       <c r="AB8" s="95"/>
@@ -4554,12 +4798,12 @@
       <c r="AD8" s="95"/>
       <c r="AE8" s="95"/>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="138" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="115">
         <v>6</v>
@@ -4582,31 +4826,31 @@
       <c r="O9" s="114"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="77" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R9" s="78">
         <f>CharacterSheet!B9+S9</f>
         <v>5</v>
       </c>
-      <c r="S9" s="146"/>
+      <c r="S9" s="144"/>
       <c r="T9" s="40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W9" s="41">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="157">
+      <c r="Z9" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="155">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
@@ -4615,12 +4859,12 @@
       <c r="AD9" s="95"/>
       <c r="AE9" s="95"/>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="138" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="115">
         <v>6</v>
@@ -4637,7 +4881,7 @@
       <c r="I10" s="102"/>
       <c r="J10" s="99"/>
       <c r="K10" s="99" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="99"/>
       <c r="M10" s="103"/>
@@ -4645,21 +4889,21 @@
       <c r="O10" s="116"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R10" s="64">
         <f>CharacterSheet!B10+S10</f>
         <v>18</v>
       </c>
-      <c r="S10" s="146">
+      <c r="S10" s="144">
         <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="43">
@@ -4667,10 +4911,10 @@
         <v>20</v>
       </c>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="157">
+      <c r="Z10" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="155">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
@@ -4679,12 +4923,12 @@
       <c r="AD10" s="95"/>
       <c r="AE10" s="95"/>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="138" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C11" s="115">
         <v>10.5</v>
@@ -4707,24 +4951,24 @@
       <c r="O11" s="116"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R11" s="65">
         <f>CharacterSheet!B11+S11</f>
         <v>10</v>
       </c>
-      <c r="S11" s="146"/>
-      <c r="T11" s="194" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="195"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="196"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="192" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="194"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="157">
+      <c r="Z11" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="155">
         <f>R2*4</f>
         <v>48</v>
       </c>
@@ -4733,12 +4977,12 @@
       <c r="AD11" s="95"/>
       <c r="AE11" s="95"/>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
-        <v>58</v>
+    <row r="12" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="157" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C12" s="119">
         <v>10.5</v>
@@ -4761,31 +5005,31 @@
       <c r="O12" s="116"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="66" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="R12" s="79">
         <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="S12" s="146"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W12" s="39">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="157">
+      <c r="Z12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="155">
         <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
@@ -4794,9 +5038,9 @@
       <c r="AD12" s="95"/>
       <c r="AE12" s="95"/>
     </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="160" t="s">
-        <v>51</v>
+    <row r="13" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="158" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="120"/>
       <c r="C13" s="121">
@@ -4811,7 +5055,7 @@
       <c r="I13" s="102"/>
       <c r="J13" s="99"/>
       <c r="K13" s="99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L13" s="99"/>
       <c r="M13" s="103"/>
@@ -4822,10 +5066,10 @@
       <c r="R13" s="95"/>
       <c r="S13" s="96"/>
       <c r="T13" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U13" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V13" s="29"/>
       <c r="W13" s="41">
@@ -4833,10 +5077,10 @@
         <v>24</v>
       </c>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="161" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA13" s="157" t="str">
+      <c r="Z13" s="159" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA13" s="155" t="str">
         <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
@@ -4845,7 +5089,7 @@
       <c r="AD13" s="95"/>
       <c r="AE13" s="95"/>
     </row>
-    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="122"/>
       <c r="B14" s="109"/>
       <c r="C14" s="95"/>
@@ -4862,16 +5106,16 @@
       <c r="N14" s="95"/>
       <c r="O14" s="116"/>
       <c r="P14" s="95"/>
-      <c r="Q14" s="191" t="s">
-        <v>59</v>
+      <c r="Q14" s="189" t="s">
+        <v>54</v>
       </c>
       <c r="R14" s="95"/>
       <c r="S14" s="96"/>
       <c r="T14" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V14" s="29"/>
       <c r="W14" s="41">
@@ -4886,14 +5130,14 @@
       <c r="AD14" s="95"/>
       <c r="AE14" s="95"/>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="95"/>
       <c r="B15" s="95"/>
       <c r="C15" s="120" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E15" s="95"/>
       <c r="F15" s="95"/>
@@ -4907,17 +5151,17 @@
       <c r="N15" s="95"/>
       <c r="O15" s="116"/>
       <c r="P15" s="95"/>
-      <c r="Q15" s="192"/>
+      <c r="Q15" s="190"/>
       <c r="R15" s="95"/>
       <c r="S15" s="96"/>
       <c r="T15" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V15" s="36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W15" s="43">
         <f>CharacterSheet!I13</f>
@@ -4931,11 +5175,11 @@
       <c r="AD15" s="95"/>
       <c r="AE15" s="95"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="148">
+    <row r="16" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="146">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
@@ -4943,7 +5187,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D16" s="152">
+      <c r="D16" s="150">
         <f>B16-C16</f>
         <v>275</v>
       </c>
@@ -4959,18 +5203,18 @@
       <c r="N16" s="95"/>
       <c r="O16" s="116"/>
       <c r="P16" s="95"/>
-      <c r="Q16" s="193"/>
+      <c r="Q16" s="191"/>
       <c r="R16" s="95"/>
       <c r="S16" s="97"/>
-      <c r="T16" s="188" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="190"/>
+      <c r="T16" s="186" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="188"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="120" t="s">
-        <v>66</v>
+      <c r="Z16" s="203" t="s">
+        <v>61</v>
       </c>
       <c r="AA16" s="95"/>
       <c r="AB16" s="95"/>
@@ -4978,11 +5222,11 @@
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="150">
+    <row r="17" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="148">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
@@ -4990,7 +5234,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="161">
         <f>B17+C17</f>
         <v>12</v>
       </c>
@@ -5012,39 +5256,39 @@
       <c r="R17" s="95"/>
       <c r="S17" s="96"/>
       <c r="T17" s="38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V17" s="44" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W17" s="39">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA17" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC17" s="144" t="s">
-        <v>72</v>
+      <c r="Z17" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="201" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB17" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC17" s="201" t="s">
+        <v>65</v>
       </c>
       <c r="AD17" s="95"/>
       <c r="AE17" s="95"/>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="151">
+    <row r="18" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="149">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
@@ -5052,7 +5296,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="150">
         <f>B18+C18</f>
         <v>55</v>
       </c>
@@ -5064,13 +5308,13 @@
       <c r="G18" s="95"/>
       <c r="H18" s="95"/>
       <c r="I18" s="104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
       <c r="M18" s="105" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N18" s="95"/>
       <c r="O18" s="95"/>
@@ -5079,10 +5323,10 @@
       <c r="R18" s="95"/>
       <c r="S18" s="96"/>
       <c r="T18" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="U18" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V18" s="33"/>
       <c r="W18" s="41">
@@ -5091,25 +5335,25 @@
       </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="95" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="95">
         <v>5</v>
       </c>
       <c r="AC18" s="95" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AD18" s="95"/>
       <c r="AE18" s="95"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="152">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="150">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
@@ -5117,7 +5361,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="152">
+      <c r="D19" s="150">
         <f>B19+C19</f>
         <v>193</v>
       </c>
@@ -5140,10 +5384,10 @@
       <c r="R19" s="99"/>
       <c r="S19" s="96"/>
       <c r="T19" s="40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="U19" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V19" s="33"/>
       <c r="W19" s="41">
@@ -5152,25 +5396,25 @@
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="95" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA19" s="95">
         <v>4</v>
       </c>
       <c r="AB19" s="95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC19" s="95" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="95"/>
       <c r="AE19" s="95"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="152" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="152">
+    <row r="20" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="150">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
@@ -5178,7 +5422,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="150">
         <f t="shared" ref="D20:D23" si="1">B20+C20</f>
         <v>55</v>
       </c>
@@ -5201,13 +5445,13 @@
       <c r="R20" s="99"/>
       <c r="S20" s="96"/>
       <c r="T20" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W20" s="41">
         <f>CharacterSheet!I17</f>
@@ -5215,7 +5459,7 @@
       </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="126" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AA20" s="95"/>
       <c r="AB20" s="95"/>
@@ -5223,11 +5467,11 @@
       <c r="AD20" s="95"/>
       <c r="AE20" s="95"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="152" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="152">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="150" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="150">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
@@ -5235,7 +5479,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="152">
+      <c r="D21" s="150">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5255,18 +5499,18 @@
       <c r="O21" s="95"/>
       <c r="P21" s="95"/>
       <c r="Q21" s="100" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R21" s="101"/>
       <c r="S21" s="96"/>
       <c r="T21" s="40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W21" s="41">
         <f>CharacterSheet!I18</f>
@@ -5280,11 +5524,11 @@
       <c r="AD21" s="95"/>
       <c r="AE21" s="95"/>
     </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="152">
+    <row r="22" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="150">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
@@ -5292,7 +5536,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="152">
+      <c r="D22" s="150">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5304,7 +5548,7 @@
       <c r="G22" s="95"/>
       <c r="H22" s="95"/>
       <c r="I22" s="125" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="95"/>
@@ -5314,18 +5558,18 @@
       <c r="O22" s="95"/>
       <c r="P22" s="95"/>
       <c r="Q22" s="102" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R22" s="103"/>
       <c r="S22" s="96"/>
       <c r="T22" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="V22" s="70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W22" s="43">
         <f>CharacterSheet!I19</f>
@@ -5339,11 +5583,11 @@
       <c r="AD22" s="95"/>
       <c r="AE22" s="95"/>
     </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="152">
+    <row r="23" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="150">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
@@ -5351,7 +5595,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="150">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5371,16 +5615,16 @@
       <c r="O23" s="95"/>
       <c r="P23" s="95"/>
       <c r="Q23" s="104" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="R23" s="105"/>
       <c r="S23" s="97"/>
-      <c r="T23" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="U23" s="189"/>
-      <c r="V23" s="189"/>
-      <c r="W23" s="190"/>
+      <c r="T23" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="188"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="95"/>
@@ -5389,7 +5633,7 @@
       <c r="AD23" s="95"/>
       <c r="AE23" s="95"/>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="126"/>
       <c r="B24" s="126"/>
       <c r="C24" s="126"/>
@@ -5413,10 +5657,10 @@
       <c r="R24" s="95"/>
       <c r="S24" s="96"/>
       <c r="T24" s="38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U24" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V24" s="71"/>
       <c r="W24" s="39">
@@ -5431,18 +5675,18 @@
       <c r="AD24" s="95"/>
       <c r="AE24" s="95"/>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="153" t="s">
-        <v>220</v>
+    <row r="25" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="151" t="s">
+        <v>211</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="128" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E25" s="95" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
@@ -5463,10 +5707,10 @@
       <c r="R25" s="95"/>
       <c r="S25" s="96"/>
       <c r="T25" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V25" s="70"/>
       <c r="W25" s="43">
@@ -5481,8 +5725,8 @@
       <c r="AD25" s="95"/>
       <c r="AE25" s="95"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154" t="s">
+    <row r="26" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="152" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="129" t="s">
@@ -5509,12 +5753,12 @@
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
       <c r="S26" s="97"/>
-      <c r="T26" s="188" t="s">
-        <v>97</v>
-      </c>
-      <c r="U26" s="189"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="190"/>
+      <c r="T26" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="188"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="95"/>
       <c r="AA26" s="95"/>
@@ -5523,12 +5767,12 @@
       <c r="AD26" s="95"/>
       <c r="AE26" s="95"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155" t="s">
-        <v>17</v>
+    <row r="27" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="153" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="130">
         <v>5</v>
@@ -5552,10 +5796,10 @@
       <c r="R27" s="95"/>
       <c r="S27" s="96"/>
       <c r="T27" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="U27" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V27" s="48"/>
       <c r="W27" s="39">
@@ -5570,12 +5814,12 @@
       <c r="AD27" s="95"/>
       <c r="AE27" s="95"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
-        <v>25</v>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="153" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C28" s="130">
         <v>7</v>
@@ -5587,13 +5831,13 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="H28" s="95"/>
-      <c r="I28" s="197" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28" s="198"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
+      <c r="I28" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
       <c r="N28" s="95"/>
       <c r="O28" s="95"/>
       <c r="P28" s="95"/>
@@ -5601,10 +5845,10 @@
       <c r="R28" s="95"/>
       <c r="S28" s="96"/>
       <c r="T28" s="40" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V28" s="10"/>
       <c r="W28" s="41">
@@ -5619,9 +5863,9 @@
       <c r="AD28" s="95"/>
       <c r="AE28" s="95"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="155" t="s">
-        <v>30</v>
+    <row r="29" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="153" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="130"/>
       <c r="C29" s="130"/>
@@ -5630,13 +5874,13 @@
       <c r="F29" s="95"/>
       <c r="G29" s="131"/>
       <c r="H29" s="131"/>
-      <c r="I29" s="185" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="187"/>
+      <c r="I29" s="183" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="185"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
@@ -5644,13 +5888,13 @@
       <c r="R29" s="95"/>
       <c r="S29" s="96"/>
       <c r="T29" s="42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U29" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V29" s="36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W29" s="43">
         <f>CharacterSheet!I24</f>
@@ -5664,12 +5908,12 @@
       <c r="AD29" s="95"/>
       <c r="AE29" s="95"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
-        <v>26</v>
+    <row r="30" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="153" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="130">
         <v>7</v>
@@ -5692,12 +5936,12 @@
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="188" t="s">
-        <v>101</v>
-      </c>
-      <c r="U30" s="189"/>
-      <c r="V30" s="189"/>
-      <c r="W30" s="190"/>
+      <c r="T30" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="188"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="95"/>
       <c r="AA30" s="95"/>
@@ -5706,7 +5950,7 @@
       <c r="AD30" s="95"/>
       <c r="AE30" s="95"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="132"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
@@ -5727,10 +5971,10 @@
       <c r="R31" s="95"/>
       <c r="S31" s="96"/>
       <c r="T31" s="38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U31" s="49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V31" s="49"/>
       <c r="W31" s="39">
@@ -5745,7 +5989,7 @@
       <c r="AD31" s="95"/>
       <c r="AE31" s="95"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="132"/>
       <c r="B32" s="132"/>
       <c r="C32" s="132"/>
@@ -5766,10 +6010,10 @@
       <c r="R32" s="95"/>
       <c r="S32" s="96"/>
       <c r="T32" s="40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U32" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="41">
@@ -5784,7 +6028,7 @@
       <c r="AD32" s="95"/>
       <c r="AE32" s="95"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="132"/>
       <c r="B33" s="132"/>
       <c r="C33" s="132"/>
@@ -5805,10 +6049,10 @@
       <c r="R33" s="95"/>
       <c r="S33" s="96"/>
       <c r="T33" s="42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="U33" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V33" s="50"/>
       <c r="W33" s="43">
@@ -5822,7 +6066,7 @@
       <c r="AD33" s="95"/>
       <c r="AE33" s="95"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="84"/>
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
@@ -5834,7 +6078,7 @@
       <c r="AD34" s="95"/>
       <c r="AE34" s="95"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z35" s="95"/>
       <c r="AA35" s="95"/>
       <c r="AB35" s="95"/>
@@ -5842,7 +6086,7 @@
       <c r="AD35" s="95"/>
       <c r="AE35" s="95"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z36" s="95"/>
       <c r="AA36" s="95"/>
       <c r="AB36" s="95"/>
@@ -5850,7 +6094,7 @@
       <c r="AD36" s="95"/>
       <c r="AE36" s="95"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z37" s="95"/>
       <c r="AA37" s="95"/>
       <c r="AB37" s="95"/>
@@ -5858,7 +6102,7 @@
       <c r="AD37" s="95"/>
       <c r="AE37" s="95"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z38" s="95"/>
       <c r="AA38" s="95"/>
       <c r="AB38" s="95"/>
@@ -5866,7 +6110,7 @@
       <c r="AD38" s="95"/>
       <c r="AE38" s="95"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z39" s="95"/>
       <c r="AA39" s="95"/>
       <c r="AB39" s="95"/>
@@ -5874,7 +6118,7 @@
       <c r="AD39" s="95"/>
       <c r="AE39" s="95"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z40" s="95"/>
       <c r="AA40" s="95"/>
       <c r="AB40" s="95"/>
@@ -5882,7 +6126,7 @@
       <c r="AD40" s="95"/>
       <c r="AE40" s="95"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z41" s="95"/>
       <c r="AA41" s="95"/>
       <c r="AB41" s="95"/>
@@ -5890,7 +6134,7 @@
       <c r="AD41" s="95"/>
       <c r="AE41" s="95"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z42" s="95"/>
       <c r="AA42" s="95"/>
       <c r="AB42" s="95"/>
@@ -5898,7 +6142,7 @@
       <c r="AD42" s="95"/>
       <c r="AE42" s="95"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z43" s="95"/>
       <c r="AA43" s="95"/>
       <c r="AB43" s="95"/>
@@ -5906,7 +6150,7 @@
       <c r="AD43" s="95"/>
       <c r="AE43" s="95"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z44" s="95"/>
       <c r="AA44" s="95"/>
       <c r="AB44" s="95"/>
@@ -5914,7 +6158,7 @@
       <c r="AD44" s="95"/>
       <c r="AE44" s="95"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z45" s="95"/>
       <c r="AA45" s="95"/>
       <c r="AB45" s="95"/>
@@ -5922,7 +6166,7 @@
       <c r="AD45" s="95"/>
       <c r="AE45" s="95"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z46" s="95"/>
       <c r="AA46" s="95"/>
       <c r="AB46" s="95"/>
@@ -5930,7 +6174,7 @@
       <c r="AD46" s="95"/>
       <c r="AE46" s="95"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z47" s="95"/>
       <c r="AA47" s="95"/>
       <c r="AB47" s="95"/>
@@ -5938,7 +6182,7 @@
       <c r="AD47" s="95"/>
       <c r="AE47" s="95"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z48" s="95"/>
       <c r="AA48" s="95"/>
       <c r="AB48" s="95"/>
@@ -5946,7 +6190,7 @@
       <c r="AD48" s="95"/>
       <c r="AE48" s="95"/>
     </row>
-    <row r="49" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z49" s="95"/>
       <c r="AA49" s="95"/>
       <c r="AB49" s="95"/>
@@ -5954,7 +6198,7 @@
       <c r="AD49" s="95"/>
       <c r="AE49" s="95"/>
     </row>
-    <row r="50" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z50" s="95"/>
       <c r="AA50" s="95"/>
       <c r="AB50" s="95"/>
@@ -5962,7 +6206,7 @@
       <c r="AD50" s="95"/>
       <c r="AE50" s="95"/>
     </row>
-    <row r="51" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z51" s="95"/>
       <c r="AA51" s="95"/>
       <c r="AB51" s="95"/>
@@ -5970,7 +6214,7 @@
       <c r="AD51" s="95"/>
       <c r="AE51" s="95"/>
     </row>
-    <row r="52" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z52" s="95"/>
       <c r="AA52" s="95"/>
       <c r="AB52" s="95"/>
@@ -5978,7 +6222,7 @@
       <c r="AD52" s="95"/>
       <c r="AE52" s="95"/>
     </row>
-    <row r="53" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z53" s="95"/>
       <c r="AA53" s="95"/>
       <c r="AB53" s="95"/>
@@ -5986,7 +6230,7 @@
       <c r="AD53" s="95"/>
       <c r="AE53" s="95"/>
     </row>
-    <row r="54" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z54" s="95"/>
       <c r="AA54" s="95"/>
       <c r="AB54" s="95"/>
@@ -5994,7 +6238,7 @@
       <c r="AD54" s="95"/>
       <c r="AE54" s="95"/>
     </row>
-    <row r="55" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z55" s="95"/>
       <c r="AA55" s="95"/>
       <c r="AB55" s="95"/>
@@ -6002,7 +6246,7 @@
       <c r="AD55" s="95"/>
       <c r="AE55" s="95"/>
     </row>
-    <row r="56" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z56" s="95"/>
       <c r="AA56" s="95"/>
       <c r="AB56" s="95"/>
@@ -6010,7 +6254,7 @@
       <c r="AD56" s="95"/>
       <c r="AE56" s="95"/>
     </row>
-    <row r="57" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z57" s="95"/>
       <c r="AA57" s="95"/>
       <c r="AB57" s="95"/>
@@ -6018,7 +6262,7 @@
       <c r="AD57" s="95"/>
       <c r="AE57" s="95"/>
     </row>
-    <row r="58" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z58" s="95"/>
       <c r="AA58" s="95"/>
       <c r="AB58" s="95"/>
@@ -6026,7 +6270,7 @@
       <c r="AD58" s="95"/>
       <c r="AE58" s="95"/>
     </row>
-    <row r="59" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z59" s="95"/>
       <c r="AA59" s="95"/>
       <c r="AB59" s="95"/>
@@ -6034,7 +6278,7 @@
       <c r="AD59" s="95"/>
       <c r="AE59" s="95"/>
     </row>
-    <row r="60" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z60" s="95"/>
       <c r="AA60" s="95"/>
       <c r="AB60" s="95"/>
@@ -6042,7 +6286,7 @@
       <c r="AD60" s="95"/>
       <c r="AE60" s="95"/>
     </row>
-    <row r="61" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z61" s="95"/>
       <c r="AA61" s="95"/>
       <c r="AB61" s="95"/>
@@ -6050,7 +6294,7 @@
       <c r="AD61" s="95"/>
       <c r="AE61" s="95"/>
     </row>
-    <row r="62" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z62" s="95"/>
       <c r="AA62" s="95"/>
       <c r="AB62" s="95"/>
@@ -6058,7 +6302,7 @@
       <c r="AD62" s="95"/>
       <c r="AE62" s="95"/>
     </row>
-    <row r="63" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z63" s="95"/>
       <c r="AA63" s="95"/>
       <c r="AB63" s="95"/>
@@ -6066,7 +6310,7 @@
       <c r="AD63" s="95"/>
       <c r="AE63" s="95"/>
     </row>
-    <row r="64" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z64" s="95"/>
       <c r="AA64" s="95"/>
       <c r="AB64" s="95"/>
@@ -6074,7 +6318,7 @@
       <c r="AD64" s="95"/>
       <c r="AE64" s="95"/>
     </row>
-    <row r="65" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z65" s="95"/>
       <c r="AA65" s="95"/>
       <c r="AB65" s="95"/>
@@ -6082,7 +6326,7 @@
       <c r="AD65" s="95"/>
       <c r="AE65" s="95"/>
     </row>
-    <row r="66" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z66" s="95"/>
       <c r="AA66" s="95"/>
       <c r="AB66" s="95"/>
@@ -6090,7 +6334,7 @@
       <c r="AD66" s="95"/>
       <c r="AE66" s="95"/>
     </row>
-    <row r="67" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z67" s="95"/>
       <c r="AA67" s="95"/>
       <c r="AB67" s="95"/>
@@ -6098,7 +6342,7 @@
       <c r="AD67" s="95"/>
       <c r="AE67" s="95"/>
     </row>
-    <row r="68" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z68" s="95"/>
       <c r="AA68" s="95"/>
       <c r="AB68" s="95"/>
@@ -6106,7 +6350,7 @@
       <c r="AD68" s="95"/>
       <c r="AE68" s="95"/>
     </row>
-    <row r="69" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z69" s="95"/>
       <c r="AA69" s="95"/>
       <c r="AB69" s="95"/>
@@ -6114,7 +6358,7 @@
       <c r="AD69" s="95"/>
       <c r="AE69" s="95"/>
     </row>
-    <row r="70" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z70" s="95"/>
       <c r="AA70" s="95"/>
       <c r="AB70" s="95"/>
@@ -6122,7 +6366,7 @@
       <c r="AD70" s="95"/>
       <c r="AE70" s="95"/>
     </row>
-    <row r="71" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z71" s="95"/>
       <c r="AA71" s="95"/>
       <c r="AB71" s="95"/>
@@ -6130,7 +6374,7 @@
       <c r="AD71" s="95"/>
       <c r="AE71" s="95"/>
     </row>
-    <row r="72" spans="26:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="26:31" x14ac:dyDescent="0.55000000000000004">
       <c r="Z72" s="95"/>
       <c r="AA72" s="95"/>
       <c r="AB72" s="95"/>
@@ -6563,36 +6807,36 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6609,23 +6853,23 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="5" max="6" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11">
         <v>30000</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E1" s="11">
         <f>13490-E2+E3</f>
@@ -6636,65 +6880,65 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E2" s="11">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E3" s="11">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11">
         <v>5000</v>
@@ -6709,9 +6953,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11">
         <v>2250</v>
@@ -6722,15 +6966,15 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B9" s="11">
         <v>3000</v>
@@ -6747,9 +6991,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
         <f>E10*1000</f>
@@ -6766,49 +7010,49 @@
         <v>2</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" s="11">
         <v>2000</v>
@@ -6822,14 +7066,14 @@
       <c r="E15" s="11"/>
       <c r="F15" s="8"/>
       <c r="G15" s="68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11">
         <v>2000</v>
@@ -6849,9 +7093,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11">
         <v>3000</v>
@@ -6868,9 +7112,9 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11">
         <v>3000</v>
@@ -6884,14 +7128,14 @@
       <c r="E18" s="11"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B19" s="11">
         <v>3000</v>
@@ -6911,7 +7155,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -6922,7 +7166,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6930,12 +7174,12 @@
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6952,7 +7196,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6963,7 +7207,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6974,7 +7218,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6985,30 +7229,30 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -7016,16 +7260,16 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B28" s="11">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" s="11">
         <f>0.5*E28</f>
@@ -7039,16 +7283,16 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B29" s="11">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D29" s="11">
         <f>0.5*E29</f>
@@ -7062,7 +7306,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -7073,32 +7317,32 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B33" s="11">
         <v>100</v>
@@ -7108,9 +7352,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B34" s="11">
         <v>500</v>
@@ -7135,25 +7379,25 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162"/>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7166,7 +7410,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7179,7 +7423,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7192,7 +7436,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -7205,7 +7449,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -7218,7 +7462,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7231,7 +7475,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -7244,7 +7488,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -7271,62 +7515,62 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="86" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>285</v>
-      </c>
       <c r="J1" s="90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K1" s="90" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="88" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="200"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="I2" s="91"/>
@@ -7337,58 +7581,58 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="89" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="201"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="I3" s="17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="89" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J4" s="11">
         <v>22500</v>
@@ -7403,22 +7647,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O4" s="92"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="89" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="200"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11"/>
@@ -7429,45 +7673,45 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="89" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="201"/>
+      <c r="E6" s="199"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="I6" s="17" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="89" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -7479,14 +7723,14 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="89" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="200"/>
+      <c r="E8" s="198"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="I8" s="11"/>
@@ -7497,37 +7741,37 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="89" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="201"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="I9" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="89" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -7543,9 +7787,9 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -7554,7 +7798,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J11" s="11">
         <f>420*M11</f>
@@ -7569,13 +7813,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -7584,7 +7828,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J12" s="11">
         <f>900*M12</f>
@@ -7599,13 +7843,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
@@ -7614,7 +7858,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J13" s="11">
         <f>420*M13</f>
@@ -7629,13 +7873,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
@@ -7644,7 +7888,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J14" s="11">
         <f>900*M14</f>
@@ -7659,13 +7903,13 @@
         <v>4</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -7674,7 +7918,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J15" s="11">
         <f>5000*M15</f>
@@ -7689,13 +7933,13 @@
         <v>2</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -7704,7 +7948,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J16" s="11">
         <f>5000*M16</f>
@@ -7719,13 +7963,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
@@ -7734,7 +7978,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J17" s="11">
         <f>3000*M17</f>
@@ -7749,13 +7993,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -7764,7 +8008,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J18" s="11">
         <f>2000*M18</f>
@@ -7779,13 +8023,13 @@
         <v>2</v>
       </c>
       <c r="N18" s="93" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
@@ -7794,7 +8038,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J19" s="11">
         <v>4200</v>
@@ -7805,9 +8049,9 @@
       <c r="N19" s="93"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
@@ -7823,9 +8067,9 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
@@ -7834,28 +8078,28 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="I21" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -7871,9 +8115,9 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
@@ -7882,7 +8126,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J23" s="11">
         <v>50</v>
@@ -7897,9 +8141,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="16" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -7908,7 +8152,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J24" s="11">
         <v>100</v>
@@ -7923,7 +8167,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -7932,7 +8176,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J25" s="11">
         <v>400</v>
@@ -7947,7 +8191,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -7956,7 +8200,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J26" s="11">
         <v>500</v>
@@ -7971,7 +8215,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -7987,7 +8231,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8003,7 +8247,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8019,7 +8263,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8035,7 +8279,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8045,7 +8289,7 @@
       <c r="G31" s="11"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8055,7 +8299,7 @@
       <c r="G32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8065,7 +8309,7 @@
       <c r="G33" s="11"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -8075,7 +8319,7 @@
       <c r="G34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="O35" s="11"/>
     </row>
   </sheetData>
@@ -8094,34 +8338,40 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.578125" customWidth="1"/>
+    <col min="5" max="5" width="19.578125" customWidth="1"/>
+    <col min="6" max="6" width="4.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="4.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.578125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.1015625" customWidth="1"/>
+    <col min="12" max="12" width="14.578125" customWidth="1"/>
+    <col min="13" max="13" width="7.578125" customWidth="1"/>
+    <col min="14" max="14" width="8.7890625" customWidth="1"/>
+    <col min="15" max="15" width="13.9453125" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" customWidth="1"/>
+    <col min="17" max="17" width="5.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>6</v>
@@ -8131,28 +8381,28 @@
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>140</v>
+      <c r="J1" s="21"/>
+      <c r="K1" s="179" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="164">
+      <c r="B2" s="162">
         <v>12</v>
       </c>
       <c r="C2" s="95">
@@ -8162,37 +8412,37 @@
         <v>10</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="108">
         <v>-9</v>
       </c>
-      <c r="I2" s="178">
+      <c r="I2" s="176">
         <v>29</v>
       </c>
       <c r="J2" s="95"/>
       <c r="K2" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="179"/>
+        <v>308</v>
+      </c>
+      <c r="L2" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="201" t="s">
+        <v>314</v>
+      </c>
+      <c r="N2" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="201" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="177"/>
       <c r="Q2" s="95"/>
       <c r="R2" s="95"/>
       <c r="S2" s="95"/>
@@ -8203,11 +8453,11 @@
       <c r="X2" s="95"/>
       <c r="Y2" s="95"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="165">
+        <v>17</v>
+      </c>
+      <c r="B3" s="163">
         <v>12</v>
       </c>
       <c r="C3" s="95">
@@ -8217,35 +8467,35 @@
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="99">
         <v>-10</v>
       </c>
-      <c r="I3" s="180">
+      <c r="I3" s="178">
         <v>30</v>
       </c>
       <c r="J3" s="95"/>
       <c r="K3" s="95" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="L3" s="95" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M3" s="95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" s="95">
         <v>5</v>
       </c>
       <c r="O3" s="95" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P3" s="126"/>
       <c r="Q3" s="95"/>
@@ -8258,11 +8508,11 @@
       <c r="X3" s="95"/>
       <c r="Y3" s="95"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="166">
+        <v>23</v>
+      </c>
+      <c r="B4" s="164">
         <v>12</v>
       </c>
       <c r="C4" s="95">
@@ -8272,29 +8522,31 @@
         <v>10</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="99"/>
-      <c r="I4" s="180">
+      <c r="I4" s="178">
         <v>20</v>
       </c>
       <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
+      <c r="K4" s="95" t="s">
+        <v>311</v>
+      </c>
       <c r="L4" s="95" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4" s="95">
         <v>4</v>
       </c>
       <c r="N4" s="95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P4" s="99"/>
       <c r="Q4" s="95"/>
@@ -8307,11 +8559,11 @@
       <c r="X4" s="95"/>
       <c r="Y4" s="95"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="167">
+        <v>300</v>
+      </c>
+      <c r="B5" s="165">
         <v>13</v>
       </c>
       <c r="C5" s="95"/>
@@ -8319,24 +8571,26 @@
         <v>10</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="99">
         <v>-10</v>
       </c>
-      <c r="I5" s="180">
+      <c r="I5" s="178">
         <v>30</v>
       </c>
       <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
+      <c r="K5" s="126" t="s">
+        <v>305</v>
+      </c>
       <c r="L5" s="126" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
@@ -8352,11 +8606,11 @@
       <c r="X5" s="95"/>
       <c r="Y5" s="95"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="168">
+        <v>28</v>
+      </c>
+      <c r="B6" s="166">
         <v>10</v>
       </c>
       <c r="C6" s="95"/>
@@ -8364,20 +8618,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H6" s="99"/>
-      <c r="I6" s="180">
+      <c r="I6" s="178">
         <v>20</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="K6" s="95" t="s">
+        <v>309</v>
+      </c>
       <c r="L6" s="95"/>
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
@@ -8393,11 +8649,11 @@
       <c r="X6" s="95"/>
       <c r="Y6" s="95"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="169">
+        <v>213</v>
+      </c>
+      <c r="B7" s="167">
         <v>12</v>
       </c>
       <c r="C7" s="95">
@@ -8407,16 +8663,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="99"/>
-      <c r="I7" s="180">
+      <c r="I7" s="178">
         <v>20</v>
       </c>
       <c r="J7" s="95"/>
@@ -8436,11 +8692,11 @@
       <c r="X7" s="95"/>
       <c r="Y7" s="95"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="170">
+        <v>35</v>
+      </c>
+      <c r="B8" s="168">
         <v>5</v>
       </c>
       <c r="C8" s="95">
@@ -8450,22 +8706,19 @@
         <v>10</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="I8" s="180">
+      <c r="I8" s="178">
         <v>20</v>
       </c>
       <c r="J8" s="95"/>
-      <c r="K8" s="181" t="s">
-        <v>10</v>
-      </c>
       <c r="L8" s="95"/>
       <c r="M8" s="95"/>
       <c r="N8" s="95"/>
@@ -8481,30 +8734,27 @@
       <c r="X8" s="95"/>
       <c r="Y8" s="95"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="170">
+        <v>174</v>
+      </c>
+      <c r="B9" s="168">
         <v>5</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
       <c r="E9" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="99"/>
-      <c r="I9" s="182">
+      <c r="I9" s="180">
         <v>20</v>
       </c>
       <c r="J9" s="95"/>
-      <c r="K9" s="95" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" s="95"/>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -8520,33 +8770,30 @@
       <c r="X9" s="95"/>
       <c r="Y9" s="95"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="171">
+        <v>39</v>
+      </c>
+      <c r="B10" s="169">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="95"/>
       <c r="E10" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="99"/>
-      <c r="I10" s="178">
+      <c r="I10" s="176">
         <v>20</v>
       </c>
       <c r="J10" s="95"/>
-      <c r="K10" s="95" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="95"/>
       <c r="M10" s="95"/>
       <c r="N10" s="95"/>
@@ -8562,35 +8809,34 @@
       <c r="X10" s="95"/>
       <c r="Y10" s="95"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="172">
+        <v>44</v>
+      </c>
+      <c r="B11" s="170">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
       <c r="E11" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="180">
+      <c r="I11" s="178">
         <v>24</v>
       </c>
       <c r="J11" s="95"/>
-      <c r="K11" s="95" t="s">
-        <v>29</v>
-      </c>
       <c r="L11" s="95"/>
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
+      <c r="O11" s="200" t="s">
+        <v>313</v>
+      </c>
       <c r="P11" s="95"/>
       <c r="Q11" s="95"/>
       <c r="R11" s="95"/>
@@ -8602,30 +8848,37 @@
       <c r="X11" s="95"/>
       <c r="Y11" s="95"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="126"/>
       <c r="C12" s="95"/>
       <c r="D12" s="95"/>
       <c r="E12" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="180">
+      <c r="I12" s="178">
         <v>20</v>
       </c>
       <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
       <c r="L12" s="95"/>
       <c r="M12" s="95"/>
       <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
+      <c r="O12" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12" s="106">
+        <f>B4*4+B7</f>
+        <v>60</v>
+      </c>
+      <c r="Q12" s="95">
+        <f>-15-15-20-10</f>
+        <v>-60</v>
+      </c>
       <c r="R12" s="95"/>
       <c r="S12" s="95"/>
       <c r="T12" s="95"/>
@@ -8635,36 +8888,43 @@
       <c r="X12" s="95"/>
       <c r="Y12" s="95"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="95"/>
       <c r="E13" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H13" s="99"/>
-      <c r="I13" s="182">
+      <c r="I13" s="180">
         <v>20</v>
       </c>
       <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
       <c r="L13" s="95"/>
       <c r="M13" s="95"/>
       <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
+      <c r="O13" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" s="106">
+        <f>B6*4+B7</f>
+        <v>52</v>
+      </c>
+      <c r="Q13" s="95">
+        <f>-25-15-5-5</f>
+        <v>-50</v>
+      </c>
       <c r="R13" s="95"/>
       <c r="S13" s="95"/>
       <c r="T13" s="95"/>
@@ -8674,22 +8934,22 @@
       <c r="X13" s="95"/>
       <c r="Y13" s="95"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="11"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
       <c r="E14" s="38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="178">
+      <c r="I14" s="176">
         <v>20</v>
       </c>
       <c r="J14" s="95"/>
@@ -8709,11 +8969,11 @@
       <c r="X14" s="95"/>
       <c r="Y14" s="95"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="173">
+        <v>81</v>
+      </c>
+      <c r="B15" s="171">
         <v>275</v>
       </c>
       <c r="C15" s="95">
@@ -8721,16 +8981,16 @@
       </c>
       <c r="D15" s="95"/>
       <c r="E15" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="99">
         <v>-15</v>
       </c>
-      <c r="I15" s="180">
+      <c r="I15" s="178">
         <v>35</v>
       </c>
       <c r="J15" s="95"/>
@@ -8750,24 +9010,24 @@
       <c r="X15" s="95"/>
       <c r="Y15" s="95"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="174">
+        <v>83</v>
+      </c>
+      <c r="B16" s="172">
         <v>12</v>
       </c>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
       <c r="E16" s="40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="99"/>
-      <c r="I16" s="180">
+      <c r="I16" s="178">
         <v>20</v>
       </c>
       <c r="J16" s="95"/>
@@ -8787,27 +9047,27 @@
       <c r="X16" s="95"/>
       <c r="Y16" s="95"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="175">
+        <v>86</v>
+      </c>
+      <c r="B17" s="173">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H17" s="99"/>
-      <c r="I17" s="180">
+      <c r="I17" s="178">
         <v>20</v>
       </c>
       <c r="J17" s="95"/>
@@ -8827,29 +9087,29 @@
       <c r="X17" s="95"/>
       <c r="Y17" s="95"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="176">
+        <v>88</v>
+      </c>
+      <c r="B18" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
         <v>193</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
       <c r="E18" s="40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H18" s="99">
         <v>-8</v>
       </c>
-      <c r="I18" s="180">
+      <c r="I18" s="178">
         <v>28</v>
       </c>
       <c r="J18" s="95"/>
@@ -8869,11 +9129,11 @@
       <c r="X18" s="95"/>
       <c r="Y18" s="95"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="176">
+        <v>206</v>
+      </c>
+      <c r="B19" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8881,19 +9141,19 @@
         <v>25</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H19" s="99"/>
-      <c r="I19" s="182">
+      <c r="I19" s="180">
         <v>20</v>
       </c>
       <c r="J19" s="95"/>
@@ -8913,11 +9173,11 @@
       <c r="X19" s="95"/>
       <c r="Y19" s="95"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="176">
+        <v>207</v>
+      </c>
+      <c r="B20" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
@@ -8926,17 +9186,17 @@
         <v>0</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="178">
+      <c r="I20" s="176">
         <v>20</v>
       </c>
       <c r="J20" s="95"/>
@@ -8956,27 +9216,27 @@
       <c r="X20" s="95"/>
       <c r="Y20" s="95"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="176">
+        <v>208</v>
+      </c>
+      <c r="B21" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
       <c r="E21" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="109">
         <v>-8</v>
       </c>
-      <c r="I21" s="182">
+      <c r="I21" s="180">
         <v>28</v>
       </c>
       <c r="J21" s="95"/>
@@ -8996,27 +9256,27 @@
       <c r="X21" s="95"/>
       <c r="Y21" s="95"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="176">
+        <v>209</v>
+      </c>
+      <c r="B22" s="174">
         <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
         <v>69</v>
       </c>
-      <c r="C22" s="177" t="s">
-        <v>144</v>
+      <c r="C22" s="175" t="s">
+        <v>137</v>
       </c>
       <c r="D22" s="95"/>
       <c r="E22" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="178">
+      <c r="I22" s="176">
         <v>20</v>
       </c>
       <c r="J22" s="95"/>
@@ -9036,20 +9296,20 @@
       <c r="X22" s="95"/>
       <c r="Y22" s="95"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="95"/>
       <c r="C23" s="95"/>
       <c r="D23" s="95"/>
       <c r="E23" s="40" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="180">
+      <c r="I23" s="178">
         <v>20</v>
       </c>
       <c r="J23" s="95"/>
@@ -9069,22 +9329,22 @@
       <c r="X23" s="95"/>
       <c r="Y23" s="95"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="11"/>
       <c r="B24" s="95"/>
       <c r="C24" s="95"/>
       <c r="D24" s="95"/>
       <c r="E24" s="42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H24" s="99"/>
-      <c r="I24" s="182">
+      <c r="I24" s="180">
         <v>20</v>
       </c>
       <c r="J24" s="95"/>
@@ -9104,20 +9364,20 @@
       <c r="X24" s="95"/>
       <c r="Y24" s="95"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="95"/>
       <c r="C25" s="95"/>
       <c r="D25" s="95"/>
       <c r="E25" s="38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="99"/>
-      <c r="I25" s="178">
+      <c r="I25" s="176">
         <v>20</v>
       </c>
       <c r="J25" s="95"/>
@@ -9137,20 +9397,20 @@
       <c r="X25" s="95"/>
       <c r="Y25" s="95"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="95"/>
       <c r="C26" s="95"/>
       <c r="D26" s="95"/>
       <c r="E26" s="40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G26" s="60"/>
       <c r="H26" s="99"/>
-      <c r="I26" s="180">
+      <c r="I26" s="178">
         <v>20</v>
       </c>
       <c r="J26" s="95"/>
@@ -9170,22 +9430,22 @@
       <c r="X26" s="95"/>
       <c r="Y26" s="95"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="11"/>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="110">
         <v>-15</v>
       </c>
-      <c r="I27" s="182">
+      <c r="I27" s="180">
         <v>35</v>
       </c>
       <c r="J27" s="95"/>
@@ -9205,7 +9465,7 @@
       <c r="X27" s="95"/>
       <c r="Y27" s="95"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="95"/>
       <c r="C28" s="95"/>
@@ -9231,7 +9491,7 @@
       <c r="X28" s="95"/>
       <c r="Y28" s="95"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="95"/>
       <c r="C29" s="95"/>
       <c r="D29" s="95"/>
@@ -9254,7 +9514,7 @@
       <c r="X29" s="95"/>
       <c r="Y29" s="95"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="95"/>
       <c r="C30" s="95"/>
@@ -9283,7 +9543,7 @@
       <c r="X30" s="95"/>
       <c r="Y30" s="95"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="95"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -9306,7 +9566,7 @@
       <c r="X31" s="95"/>
       <c r="Y31" s="95"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
       <c r="D32" s="95"/>
@@ -9329,7 +9589,7 @@
       <c r="X32" s="95"/>
       <c r="Y32" s="95"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
       <c r="D33" s="95"/>
@@ -9352,7 +9612,7 @@
       <c r="X33" s="95"/>
       <c r="Y33" s="95"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
       <c r="D34" s="95"/>
@@ -9375,7 +9635,7 @@
       <c r="X34" s="95"/>
       <c r="Y34" s="95"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
@@ -9398,7 +9658,7 @@
       <c r="X35" s="95"/>
       <c r="Y35" s="95"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -9406,8 +9666,6 @@
       <c r="L36" s="95"/>
       <c r="M36" s="95"/>
       <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
       <c r="Q36" s="95"/>
       <c r="R36" s="95"/>
       <c r="S36" s="95"/>
@@ -9819,24 +10077,24 @@
       <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.15625" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -9850,46 +10108,46 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="75" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K2" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>152</v>
-      </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -9906,16 +10164,16 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -9923,10 +10181,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J4" s="11">
         <v>10</v>
@@ -9941,20 +10199,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
@@ -9962,10 +10220,10 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J5" s="11">
         <v>10</v>
@@ -9980,20 +10238,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E6" s="11">
         <v>4</v>
@@ -10009,16 +10267,16 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E7" s="11">
         <v>6</v>
@@ -10034,16 +10292,16 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11">
         <v>8</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E8" s="11">
         <v>8</v>
@@ -10059,9 +10317,9 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9" s="11">
         <v>10</v>
@@ -10080,7 +10338,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -10097,12 +10355,12 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -10118,7 +10376,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="1"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -10135,9 +10393,9 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B13" s="11">
         <v>0.5</v>
@@ -10145,7 +10403,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
@@ -10158,9 +10416,9 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -10168,7 +10426,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F14" s="15">
         <v>4</v>
@@ -10183,9 +10441,9 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
@@ -10204,9 +10462,9 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" s="11">
         <v>4</v>
@@ -10214,10 +10472,10 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -10229,9 +10487,9 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B17" s="11">
         <v>6</v>
@@ -10245,9 +10503,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B18" s="11">
         <v>8</v>
@@ -10261,7 +10519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -10273,12 +10531,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -10289,7 +10547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10301,9 +10559,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -10317,9 +10575,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -10333,9 +10591,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B24" s="11">
         <v>3</v>
@@ -10349,9 +10607,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B25" s="11">
         <v>4</v>
@@ -10365,9 +10623,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B26" s="11">
         <v>5</v>
@@ -10381,9 +10639,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B27" s="11">
         <v>6</v>
@@ -10397,7 +10655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10409,7 +10667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -10421,7 +10679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -10433,7 +10691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -10445,7 +10703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10461,22 +10719,25 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
+    <col min="1" max="1" width="127.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>180</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;24Backstory</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10489,49 +10750,49 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" customWidth="1"/>
+    <col min="4" max="4" width="5.83984375" customWidth="1"/>
+    <col min="5" max="5" width="15.83984375" customWidth="1"/>
+    <col min="6" max="6" width="8.41796875" customWidth="1"/>
+    <col min="7" max="7" width="13.41796875" customWidth="1"/>
+    <col min="8" max="8" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <f>CharacterSheet!B2</f>
@@ -10546,14 +10807,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H2">
         <f>Status!C26</f>
@@ -10564,9 +10825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11">
         <f>CharacterSheet!B3</f>
@@ -10581,14 +10842,14 @@
         <v>30</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F3" s="11">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H3" s="11">
         <f>Status!C27</f>
@@ -10599,9 +10860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11">
         <f>CharacterSheet!B4</f>
@@ -10616,14 +10877,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F4" s="11">
         <f>CharacterSheet!B17</f>
         <v>55</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H4" s="11">
         <f>Status!C28</f>
@@ -10634,9 +10895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11">
         <f>CharacterSheet!B5</f>
@@ -10651,14 +10912,14 @@
         <v>30</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F5" s="11">
         <f>CharacterSheet!B18</f>
         <v>193</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <f>Status!C30</f>
@@ -10669,9 +10930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" s="11">
         <f>CharacterSheet!B6</f>
@@ -10686,14 +10947,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F6" s="11">
         <f>CharacterSheet!B19</f>
         <v>55</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <f>Status!D2</f>
@@ -10704,9 +10965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B7" s="11">
         <f>CharacterSheet!B7</f>
@@ -10721,14 +10982,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F7" s="11">
         <f>CharacterSheet!B20</f>
         <v>55</v>
       </c>
       <c r="G7" s="85" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H7" s="11">
         <f>Status!D3</f>
@@ -10739,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -10757,14 +11018,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F8" s="11">
         <f>CharacterSheet!B21</f>
         <v>69</v>
       </c>
       <c r="G8" s="85" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H8" s="11">
         <f>Status!D4</f>
@@ -10772,7 +11033,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -10790,14 +11051,14 @@
         <v>20</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F9" s="11">
         <f>CharacterSheet!B22</f>
         <v>69</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H9" s="11">
         <f>Status!D5</f>
@@ -10805,9 +11066,9 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B10" s="11">
         <f>CharacterSheet!B10</f>
@@ -10822,14 +11083,14 @@
         <v>20</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F10" s="11">
         <f>CharacterSheet!B1</f>
         <v>0</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <f>Status!D8</f>
@@ -10839,9 +11100,9 @@
       <c r="J10" s="85"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B11" s="11">
         <f>CharacterSheet!B11</f>
@@ -10856,13 +11117,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H11" s="11">
         <f>Status!D9</f>
@@ -10872,9 +11133,9 @@
       <c r="J11" s="85"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B12">
     